--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_145.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_145.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32596-d293295-Reviews-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>192</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Courtyard-By-Marriott-Foothill-Ranch-Irvine-EastLake-Forest.h992547.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_145.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_145.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="868">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2540 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r569771643-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>32596</t>
+  </si>
+  <si>
+    <t>293295</t>
+  </si>
+  <si>
+    <t>569771643</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>A great area to stay and a nice hotel</t>
+  </si>
+  <si>
+    <t>This is a really quite area to stay. A great suburb and very modern. A bit like a commercial or business park layout. You need a car but I would recommend this area if you like your LA stay a little quitter.The hotel is really nice. A great open foyer/eating area/bar. The rooms are huge and the staff are so friendly. Easy free parking. We did experience an issue with the room but it was promptly managed by Leith at the front desk and he was really helpful, professional and apologetic. As a nice gesture he offered us a complimentary breakfast in the morning which for which we were very appreciative.The breakfast was served by Aaron and he too was so nice to chat too. It's nice to see some hotels in LA still have wonderful staff representing their brands so well as evidenced by Leith and Aaron.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>CYBMGeneralManager, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>This is a really quite area to stay. A great suburb and very modern. A bit like a commercial or business park layout. You need a car but I would recommend this area if you like your LA stay a little quitter.The hotel is really nice. A great open foyer/eating area/bar. The rooms are huge and the staff are so friendly. Easy free parking. We did experience an issue with the room but it was promptly managed by Leith at the front desk and he was really helpful, professional and apologetic. As a nice gesture he offered us a complimentary breakfast in the morning which for which we were very appreciative.The breakfast was served by Aaron and he too was so nice to chat too. It's nice to see some hotels in LA still have wonderful staff representing their brands so well as evidenced by Leith and Aaron.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r553797316-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>553797316</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Clean Modern Hotel</t>
+  </si>
+  <si>
+    <t>This is my second stay at this hotel and there's a reason I keep going back. The hotel is modern, the rooms are clean and spacious and the service is excellent .The hotel staff are friendly, housekeeping does a great job and the restaurant has fast efficient service. The only problem I have with Marriott Courtyard Hotels is they don't have room safes. I don't understand why they don't. They do have a safe, you can leave things with reception, but a room safe would make it nicer or those o us who travel with laptops etc.I didn't use the pool this time, but it's nice and clean.I'll stay here again next time I visit the relatives.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>CYBMGeneralManager, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>This is my second stay at this hotel and there's a reason I keep going back. The hotel is modern, the rooms are clean and spacious and the service is excellent .The hotel staff are friendly, housekeeping does a great job and the restaurant has fast efficient service. The only problem I have with Marriott Courtyard Hotels is they don't have room safes. I don't understand why they don't. They do have a safe, you can leave things with reception, but a room safe would make it nicer or those o us who travel with laptops etc.I didn't use the pool this time, but it's nice and clean.I'll stay here again next time I visit the relatives.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r548483932-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>548483932</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Good until I got bumped</t>
+  </si>
+  <si>
+    <t>10 of us here for business mtg. 5 got bumped.  Had to move to another hotel for half of our stay.  Staff apologetic about situation.  Set up and paid for alternate site. Paid for transportation to other hotel. Previous stay, staff courteous, helpful.  Room clear and comfortable. No gift shop, expensive convenience items, limited food options in coffee bar/cafe, but some items really tasty.  Avocado toast excellent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r530569921-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>530569921</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Convenient for local businesses and Rancho Las Lomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I haven’t been fond of Courtyards ever since the major remodel many years ago and this site only serves to reinforce that feeling. We were attending a wedding at nearby Rancho Las Lomas and this hotel is only a few miles away making it very convenient. I will say that the staff, especially Caitlin (sp?) at the front desk was amazing and very accommodating. I had reserved a block of four rooms and she graciously upgraded the bride and groom to a lovely master suite. As for the rest all I can say is it’s a typical Courtyard and leave it at that. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r524702079-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>524702079</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>3 week business stay</t>
+  </si>
+  <si>
+    <t>Not a great experience. Seems like everything is in need of service or fixing. The place smells moldy and musty and I must keep the window open to get the smell out. The entire hotel is that way. I wonder when they lasted had the AC system serviced. The ice machine has been broken for 2 weeks. The elevator broke. The TV in the lobby didn't work (or they lost the controls). Maid service is awful, constantly adjusting the temps and randomly leaving coffee. the cable freezes every night, you can't get the channel in your room that they get in the lobby because they want you to sit in the freezing cold lobby and purchase their over priced food and beverages. The staff is very nice, but constantly apologizing for things they have no control over. My credit card was hacked. I told the desk and spent an hour on the phone with Marriott customer care and they punted it back to the facility. Definitely not good for a long term stay. The cable situation is the most annoying thing because the channels are limited and the rest are frozen. I asked for a quite room and was placed back by the toll road!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>ArtA622, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Not a great experience. Seems like everything is in need of service or fixing. The place smells moldy and musty and I must keep the window open to get the smell out. The entire hotel is that way. I wonder when they lasted had the AC system serviced. The ice machine has been broken for 2 weeks. The elevator broke. The TV in the lobby didn't work (or they lost the controls). Maid service is awful, constantly adjusting the temps and randomly leaving coffee. the cable freezes every night, you can't get the channel in your room that they get in the lobby because they want you to sit in the freezing cold lobby and purchase their over priced food and beverages. The staff is very nice, but constantly apologizing for things they have no control over. My credit card was hacked. I told the desk and spent an hour on the phone with Marriott customer care and they punted it back to the facility. Definitely not good for a long term stay. The cable situation is the most annoying thing because the channels are limited and the rest are frozen. I asked for a quite room and was placed back by the toll road!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r518793816-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>518793816</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Not your average Courtyard, great local plaza and trail access</t>
+  </si>
+  <si>
+    <t>This is a really nice hotel in a very convenient spot.  The rooms are big and the furnishings are nice.  I had a king balcony on the third floor over looking the pool area.
+The bed was very comfortable and had a pair of bolsters behind the pillows.  They made laying in bed watching tv very comfortable.  Speaking of the tv, it was larger than most (guessing 50") with a great picture for the HD channels.  Pretty sure it's a satellite feed, because several on the network channels were a bit snowy.
+The bathroom was nice and bright, but the lights are on a motion sensor.  Spend too long in the shower with just the sink lighting on and it will go dark.  Shower amenities were great, Paul Mitchel shampoo and conditioner.
+The lobby is nice and includes what looked to be a very convenient restaurant, but I didn't eat there.  The hall corridors were also well done and everything looked new (a weird comment I know, but I've been in lots of places where the halls are dirty and ugly).
+The room also had great power outlets including USB plugs on both lamps on either side of the bed.  Lamp at the desk also had two outlets if memory serves.
+The plaza includes several restaurants and coffee shops.  I went to the Thai Garden, Urban Grill, Sunrise Bagel and Starbucks.
+But one of the best features of the location...This is a really nice hotel in a very convenient spot.  The rooms are big and the furnishings are nice.  I had a king balcony on the third floor over looking the pool area.The bed was very comfortable and had a pair of bolsters behind the pillows.  They made laying in bed watching tv very comfortable.  Speaking of the tv, it was larger than most (guessing 50") with a great picture for the HD channels.  Pretty sure it's a satellite feed, because several on the network channels were a bit snowy.The bathroom was nice and bright, but the lights are on a motion sensor.  Spend too long in the shower with just the sink lighting on and it will go dark.  Shower amenities were great, Paul Mitchel shampoo and conditioner.The lobby is nice and includes what looked to be a very convenient restaurant, but I didn't eat there.  The hall corridors were also well done and everything looked new (a weird comment I know, but I've been in lots of places where the halls are dirty and ugly).The room also had great power outlets including USB plugs on both lamps on either side of the bed.  Lamp at the desk also had two outlets if memory serves.The plaza includes several restaurants and coffee shops.  I went to the Thai Garden, Urban Grill, Sunrise Bagel and Starbucks.But one of the best features of the location is access to the Whiting Ranch Wilderness Area and the Serrano Trail.  Cross the parking lot, and it's right there.  Head toward the right, cross under the Foothills Parkway and follow the trail up Dreaded Hill.  If you can run all the way to the top, you're a stud.  The grade gets pretty steep, so I walked the last bit, but what a view.  Go to the left and you'll have miles of flatness that weave through the local communities.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>This is a really nice hotel in a very convenient spot.  The rooms are big and the furnishings are nice.  I had a king balcony on the third floor over looking the pool area.
+The bed was very comfortable and had a pair of bolsters behind the pillows.  They made laying in bed watching tv very comfortable.  Speaking of the tv, it was larger than most (guessing 50") with a great picture for the HD channels.  Pretty sure it's a satellite feed, because several on the network channels were a bit snowy.
+The bathroom was nice and bright, but the lights are on a motion sensor.  Spend too long in the shower with just the sink lighting on and it will go dark.  Shower amenities were great, Paul Mitchel shampoo and conditioner.
+The lobby is nice and includes what looked to be a very convenient restaurant, but I didn't eat there.  The hall corridors were also well done and everything looked new (a weird comment I know, but I've been in lots of places where the halls are dirty and ugly).
+The room also had great power outlets including USB plugs on both lamps on either side of the bed.  Lamp at the desk also had two outlets if memory serves.
+The plaza includes several restaurants and coffee shops.  I went to the Thai Garden, Urban Grill, Sunrise Bagel and Starbucks.
+But one of the best features of the location...This is a really nice hotel in a very convenient spot.  The rooms are big and the furnishings are nice.  I had a king balcony on the third floor over looking the pool area.The bed was very comfortable and had a pair of bolsters behind the pillows.  They made laying in bed watching tv very comfortable.  Speaking of the tv, it was larger than most (guessing 50") with a great picture for the HD channels.  Pretty sure it's a satellite feed, because several on the network channels were a bit snowy.The bathroom was nice and bright, but the lights are on a motion sensor.  Spend too long in the shower with just the sink lighting on and it will go dark.  Shower amenities were great, Paul Mitchel shampoo and conditioner.The lobby is nice and includes what looked to be a very convenient restaurant, but I didn't eat there.  The hall corridors were also well done and everything looked new (a weird comment I know, but I've been in lots of places where the halls are dirty and ugly).The room also had great power outlets including USB plugs on both lamps on either side of the bed.  Lamp at the desk also had two outlets if memory serves.The plaza includes several restaurants and coffee shops.  I went to the Thai Garden, Urban Grill, Sunrise Bagel and Starbucks.But one of the best features of the location is access to the Whiting Ranch Wilderness Area and the Serrano Trail.  Cross the parking lot, and it's right there.  Head toward the right, cross under the Foothills Parkway and follow the trail up Dreaded Hill.  If you can run all the way to the top, you're a stud.  The grade gets pretty steep, so I walked the last bit, but what a view.  Go to the left and you'll have miles of flatness that weave through the local communities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r507231009-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>507231009</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conveniently Courtyard </t>
+  </si>
+  <si>
+    <t>Repeat visit here . Conveniently located at Portola/Tollroad in Foothill Ranch. Clean, well run property. Be advised that on the weekends many kids sports teams reside here (noisy ,busy lobby &amp; common areas). However the staff seems to keep it cleaned up. Nice Outdoor pool/hot tub and patio area. Only complaints were... $4.13 for a 20 oz Diet Pepsi &amp; our room was missing the closet doors/full length mirror.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r499009419-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>499009419</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Good visit</t>
+  </si>
+  <si>
+    <t>Clean hotel - the lobby, hotel &amp; rooms were nice and clean.  The bed was comfortable, although the pillows were way to soft and we ended up going to Walmart to buy firm pillows (they had foam &amp; feather but both were too soft for us).  The AC worked GREAT!  We had a room on the 2nd floor facing the pool, it got a little loud at night with the kids in the pool, but once we closed the patio door and turned on the tv, it was fine.  The bathroom was clean too, no issues.  We did order breakfast from the Bistro downstairs, everything was delicious (a bit pricey but right in line for room service).  Has many things nearby - restaurants, movie theatre, stores, gas stations.. so location was great.  It was on the tollway so we had to pretty much pay for the tollway (through our rental) anytime we wanted to go anywhere, but other than that, great locations!  Would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Clean hotel - the lobby, hotel &amp; rooms were nice and clean.  The bed was comfortable, although the pillows were way to soft and we ended up going to Walmart to buy firm pillows (they had foam &amp; feather but both were too soft for us).  The AC worked GREAT!  We had a room on the 2nd floor facing the pool, it got a little loud at night with the kids in the pool, but once we closed the patio door and turned on the tv, it was fine.  The bathroom was clean too, no issues.  We did order breakfast from the Bistro downstairs, everything was delicious (a bit pricey but right in line for room service).  Has many things nearby - restaurants, movie theatre, stores, gas stations.. so location was great.  It was on the tollway so we had to pretty much pay for the tollway (through our rental) anytime we wanted to go anywhere, but other than that, great locations!  Would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r496571286-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>496571286</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Clean, Spacious, Very Good</t>
+  </si>
+  <si>
+    <t>Great Sleep, Good Bedding, Clean and Spacious Rooms and Bathrooms, Excellent Service. Several Restaurants and Shops near the area. There's not much to do around but if you are in the area this hotel is a great option.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r491602531-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>491602531</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Clean, conveniently located, comfortable.</t>
+  </si>
+  <si>
+    <t>I was in Foothill Ranch on business.  My employer booked and paid for my room at the Courtyard for a 2- night (Sunday/Monday) stay.  My room was clean and very comfortable.  The bed was awesome, the pillows were great.  I loved the wedge pillows against the wall acting as a headboard.  I had everything I needed - free WiFi, shampoo, coffee maker.  I would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r484755655-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>484755655</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Left on a Sour .... and ....Expensive Note!</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel for 5 nights while in Orange County, CA. We were there to visit my mother who was very ill. She passed away as we arrived in CA; we stayed here while making plans for her funeral.  The staff was friendly, the room very comfortable and the hotel is relatively new.  There is a bistro so we could get breakfast, or dinner when we were too tired to go out.  The location is good.  It's a business hotel so the rates are slightly higher Sunday through Thursday, $126 a night vs $123.  We needed to extend our stay one more night  (a Monday) and were told we could do so, even though they were technically sold out. We were not told there would be an increase in cost for the extra night. (We assumed we would pay the $126 for a business night as we had for the previous Thursday) We were disappointed to learn at check out that we had been charged $200+ for the fifth night of our stay.  When we asked why, we were told it was because they were "sold out" and the fewer rooms available, the higher the price.  Really!! Somehow that didn't make sense, especially since we had been there for four nights already!  Disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel for 5 nights while in Orange County, CA. We were there to visit my mother who was very ill. She passed away as we arrived in CA; we stayed here while making plans for her funeral.  The staff was friendly, the room very comfortable and the hotel is relatively new.  There is a bistro so we could get breakfast, or dinner when we were too tired to go out.  The location is good.  It's a business hotel so the rates are slightly higher Sunday through Thursday, $126 a night vs $123.  We needed to extend our stay one more night  (a Monday) and were told we could do so, even though they were technically sold out. We were not told there would be an increase in cost for the extra night. (We assumed we would pay the $126 for a business night as we had for the previous Thursday) We were disappointed to learn at check out that we had been charged $200+ for the fifth night of our stay.  When we asked why, we were told it was because they were "sold out" and the fewer rooms available, the higher the price.  Really!! Somehow that didn't make sense, especially since we had been there for four nights already!  Disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r480901927-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>480901927</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Maybe the best hotel in Foothill Ranch?</t>
+  </si>
+  <si>
+    <t>I have stayed at a few different hotels in the area and so far this has been the nicest one. Clean, great beds/pillows, great service. Kind of disappointing that elite members don't get breakfast at this Marriott chain - guess I am used to the Hilton all inclusive policies being a Diamond member for many years.Location within walking distance to a few good restaurants (Thai Garden and Urban Grill) and if you want to walk a bit further/drive a short distance Town Center has many restaurants and shops.Recommend the short drive to Rose Canyon Cantina/Grill, nice drive and good food with great service.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r466349074-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>466349074</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Weekend Get away</t>
+  </si>
+  <si>
+    <t>Used my Marriott Rewards for a one night stay at this lovely location.  This hotel located off the toll road, is situated near many restaurants and gyms.  The hotel is a newer courtyard, quiet and very comfortable.  I used the mobile check-in for early arrival and my room was waiting upon my arrival.  It's a lively hotel and I highly recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Used my Marriott Rewards for a one night stay at this lovely location.  This hotel located off the toll road, is situated near many restaurants and gyms.  The hotel is a newer courtyard, quiet and very comfortable.  I used the mobile check-in for early arrival and my room was waiting upon my arrival.  It's a lively hotel and I highly recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r451889530-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>451889530</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and modern</t>
+  </si>
+  <si>
+    <t>We were only in the hotel for one night however it was very comfortable, affordable and had modern decor and furnishings. The beds were super comfortable and shower pressure was just right.  The staff was genuinely friendly and helpful. We had a few drinks at the bar before heading out for the night and was surprised by the selection of drinks available. I had a spicy margarita that was delicious and the server even offered to make me something different if I didn't like it.  We needed an uber for our night out and found one easily in the neighborhood.  Overall a great experience that I'd definitely recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded January 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2017</t>
+  </si>
+  <si>
+    <t>We were only in the hotel for one night however it was very comfortable, affordable and had modern decor and furnishings. The beds were super comfortable and shower pressure was just right.  The staff was genuinely friendly and helpful. We had a few drinks at the bar before heading out for the night and was surprised by the selection of drinks available. I had a spicy margarita that was delicious and the server even offered to make me something different if I didn't like it.  We needed an uber for our night out and found one easily in the neighborhood.  Overall a great experience that I'd definitely recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r449624513-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>449624513</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Good Hotel/Annoying Toll Road</t>
+  </si>
+  <si>
+    <t>Overall, a nice property. I got a good rate. Rooms were clean. Blackout curtains were awesome. Amenities included in-room coffee, decent shampoo and conditioner. My room had a working TV and refrigerator. However, my brother's room was missing the refrigerator and the TV did not work properly. Had my brother's room not had these problems I would have given the property a rating of 4 instead of 3. Desk staff was polite. They offered to comp him a breakfast for the inconvenience.
+We did not use the pool, however another family told us that it was heated. There is a small restaurant on the property, again we did not use this feature.
+Surrounding area allows good access to restaurants and shopping. There is a Round Table Pizza and a Thai restaurant in the same complex. Within a 2-mile radius you'll have almost every retail and restaurant option you want.
+However, if you're going to travel North you'll need to use route 241 / 133. Turns out these are toll roads. Yet there is no immediate way for you to pay your toll if you do not have the local fast pass option. Instead of a toll plaza they photograph your license plate and you must go online to pay your toll. You have no idea how much the toll is while you're passing. For a regular passenger vehicle traveling from the hotel to Interstate 5 North it turned out to...Overall, a nice property. I got a good rate. Rooms were clean. Blackout curtains were awesome. Amenities included in-room coffee, decent shampoo and conditioner. My room had a working TV and refrigerator. However, my brother's room was missing the refrigerator and the TV did not work properly. Had my brother's room not had these problems I would have given the property a rating of 4 instead of 3. Desk staff was polite. They offered to comp him a breakfast for the inconvenience.We did not use the pool, however another family told us that it was heated. There is a small restaurant on the property, again we did not use this feature.Surrounding area allows good access to restaurants and shopping. There is a Round Table Pizza and a Thai restaurant in the same complex. Within a 2-mile radius you'll have almost every retail and restaurant option you want.However, if you're going to travel North you'll need to use route 241 / 133. Turns out these are toll roads. Yet there is no immediate way for you to pay your toll if you do not have the local fast pass option. Instead of a toll plaza they photograph your license plate and you must go online to pay your toll. You have no idea how much the toll is while you're passing. For a regular passenger vehicle traveling from the hotel to Interstate 5 North it turned out to be $3.70 each way. So be prepared to add an extra $7 to $8 a day in additional taxes that you give Orange County. Add to that when you go on their website you have to enter in your entry point, exit point and date of travel. If you use the unknown option they will charge you the maximum amount. I found this to be incredibly annoying and may alter weather I choose to stay at this hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>ArtA622, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded January 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2017</t>
+  </si>
+  <si>
+    <t>Overall, a nice property. I got a good rate. Rooms were clean. Blackout curtains were awesome. Amenities included in-room coffee, decent shampoo and conditioner. My room had a working TV and refrigerator. However, my brother's room was missing the refrigerator and the TV did not work properly. Had my brother's room not had these problems I would have given the property a rating of 4 instead of 3. Desk staff was polite. They offered to comp him a breakfast for the inconvenience.
+We did not use the pool, however another family told us that it was heated. There is a small restaurant on the property, again we did not use this feature.
+Surrounding area allows good access to restaurants and shopping. There is a Round Table Pizza and a Thai restaurant in the same complex. Within a 2-mile radius you'll have almost every retail and restaurant option you want.
+However, if you're going to travel North you'll need to use route 241 / 133. Turns out these are toll roads. Yet there is no immediate way for you to pay your toll if you do not have the local fast pass option. Instead of a toll plaza they photograph your license plate and you must go online to pay your toll. You have no idea how much the toll is while you're passing. For a regular passenger vehicle traveling from the hotel to Interstate 5 North it turned out to...Overall, a nice property. I got a good rate. Rooms were clean. Blackout curtains were awesome. Amenities included in-room coffee, decent shampoo and conditioner. My room had a working TV and refrigerator. However, my brother's room was missing the refrigerator and the TV did not work properly. Had my brother's room not had these problems I would have given the property a rating of 4 instead of 3. Desk staff was polite. They offered to comp him a breakfast for the inconvenience.We did not use the pool, however another family told us that it was heated. There is a small restaurant on the property, again we did not use this feature.Surrounding area allows good access to restaurants and shopping. There is a Round Table Pizza and a Thai restaurant in the same complex. Within a 2-mile radius you'll have almost every retail and restaurant option you want.However, if you're going to travel North you'll need to use route 241 / 133. Turns out these are toll roads. Yet there is no immediate way for you to pay your toll if you do not have the local fast pass option. Instead of a toll plaza they photograph your license plate and you must go online to pay your toll. You have no idea how much the toll is while you're passing. For a regular passenger vehicle traveling from the hotel to Interstate 5 North it turned out to be $3.70 each way. So be prepared to add an extra $7 to $8 a day in additional taxes that you give Orange County. Add to that when you go on their website you have to enter in your entry point, exit point and date of travel. If you use the unknown option they will charge you the maximum amount. I found this to be incredibly annoying and may alter weather I choose to stay at this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r440947686-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>440947686</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Good for business travelers</t>
+  </si>
+  <si>
+    <t>This is a good hotel for business travelers.  I stayed in this hotel in October 2016 and found it very clean, the staff was nice and the WIFI was adequate.  The location is great - close to restaurants and shopping.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r431386499-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>431386499</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Dirty and rude: avoid if you can!</t>
+  </si>
+  <si>
+    <t>Staying two weeks per month in a dirty hotel should be enough... but if it is very next to the office you can force yourself.But if you are hungry and "the Bistro" (what a wasted French name for using the microwave!!!) should be open looking at the timetable... but emplyee is too lazy and rude for preparing a salad... it is time to change.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Staying two weeks per month in a dirty hotel should be enough... but if it is very next to the office you can force yourself.But if you are hungry and "the Bistro" (what a wasted French name for using the microwave!!!) should be open looking at the timetable... but emplyee is too lazy and rude for preparing a salad... it is time to change.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r423977899-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>423977899</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too expensive for what I got </t>
+  </si>
+  <si>
+    <t>I use to sleep here when I'm on a business trip around here.They charge me 130$ per night for having an average room with a small neon light bathroom and a long but narrow double queen side bed. There's no other view than factories and a toll road.I would definitely pick something else if it was not so close to where I work at.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>I use to sleep here when I'm on a business trip around here.They charge me 130$ per night for having an average room with a small neon light bathroom and a long but narrow double queen side bed. There's no other view than factories and a toll road.I would definitely pick something else if it was not so close to where I work at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r418568937-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>418568937</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Stay when attending Saddleback Church Events</t>
+  </si>
+  <si>
+    <t>This was the third year in a row that we stayed at this hotel next to Saddleback Church.  I was very happy that the desk was able to accommodate my first floor room request since I hurt my knee a week prior to staying here.  The hotel also put in a Starbucks Coffee in the lobby this year! The room is just right for my wife and I.  The bathroom was very clean and it had a beautiful counter and shower tub.  The small couch was very comfortable to sit and watch the Olympics on.  Very quick access to Saddleback Church, you could easily walk over if you want to.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>This was the third year in a row that we stayed at this hotel next to Saddleback Church.  I was very happy that the desk was able to accommodate my first floor room request since I hurt my knee a week prior to staying here.  The hotel also put in a Starbucks Coffee in the lobby this year! The room is just right for my wife and I.  The bathroom was very clean and it had a beautiful counter and shower tub.  The small couch was very comfortable to sit and watch the Olympics on.  Very quick access to Saddleback Church, you could easily walk over if you want to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r416520134-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>416520134</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Dissapointed</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful however the room we reserved and booked was not available to us.  We had 4 adults booked in a double queen room and we were given a single King bed for all four of us.  The staff would absolutely not give us the room we booked and it wasn't until after we begged the manager to give us our room that the staff finally conceded.  We were told by the front desk staff member that because we had a silver member reward card that we would get free internet and once we got back home found a charge on my credit card for $24.75 for internet charges.  When I called to ask about the charges I was told only gold and platinum members get free internet.  I'm very disappointed that the staff was not knowledgeable of policy and misinformed us.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful however the room we reserved and booked was not available to us.  We had 4 adults booked in a double queen room and we were given a single King bed for all four of us.  The staff would absolutely not give us the room we booked and it wasn't until after we begged the manager to give us our room that the staff finally conceded.  We were told by the front desk staff member that because we had a silver member reward card that we would get free internet and once we got back home found a charge on my credit card for $24.75 for internet charges.  When I called to ask about the charges I was told only gold and platinum members get free internet.  I'm very disappointed that the staff was not knowledgeable of policy and misinformed us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r415963751-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>415963751</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Perfect base for family</t>
+  </si>
+  <si>
+    <t>We were very comfortable, front desk upgraded our room when we arrived late and tired.  Easy drive to Laguna beach without paying beach prices.  Highly recommend as clean, comfy, safe and friendly!  We also enjoyed the pool and spa.  Many good restaurants nearby!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We were very comfortable, front desk upgraded our room when we arrived late and tired.  Easy drive to Laguna beach without paying beach prices.  Highly recommend as clean, comfy, safe and friendly!  We also enjoyed the pool and spa.  Many good restaurants nearby!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r390262071-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>390262071</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Excellent Property and Perfect location</t>
+  </si>
+  <si>
+    <t>This hotel was perfect. It was down the street from numerous restaurant although the Denny's was terrible, the Bistro would have been much better....don't know what I was thinking when I chose the later.  The room was very clean, lobby was excellent and the area was perfect.  Not too far from OC's attractions and within a quick jump to the 241 toll for travels to the Inland EmpireMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was perfect. It was down the street from numerous restaurant although the Denny's was terrible, the Bistro would have been much better....don't know what I was thinking when I chose the later.  The room was very clean, lobby was excellent and the area was perfect.  Not too far from OC's attractions and within a quick jump to the 241 toll for travels to the Inland EmpireMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r389572558-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>389572558</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Exceptional</t>
+  </si>
+  <si>
+    <t>Super clean and spacious room, super comfy bed, great hot shower with good water pressure. Above average friendly staff and delicious coffee and breakfast. The hotel and staff were so kind and accommodating to our motorcycle crew. We enjoyed it so much we stayed an extra night!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Super clean and spacious room, super comfy bed, great hot shower with good water pressure. Above average friendly staff and delicious coffee and breakfast. The hotel and staff were so kind and accommodating to our motorcycle crew. We enjoyed it so much we stayed an extra night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r387638161-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>387638161</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Recently revamped, awesome staff</t>
+  </si>
+  <si>
+    <t>Stayed there for 2 night last week and had a great time for a family wedding.  Took advantage of the workout center, pool and lobby for big family gatherings.  The common areas were really nice and the staff were helpful with everything we needed.Room was renovated and suited all our needs. We had a king room with a pull out single couch.  Perfect for our family of 3.  Desk chair was also very comfy and there was free wifi for marriott rewards people..sign up if you haven't already.  Free parking and within 5 minutes of target, dennys, chickfila and other fast food.    If you go for a run, find the trail off the main entrance of Portola.  There was tons of trails that have you weaving around and hanging with local and the tourists decked out in full hiking gear.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Stayed there for 2 night last week and had a great time for a family wedding.  Took advantage of the workout center, pool and lobby for big family gatherings.  The common areas were really nice and the staff were helpful with everything we needed.Room was renovated and suited all our needs. We had a king room with a pull out single couch.  Perfect for our family of 3.  Desk chair was also very comfy and there was free wifi for marriott rewards people..sign up if you haven't already.  Free parking and within 5 minutes of target, dennys, chickfila and other fast food.    If you go for a run, find the trail off the main entrance of Portola.  There was tons of trails that have you weaving around and hanging with local and the tourists decked out in full hiking gear.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r381770057-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>381770057</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Quiet, clean, with great trails nearby for runners and hikers</t>
+  </si>
+  <si>
+    <t>I found this property great. First off, it is newer, clean, quiet and a friendly staff.  The location was good for a business trip for me, but the bonus was a trail system just a block from the front door. The trails are wide, well cared for, quiet and challenging. I was on them as soon as the sun arose and barely saw a soul, but by the end a few mountain bikers , runners and walkers were arriving.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>I found this property great. First off, it is newer, clean, quiet and a friendly staff.  The location was good for a business trip for me, but the bonus was a trail system just a block from the front door. The trails are wide, well cared for, quiet and challenging. I was on them as soon as the sun arose and barely saw a soul, but by the end a few mountain bikers , runners and walkers were arriving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r374222618-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>374222618</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Last Minute Oasis</t>
+  </si>
+  <si>
+    <t>Not knowing the area, I found it on a whim.  Since Rancho Santa Margarita is a more high-end housing area, I drove for more than a few miles around the church where I was to attend a memorial service looking for a place to stay.  There it was, a grand hotel perched on a hill and waiting for me.  Upon arrival, I was greeted warmly, even without a reservation.  Check-in was easy; instantly I was entering a very clean, upgraded room.  All the amenities were present for a very comfortable stay.  I really appreciated the calm lobby with a fireplace and a fully stocked cafeteria, including Starbuck's coffee!  I didn't need to leave the hotel to eat a healthy dinner and breakfast.  It was the perfect last minute oasis.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Not knowing the area, I found it on a whim.  Since Rancho Santa Margarita is a more high-end housing area, I drove for more than a few miles around the church where I was to attend a memorial service looking for a place to stay.  There it was, a grand hotel perched on a hill and waiting for me.  Upon arrival, I was greeted warmly, even without a reservation.  Check-in was easy; instantly I was entering a very clean, upgraded room.  All the amenities were present for a very comfortable stay.  I really appreciated the calm lobby with a fireplace and a fully stocked cafeteria, including Starbuck's coffee!  I didn't need to leave the hotel to eat a healthy dinner and breakfast.  It was the perfect last minute oasis.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r373911825-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>373911825</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Great room at a great price!</t>
+  </si>
+  <si>
+    <t>Bed was super comfy and the balcony was worth it to enjoy my morning coffee. The couch was also comfy and cute. Staff was extremely friendly and the room was clean and with great lighting to get ready. It also was nearby to everything which is great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bed was super comfy and the balcony was worth it to enjoy my morning coffee. The couch was also comfy and cute. Staff was extremely friendly and the room was clean and with great lighting to get ready. It also was nearby to everything which is great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r344559189-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>344559189</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Good hotel for business trips</t>
+  </si>
+  <si>
+    <t>Lake Forest, California definitely isn't a tourist destination but if you're there on business (like I frequently am) the Courtyard Mariott is a good choice.I was there for 3 nights on business. Here are some pros and cons I noticed during my stay.PROS-free WiFi-friendly staff-nice bar/restaurant area-decent sized rooms that are comfortable-smaller gym but had everything I needed (treadmill)-have an outdoor pool (although, I didn't use it)-good business meeting rooms-snack bar at front desk for late night snacksCONS-not much walking distance in the area. Just a small appie bar and a fast food restaurantMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Lake Forest, California definitely isn't a tourist destination but if you're there on business (like I frequently am) the Courtyard Mariott is a good choice.I was there for 3 nights on business. Here are some pros and cons I noticed during my stay.PROS-free WiFi-friendly staff-nice bar/restaurant area-decent sized rooms that are comfortable-smaller gym but had everything I needed (treadmill)-have an outdoor pool (although, I didn't use it)-good business meeting rooms-snack bar at front desk for late night snacksCONS-not much walking distance in the area. Just a small appie bar and a fast food restaurantMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r343688564-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>343688564</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Not bad but really nothing to brag about. The rooms were clean and the staff was friendly but a lot of minor details were annoying. When checking in the TV didn't work and the shower was very difficult to get to a comfortable temperature, it varied between too cold to too hot. I'm a Marriott Gold member and this is the only Marriott hotel I stayed in there I didn't get the usual extra benefits like room upgrade, free breakfast etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Not bad but really nothing to brag about. The rooms were clean and the staff was friendly but a lot of minor details were annoying. When checking in the TV didn't work and the shower was very difficult to get to a comfortable temperature, it varied between too cold to too hot. I'm a Marriott Gold member and this is the only Marriott hotel I stayed in there I didn't get the usual extra benefits like room upgrade, free breakfast etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r340987447-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>340987447</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Good choice, refresh coming...</t>
+  </si>
+  <si>
+    <t>12 year old property, 4 stories, U-shaped, directly off highway, 15 minutes from SNA airport. Very good condition, clean/comfortable with a refresh scheduled for this year.  The property is by no means out of shape, very commendable that they plan on keeping it fresh.  There are a few restaurants within walking distance (including a Starbucks), plethora of choices within 15 minutes. If you're into Fitness, there is a LA Fitness about a mile away ($15 for a day pass). My suite had two LCD TVs, fridge, no microwave.  Internet (free) speed very good. As in all Courtyard properties, there is no free breakfast.  Bistro restaurant offers pre-made meals at decent prices.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2016</t>
+  </si>
+  <si>
+    <t>12 year old property, 4 stories, U-shaped, directly off highway, 15 minutes from SNA airport. Very good condition, clean/comfortable with a refresh scheduled for this year.  The property is by no means out of shape, very commendable that they plan on keeping it fresh.  There are a few restaurants within walking distance (including a Starbucks), plethora of choices within 15 minutes. If you're into Fitness, there is a LA Fitness about a mile away ($15 for a day pass). My suite had two LCD TVs, fridge, no microwave.  Internet (free) speed very good. As in all Courtyard properties, there is no free breakfast.  Bistro restaurant offers pre-made meals at decent prices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r334130584-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>334130584</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Very comfy stay - Room 337</t>
+  </si>
+  <si>
+    <t>I visited this particular Courtyard by Marriott with two local friends on Sat night December 19, 2015 on a AT&amp;T Employee weekend rate negotiated with Marriott. This was my first stay at this location, which is growing with new homes sprouting in all directions (I remembered driving by this area many years ago, and it was all rural country - the urban growth is simply mind boggling!) We were greeted nicely and received Room 337 (King Sized Bed with Sofa Bed) with view of a rainy pool and spa area (Due to the heavy rain and winds, I decided not to visit the pool area). The room was nice, with plenty of pillows!!! My friends and 'yours truly' enjoyed sleeping in late, and got my customary 1pm late checkout. FIVE CLAWS UP!!!!! Gay Friendly. Thanks and 'Merry Christmas'!!! Joe G. BearMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded December 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2015</t>
+  </si>
+  <si>
+    <t>I visited this particular Courtyard by Marriott with two local friends on Sat night December 19, 2015 on a AT&amp;T Employee weekend rate negotiated with Marriott. This was my first stay at this location, which is growing with new homes sprouting in all directions (I remembered driving by this area many years ago, and it was all rural country - the urban growth is simply mind boggling!) We were greeted nicely and received Room 337 (King Sized Bed with Sofa Bed) with view of a rainy pool and spa area (Due to the heavy rain and winds, I decided not to visit the pool area). The room was nice, with plenty of pillows!!! My friends and 'yours truly' enjoyed sleeping in late, and got my customary 1pm late checkout. FIVE CLAWS UP!!!!! Gay Friendly. Thanks and 'Merry Christmas'!!! Joe G. BearMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r333015680-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>333015680</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Nice and relaxing place</t>
+  </si>
+  <si>
+    <t>I have been in this nice hotel during a business trip for a week.Surroundings are not interesting, anyway the hotel is decent, it has a small fitness center and an open pool.I appreciated the stay and also all the hotel personnel was very kind.Wi-fi in the rooms is free, reliable and fast enough.Unfortunately there is no breakfast, but a small cafe inside the main lobby where you can order simple meals of good quality.Anyway recommended if you need to stay around here.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>I have been in this nice hotel during a business trip for a week.Surroundings are not interesting, anyway the hotel is decent, it has a small fitness center and an open pool.I appreciated the stay and also all the hotel personnel was very kind.Wi-fi in the rooms is free, reliable and fast enough.Unfortunately there is no breakfast, but a small cafe inside the main lobby where you can order simple meals of good quality.Anyway recommended if you need to stay around here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r332570061-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>332570061</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Service is going downhill fast</t>
+  </si>
+  <si>
+    <t>This place used to be on the top of my list due to the excellent and friendly staff from the management to the individuals cleaning the rooms.  There has been significant turnover as of late making this go from a not too bad place to go if you must be away from home to an average, if that, hotel.  The only saving grace continues to be the Bistro staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place used to be on the top of my list due to the excellent and friendly staff from the management to the individuals cleaning the rooms.  There has been significant turnover as of late making this go from a not too bad place to go if you must be away from home to an average, if that, hotel.  The only saving grace continues to be the Bistro staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r327704352-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>327704352</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and clean</t>
+  </si>
+  <si>
+    <t>I stayed there for a weekend visiting family in the area. Its Marriott Courtyard and you get what you expect: clean room, comfortable bed, more than enough parking space, and a starbucks plus a breakfast venue across the parking area north.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed there for a weekend visiting family in the area. Its Marriott Courtyard and you get what you expect: clean room, comfortable bed, more than enough parking space, and a starbucks plus a breakfast venue across the parking area north.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r325410200-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>325410200</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>clean and comfy</t>
+  </si>
+  <si>
+    <t>Rooms are clean and comfy.   Provide good shampoo and conditioner,beds are big and comfortable.   Really have to say love the bar tender such a nice guy!  It's nice to be able to unwind and have a nice conversation.    The staff is very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms are clean and comfy.   Provide good shampoo and conditioner,beds are big and comfortable.   Really have to say love the bar tender such a nice guy!  It's nice to be able to unwind and have a nice conversation.    The staff is very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r319130068-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>319130068</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>At first glance this seems like a really nice hotel.  Lobby was spacious and had lots of seating for socializing.  Nice area set aide to do business.  It had a cafe inside with seating for eating,  Nice and friendly staff .Very Nice!  On to the rooms.  This is where things were not so impressive.  Nice and clean but seemed dated.  Room very close to toll road, so traffic noise could be heard regularly.  Bed had a basic mattress that was uncomfortable and it had a small raised area going down the middle, Office chair would not stay up.  Very small cooler type refrigerator that had no temp. setting and didn't keep food/drinks very cold.  No microwave.  I have stayed in more comfortable updated rooms for less money.  There was also no type of complimentary breakfast of any kind.  I expected better from a Courtyard Marriott.   The basics were covered but nothing above average except for the prices in the cafe and the hotel staff.:o)  I was there for a conference with some church members and arrangements were made through our church.  I would have stayed somewhere else if it had just been me.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>At first glance this seems like a really nice hotel.  Lobby was spacious and had lots of seating for socializing.  Nice area set aide to do business.  It had a cafe inside with seating for eating,  Nice and friendly staff .Very Nice!  On to the rooms.  This is where things were not so impressive.  Nice and clean but seemed dated.  Room very close to toll road, so traffic noise could be heard regularly.  Bed had a basic mattress that was uncomfortable and it had a small raised area going down the middle, Office chair would not stay up.  Very small cooler type refrigerator that had no temp. setting and didn't keep food/drinks very cold.  No microwave.  I have stayed in more comfortable updated rooms for less money.  There was also no type of complimentary breakfast of any kind.  I expected better from a Courtyard Marriott.   The basics were covered but nothing above average except for the prices in the cafe and the hotel staff.:o)  I was there for a conference with some church members and arrangements were made through our church.  I would have stayed somewhere else if it had just been me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r301808090-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>301808090</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Nice Courtyard hotel.  Exactly what you expect from the Courtyard brand of Marriott.  Front desk checkin was quick friendly and easy. Rooms were standard courtyard and very clean. Good bath amenities!    Staff was helpful on restaurants close by.  The only negative of the courtyard brand is no free breakfast.  I consider Courtyard and Hampton inn to be equals in price and quality. I typically stay at a Hampton for the free coffee and breakfast, as courtyard is too pricey for a breakfast.Otherwise a nice place and good location for my business trip.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r300328528-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>300328528</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very comfortable and spacious! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each time I have stayed here I have been impressed with the feeling of "spaciousness." It is very open. The counter staff is always helpful and professional. They have a small convenience store and a large meeting area for socializing and even offers cocktails in the evening. The morning breakfast is ample and tasty! You will enjoy your stay here! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r299373258-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>299373258</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>This place has grown on me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed at this property before.  While the rooms are in need of a renovation, the staff is wonderful.  The bistro has a nice assortment of breakfast items. The workout facilities are good and the location is near the highway and shopping area.  I would stay here again.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r277683102-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>277683102</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Love Marriott hotels!</t>
+  </si>
+  <si>
+    <t>We had 3 rooms at the hotel last weekend for a wedding event in the area.  The hotel staff were all welcoming and efficient in getting us registered.  Our rooms were nice, very clean and comfortable.  We got back to the hotel late in the evening and although there are a couple of restaurants within walking distance we decided to order at the bistro in the lobby.  The waiter was very friendly and the food was quite good!  I have stayed at this hotel in the past and will certainly do so again!  It's easy to get to and if you use the 241 toll road, you can go online within 5 days to pay your toll.  If you are traveling during busy rush hours, the toll road is a great alternative to sitting in traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>We had 3 rooms at the hotel last weekend for a wedding event in the area.  The hotel staff were all welcoming and efficient in getting us registered.  Our rooms were nice, very clean and comfortable.  We got back to the hotel late in the evening and although there are a couple of restaurants within walking distance we decided to order at the bistro in the lobby.  The waiter was very friendly and the food was quite good!  I have stayed at this hotel in the past and will certainly do so again!  It's easy to get to and if you use the 241 toll road, you can go online within 5 days to pay your toll.  If you are traveling during busy rush hours, the toll road is a great alternative to sitting in traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r275428061-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>275428061</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel!</t>
+  </si>
+  <si>
+    <t>I really liked staying at this hotel....everything about it is nice! My room was very nice, large and all the amenities were great!  I ate at the Bistro one morning for breakfast and the food was good and I enjoyed it very much! I found the hotel employees to be very friendly and helpful if I needed anything.  The lobby is nice and relaxing to just sit in or visit with others and/or have a drink in front of the fireplace.I will definitely be coming back to this hotel in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>I really liked staying at this hotel....everything about it is nice! My room was very nice, large and all the amenities were great!  I ate at the Bistro one morning for breakfast and the food was good and I enjoyed it very much! I found the hotel employees to be very friendly and helpful if I needed anything.  The lobby is nice and relaxing to just sit in or visit with others and/or have a drink in front of the fireplace.I will definitely be coming back to this hotel in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r275070744-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>275070744</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Classy place</t>
+  </si>
+  <si>
+    <t>The lobby is unique.  It has several areas where individuals can sit and talk or where a larger group can gather.  The food (and Starbucks coffee) provided by the restaurant is very good and convenient.  Front desk folks were friendly and helpful.  We requested a room on the top floor away from the elevator and were pleased with the quality of the bedding and the room itself.MoreShow less</t>
+  </si>
+  <si>
+    <t>The lobby is unique.  It has several areas where individuals can sit and talk or where a larger group can gather.  The food (and Starbucks coffee) provided by the restaurant is very good and convenient.  Front desk folks were friendly and helpful.  We requested a room on the top floor away from the elevator and were pleased with the quality of the bedding and the room itself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r271682790-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>271682790</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Rooms need renovation</t>
+  </si>
+  <si>
+    <t>The front desk staff was very welcoming!  Every time I came/went I was treated with a warm welcome. Lobby is nicely renovated and cafe was perfect. The only room for improvement were the guest rooms.  They are in need of renovation. The hall was also musty. Location was very convenient to restaurants/shopping/highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded May 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2015</t>
+  </si>
+  <si>
+    <t>The front desk staff was very welcoming!  Every time I came/went I was treated with a warm welcome. Lobby is nicely renovated and cafe was perfect. The only room for improvement were the guest rooms.  They are in need of renovation. The hall was also musty. Location was very convenient to restaurants/shopping/highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r269584940-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>269584940</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>Not entirely up to Courtyard's standard</t>
+  </si>
+  <si>
+    <t>The exterior and the lobby of this hotel looked like a typical Courtyard - but, the rooms were rather bland.  Nothing special about the decor at all.  The furniture was not attractive, and the dresser drawers in my room were all broken. The bathroom was a disappointment, as well - old tub with a hot/cold water mix that was variable/unpredictable.  I was surprised, as most buildings in the area seemed to be new, but this room felt like it was from an older hotel.  On the positive side, the service was good, and the fitness center was well equipped.  Also, the 'free' wifi wasn't quite as slow as at other Courtyard properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>The exterior and the lobby of this hotel looked like a typical Courtyard - but, the rooms were rather bland.  Nothing special about the decor at all.  The furniture was not attractive, and the dresser drawers in my room were all broken. The bathroom was a disappointment, as well - old tub with a hot/cold water mix that was variable/unpredictable.  I was surprised, as most buildings in the area seemed to be new, but this room felt like it was from an older hotel.  On the positive side, the service was good, and the fitness center was well equipped.  Also, the 'free' wifi wasn't quite as slow as at other Courtyard properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r262010471-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>262010471</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Would like to thank entire team</t>
+  </si>
+  <si>
+    <t>Stayed here for a trade show and the entire team at this location was TERIFFIC! My apologies as I only have the names of: Yvanna, Shelly, Kevin, Alex, Tracy but my gratitude goes out to all we interacted with during our stay from March 5th thru the 9th, pretty sure it was entire staff at one time or another. From the very beginning what could have gone wrong did regarding prepping for this show. Our supplies were delivered 2 days prior to our arrival, so many boxes the staff was gracious enough to store our supplies in a conference room …Thank you!Always being sincerely greeted and asked to let them know if we need anything, regardless of how early we started our day or how late we rolled in was just great. The assistance we received after our perishable supplies were delivered a day late due to inclement weather and delayed FedEx deliveries was above and beyond.This group of professionals should be the model of corporate training... Thanks again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded March 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for a trade show and the entire team at this location was TERIFFIC! My apologies as I only have the names of: Yvanna, Shelly, Kevin, Alex, Tracy but my gratitude goes out to all we interacted with during our stay from March 5th thru the 9th, pretty sure it was entire staff at one time or another. From the very beginning what could have gone wrong did regarding prepping for this show. Our supplies were delivered 2 days prior to our arrival, so many boxes the staff was gracious enough to store our supplies in a conference room …Thank you!Always being sincerely greeted and asked to let them know if we need anything, regardless of how early we started our day or how late we rolled in was just great. The assistance we received after our perishable supplies were delivered a day late due to inclement weather and delayed FedEx deliveries was above and beyond.This group of professionals should be the model of corporate training... Thanks again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r253686220-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>253686220</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>Solid service differentiates this hotel</t>
+  </si>
+  <si>
+    <t>What distinguishes this hotel is its service. The front desk clerk (Tim) very graciously provided directions on running trails in the area, and I was so impressed by his knowledge and understanding. The clerk in the morning was similarly anticipatory and helpful with small things. Though the property is consistent with the Courtyard brand in almost every respect, the service element really shines. Shows that management is "on it" and "participatory".MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2015</t>
+  </si>
+  <si>
+    <t>What distinguishes this hotel is its service. The front desk clerk (Tim) very graciously provided directions on running trails in the area, and I was so impressed by his knowledge and understanding. The clerk in the morning was similarly anticipatory and helpful with small things. Though the property is consistent with the Courtyard brand in almost every respect, the service element really shines. Shows that management is "on it" and "participatory".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r252421181-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>252421181</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Bad wake up call</t>
+  </si>
+  <si>
+    <t>All in all the hotel is pretty nice but unfortunately housekeeping likes to wake people up between 7:30 and 8:30 AM and due to the odd language barrier when you tell them you're sleeping go away they still like to walk inand when you tell the front desk issue they do not take it serious quite sadMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>All in all the hotel is pretty nice but unfortunately housekeeping likes to wake people up between 7:30 and 8:30 AM and due to the odd language barrier when you tell them you're sleeping go away they still like to walk inand when you tell the front desk issue they do not take it serious quite sadMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r252291977-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>252291977</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>Always good service but still need to pay attention to small details.</t>
+  </si>
+  <si>
+    <t>This is the third time we've stayed at this hotel. Good location, close to a shopping center with several dining choices, a movie theater, Target. The bed was incredibly hard, and we've gotten better rooms the last two stays (this time, we did not have a balcony) but I'm beginning to believe that this has to do more with my Marriott Rewards membership. Seems ever since I started booking with my membership, I've gotten the crappier rooms. 
+Bonus: I checked both in and out of my room with the Marriott hotel app on my Android phone. Nice! 
+There was noise above us from about 3am-5am. It may have gone on for longer than that, but I can't be certain. I do know that everytime I would coerce myself back to sleep, I would be awakened by them again. I'm only being partially sarcastic when I tell you that it sounded like a couple of 400-pound Sumo wrestlers engaging in battle. Seriously, no person on Earth could have possibly stomped as much as that room. Alas, I made the best of it. 
+The last issue was with the "Complimentary Coffee Service." The handbook in the room indicated that there was "Coffee Service available in the lobby area rom 6am-10am", however; this practice has apparently been discontinued. Instead, we shelled out $5 for Starbucks black coffee from the bar. Yes, there is free coffee in the rooms, but I'm not a fan...This is the third time we've stayed at this hotel. Good location, close to a shopping center with several dining choices, a movie theater, Target. The bed was incredibly hard, and we've gotten better rooms the last two stays (this time, we did not have a balcony) but I'm beginning to believe that this has to do more with my Marriott Rewards membership. Seems ever since I started booking with my membership, I've gotten the crappier rooms. Bonus: I checked both in and out of my room with the Marriott hotel app on my Android phone. Nice! There was noise above us from about 3am-5am. It may have gone on for longer than that, but I can't be certain. I do know that everytime I would coerce myself back to sleep, I would be awakened by them again. I'm only being partially sarcastic when I tell you that it sounded like a couple of 400-pound Sumo wrestlers engaging in battle. Seriously, no person on Earth could have possibly stomped as much as that room. Alas, I made the best of it. The last issue was with the "Complimentary Coffee Service." The handbook in the room indicated that there was "Coffee Service available in the lobby area rom 6am-10am", however; this practice has apparently been discontinued. Instead, we shelled out $5 for Starbucks black coffee from the bar. Yes, there is free coffee in the rooms, but I'm not a fan of room coffee with sink water, and the last few times we'd stayed in the hotel, I'd enjoyed running down for a quick (free) cup of coffee. It stinks in my opinion to get rid of this practice, but at least take the time to update the room handbooks.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>This is the third time we've stayed at this hotel. Good location, close to a shopping center with several dining choices, a movie theater, Target. The bed was incredibly hard, and we've gotten better rooms the last two stays (this time, we did not have a balcony) but I'm beginning to believe that this has to do more with my Marriott Rewards membership. Seems ever since I started booking with my membership, I've gotten the crappier rooms. 
+Bonus: I checked both in and out of my room with the Marriott hotel app on my Android phone. Nice! 
+There was noise above us from about 3am-5am. It may have gone on for longer than that, but I can't be certain. I do know that everytime I would coerce myself back to sleep, I would be awakened by them again. I'm only being partially sarcastic when I tell you that it sounded like a couple of 400-pound Sumo wrestlers engaging in battle. Seriously, no person on Earth could have possibly stomped as much as that room. Alas, I made the best of it. 
+The last issue was with the "Complimentary Coffee Service." The handbook in the room indicated that there was "Coffee Service available in the lobby area rom 6am-10am", however; this practice has apparently been discontinued. Instead, we shelled out $5 for Starbucks black coffee from the bar. Yes, there is free coffee in the rooms, but I'm not a fan...This is the third time we've stayed at this hotel. Good location, close to a shopping center with several dining choices, a movie theater, Target. The bed was incredibly hard, and we've gotten better rooms the last two stays (this time, we did not have a balcony) but I'm beginning to believe that this has to do more with my Marriott Rewards membership. Seems ever since I started booking with my membership, I've gotten the crappier rooms. Bonus: I checked both in and out of my room with the Marriott hotel app on my Android phone. Nice! There was noise above us from about 3am-5am. It may have gone on for longer than that, but I can't be certain. I do know that everytime I would coerce myself back to sleep, I would be awakened by them again. I'm only being partially sarcastic when I tell you that it sounded like a couple of 400-pound Sumo wrestlers engaging in battle. Seriously, no person on Earth could have possibly stomped as much as that room. Alas, I made the best of it. The last issue was with the "Complimentary Coffee Service." The handbook in the room indicated that there was "Coffee Service available in the lobby area rom 6am-10am", however; this practice has apparently been discontinued. Instead, we shelled out $5 for Starbucks black coffee from the bar. Yes, there is free coffee in the rooms, but I'm not a fan of room coffee with sink water, and the last few times we'd stayed in the hotel, I'd enjoyed running down for a quick (free) cup of coffee. It stinks in my opinion to get rid of this practice, but at least take the time to update the room handbooks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r247665383-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>247665383</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Super stay!</t>
+  </si>
+  <si>
+    <t>My husband and 6 year old daughter and I were forced out of our house due to water damage and not happy. But everyone at the hotel was so nice and helpful. They kept asking how things were going with the work and it made our stay much more pleasant! We have been there before for pleasure so we will definitely go back and refer our out of state guests to stay there. Thanks all!  Also the hotel itself was very clean and well kept. Special thanks to Alex Rios for making us smile : )MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>My husband and 6 year old daughter and I were forced out of our house due to water damage and not happy. But everyone at the hotel was so nice and helpful. They kept asking how things were going with the work and it made our stay much more pleasant! We have been there before for pleasure so we will definitely go back and refer our out of state guests to stay there. Thanks all!  Also the hotel itself was very clean and well kept. Special thanks to Alex Rios for making us smile : )More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r246405516-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>246405516</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Spent the night to attend a near by holiday party</t>
+  </si>
+  <si>
+    <t>What a wonderful hotel! My husband and I booked a room for my company's holiday party, which was about 5 minutes away. We were greeted at the front desk by Tim. He was very professional, friendly, and made us feel welcome. We got ready in our spacious room, and then headed to the bar for a cocktail before the party.  The bartender was very kind and professional. (I don't remember her name) But she had glasses and was extremely friendly.  We lost track of time because we had such a great experience at the bar!!  The next morning, we tried the breakfast options.  Absolutely delicious!!  Entire hotel was a quiet and quaint atmosphere.  We will always choose this hotel every year for our overnight stay for the holiday party.  My only minor complaint, was no hair conditioner was offered.  I sometimes bring my own, because not all hotels offer it, but I forgot to bring some.MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded January 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2015</t>
+  </si>
+  <si>
+    <t>What a wonderful hotel! My husband and I booked a room for my company's holiday party, which was about 5 minutes away. We were greeted at the front desk by Tim. He was very professional, friendly, and made us feel welcome. We got ready in our spacious room, and then headed to the bar for a cocktail before the party.  The bartender was very kind and professional. (I don't remember her name) But she had glasses and was extremely friendly.  We lost track of time because we had such a great experience at the bar!!  The next morning, we tried the breakfast options.  Absolutely delicious!!  Entire hotel was a quiet and quaint atmosphere.  We will always choose this hotel every year for our overnight stay for the holiday party.  My only minor complaint, was no hair conditioner was offered.  I sometimes bring my own, because not all hotels offer it, but I forgot to bring some.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r243232696-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>243232696</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>What great service at this hotel!! I checked in at 2pm and had to cut my trip short. I had to check out only 4 hours later at 6pm. Tiffany at front desk waived my hotel room charge and my internet usage charge. I checked out with a 0$ charge!  Thats what I call customer service!  Thank you so much Tiffany!  I'll always stay at the Courtyard Foothill Ranch because of you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2014</t>
+  </si>
+  <si>
+    <t>What great service at this hotel!! I checked in at 2pm and had to cut my trip short. I had to check out only 4 hours later at 6pm. Tiffany at front desk waived my hotel room charge and my internet usage charge. I checked out with a 0$ charge!  Thats what I call customer service!  Thank you so much Tiffany!  I'll always stay at the Courtyard Foothill Ranch because of you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r242037743-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>242037743</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Amazing!</t>
+  </si>
+  <si>
+    <t>The hotel hallways were freezing all the time but otherwise my stay was amazing. I stayed for 8 days and Alex Depue was an incresible help! He worked the main desk and I felt lile everytime i turned around i had a question, he was there and ready to help! He definitely needs a raise!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>The hotel hallways were freezing all the time but otherwise my stay was amazing. I stayed for 8 days and Alex Depue was an incresible help! He worked the main desk and I felt lile everytime i turned around i had a question, he was there and ready to help! He definitely needs a raise!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r241344667-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>241344667</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>Spent two weekends here.  Rooms are very nicer do spacious with small fridge.  Front desk folks are very friendly and helpful especially Kaylee.  I would recommend this hotel.  A variety of places to eat in the same parking lot as hotel.  Away from the Orange County madness but very accessible to it.  Only downside is the Starbucks coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded November 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2014</t>
+  </si>
+  <si>
+    <t>Spent two weekends here.  Rooms are very nicer do spacious with small fridge.  Front desk folks are very friendly and helpful especially Kaylee.  I would recommend this hotel.  A variety of places to eat in the same parking lot as hotel.  Away from the Orange County madness but very accessible to it.  Only downside is the Starbucks coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r240707410-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>240707410</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel and Service</t>
+  </si>
+  <si>
+    <t>I have been staying at this Courtyard for the past two months and have been given the best service by the staff. They greet you each and every time you come and go. The rooms are always very clean. The café food is very good. I would recommend this hotel to anyone staying in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded November 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2014</t>
+  </si>
+  <si>
+    <t>I have been staying at this Courtyard for the past two months and have been given the best service by the staff. They greet you each and every time you come and go. The rooms are always very clean. The café food is very good. I would recommend this hotel to anyone staying in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r238383445-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>238383445</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>The staff makes you feel like you are royalty!</t>
+  </si>
+  <si>
+    <t>I travel 50%+, both internationally and domestically, and this is one of the best hotels ever.  Well, the staff at this hotel is as good as they come, and the hotel is a standard clean Courtyard.  You are greeted by Michelle, Elaine and Yvanna upon arrival with a warm hello and a smile.  If you stay here a few times, you will notice that they remember your name, which is quite nice when you spend more time in a hotel than at home.  The Bistro has decent food given that it is not intended to be a 4-star restaurant but again, the staff makes it top notch.  The morning crew (Alex, Adriana and Kaylie) are friendly, fast and kick your morning off right.  And the evening staff (Alex &amp; Tracy) will help you end your day with a good laugh, a refreshing beverage and a yummy brownie.  I recommend this hotel if you are in the area and want to feel as at home as possible in a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded November 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2014</t>
+  </si>
+  <si>
+    <t>I travel 50%+, both internationally and domestically, and this is one of the best hotels ever.  Well, the staff at this hotel is as good as they come, and the hotel is a standard clean Courtyard.  You are greeted by Michelle, Elaine and Yvanna upon arrival with a warm hello and a smile.  If you stay here a few times, you will notice that they remember your name, which is quite nice when you spend more time in a hotel than at home.  The Bistro has decent food given that it is not intended to be a 4-star restaurant but again, the staff makes it top notch.  The morning crew (Alex, Adriana and Kaylie) are friendly, fast and kick your morning off right.  And the evening staff (Alex &amp; Tracy) will help you end your day with a good laugh, a refreshing beverage and a yummy brownie.  I recommend this hotel if you are in the area and want to feel as at home as possible in a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r237578289-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>237578289</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Best Service!</t>
+  </si>
+  <si>
+    <t>Take it from someone who does a fair amount of traveling... this place is excellent!  When I travel to the area, this hotel is always my first choice.  All of the staff are incredibly friendly and helpful.  On every visit, the front desk people make me feel welcome, and often go beyond the call of duty to ensure all of my travels needs are met.  On my most recent trip, I had a last minute need to travel to a different city; a front desk person went out of his way to assist me in finding a room in that city.  Later upon my departure, the front desk manager even became actively involved in this search.  These are the kinds of experiences that bring people back!Also of note: Great Bistro, nice gym, cozy pool area!MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded November 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2014</t>
+  </si>
+  <si>
+    <t>Take it from someone who does a fair amount of traveling... this place is excellent!  When I travel to the area, this hotel is always my first choice.  All of the staff are incredibly friendly and helpful.  On every visit, the front desk people make me feel welcome, and often go beyond the call of duty to ensure all of my travels needs are met.  On my most recent trip, I had a last minute need to travel to a different city; a front desk person went out of his way to assist me in finding a room in that city.  Later upon my departure, the front desk manager even became actively involved in this search.  These are the kinds of experiences that bring people back!Also of note: Great Bistro, nice gym, cozy pool area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r236829512-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>236829512</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Great staff!</t>
+  </si>
+  <si>
+    <t>I stay here several times every month .  I am always greeted warmly and treateded with respect and courtesy.  Alex Rios in the Bistro is always attentive, friendly and prompt.  Truly great service and hospitality.  Front Desk crew is always friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded November 7, 2014</t>
+  </si>
+  <si>
+    <t>I stay here several times every month .  I am always greeted warmly and treateded with respect and courtesy.  Alex Rios in the Bistro is always attentive, friendly and prompt.  Truly great service and hospitality.  Front Desk crew is always friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r235778745-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>235778745</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel, with a few small issues</t>
+  </si>
+  <si>
+    <t>We booked this hotel for two nights as a base for a weekend trip to the SoCal beaches and Disneyland. The area was great. Very convenient, with only a 25 minute drive to beaches and theme park. There are lots of places to eat nearby as well, including just about every fast food place you could want, and some chain restaurants. Also close by there is a Ralph's grocery store, a Target and a Walmart. Freeway is close as well but be aware that there are many toll roads. 
+The hotel itself is very nice, with a neat, modern lobby. Parking is free and plentiful. There is a pool although we didn't have time to use it. There is no complimentary breakfast which is something I usually look for in a hotel stay, but there is a restaurant where you can purchase items. We opted to keep some breakfast items in the small fridge located in the room and just eat that in the mornings. 
+Check in was quick and easy. Yvanna (sp?) was very friendly and informative. The room itself was ready early, and was clean. We had 5 people in the room, two adults with three kids, and we had a king bed, a sofa sleeper and a complimentary roll away. 
+Now for the minor issues. I made the reservation online, and there is a section for additional requests. I requested four things: a roll away, extra pillows,...We booked this hotel for two nights as a base for a weekend trip to the SoCal beaches and Disneyland. The area was great. Very convenient, with only a 25 minute drive to beaches and theme park. There are lots of places to eat nearby as well, including just about every fast food place you could want, and some chain restaurants. Also close by there is a Ralph's grocery store, a Target and a Walmart. Freeway is close as well but be aware that there are many toll roads. The hotel itself is very nice, with a neat, modern lobby. Parking is free and plentiful. There is a pool although we didn't have time to use it. There is no complimentary breakfast which is something I usually look for in a hotel stay, but there is a restaurant where you can purchase items. We opted to keep some breakfast items in the small fridge located in the room and just eat that in the mornings. Check in was quick and easy. Yvanna (sp?) was very friendly and informative. The room itself was ready early, and was clean. We had 5 people in the room, two adults with three kids, and we had a king bed, a sofa sleeper and a complimentary roll away. Now for the minor issues. I made the reservation online, and there is a section for additional requests. I requested four things: a roll away, extra pillows, extra towels and a lower level room. Our room was on the 4th floor, which is the highest, so we didn't get the lower level request. During check in I inquired about the roll away and she said she would see if one was available and if so, have it delivered. Luckily one was, so there were no problems there. But, that evening while getting ready for bed, we checked the drawers and closet and realized there were no sheets or pillows for the sofa sleeper. Also, there were only 3 bath towels even though I had asked for extra and the reservation listed 5 guests. We called down to the front desk to see about getting those items brought up, but there was no answer. I waited a bit, then called a second time and again no answer. My husband had to go downstairs to requested the items we needed. They were brought up a short while later. All in all, not a deal breaker, and it does say on the website that any additional requests are not guaranteed, but even if we couldn't get a lower level room or any extra pillows, there certainly should have been enough towels for all guests and bedding for the sofa sleeper. I did learn that their fire alarm works very well!! It went off bright and early Sunday morning at 6:30 a.m. Guests were out of their rooms, walking in the hallways trying to figure out what was going on. Turned out to be a false alarm. When we checked out, the girl at the front desk, (not Yvanna) did not ask us if we enjoyed our stay nor invite us to visit again. So, like I said, a few issues to work on, but overall a good stay, a nice area, a clean, modern hotel and one I'd book again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>We booked this hotel for two nights as a base for a weekend trip to the SoCal beaches and Disneyland. The area was great. Very convenient, with only a 25 minute drive to beaches and theme park. There are lots of places to eat nearby as well, including just about every fast food place you could want, and some chain restaurants. Also close by there is a Ralph's grocery store, a Target and a Walmart. Freeway is close as well but be aware that there are many toll roads. 
+The hotel itself is very nice, with a neat, modern lobby. Parking is free and plentiful. There is a pool although we didn't have time to use it. There is no complimentary breakfast which is something I usually look for in a hotel stay, but there is a restaurant where you can purchase items. We opted to keep some breakfast items in the small fridge located in the room and just eat that in the mornings. 
+Check in was quick and easy. Yvanna (sp?) was very friendly and informative. The room itself was ready early, and was clean. We had 5 people in the room, two adults with three kids, and we had a king bed, a sofa sleeper and a complimentary roll away. 
+Now for the minor issues. I made the reservation online, and there is a section for additional requests. I requested four things: a roll away, extra pillows,...We booked this hotel for two nights as a base for a weekend trip to the SoCal beaches and Disneyland. The area was great. Very convenient, with only a 25 minute drive to beaches and theme park. There are lots of places to eat nearby as well, including just about every fast food place you could want, and some chain restaurants. Also close by there is a Ralph's grocery store, a Target and a Walmart. Freeway is close as well but be aware that there are many toll roads. The hotel itself is very nice, with a neat, modern lobby. Parking is free and plentiful. There is a pool although we didn't have time to use it. There is no complimentary breakfast which is something I usually look for in a hotel stay, but there is a restaurant where you can purchase items. We opted to keep some breakfast items in the small fridge located in the room and just eat that in the mornings. Check in was quick and easy. Yvanna (sp?) was very friendly and informative. The room itself was ready early, and was clean. We had 5 people in the room, two adults with three kids, and we had a king bed, a sofa sleeper and a complimentary roll away. Now for the minor issues. I made the reservation online, and there is a section for additional requests. I requested four things: a roll away, extra pillows, extra towels and a lower level room. Our room was on the 4th floor, which is the highest, so we didn't get the lower level request. During check in I inquired about the roll away and she said she would see if one was available and if so, have it delivered. Luckily one was, so there were no problems there. But, that evening while getting ready for bed, we checked the drawers and closet and realized there were no sheets or pillows for the sofa sleeper. Also, there were only 3 bath towels even though I had asked for extra and the reservation listed 5 guests. We called down to the front desk to see about getting those items brought up, but there was no answer. I waited a bit, then called a second time and again no answer. My husband had to go downstairs to requested the items we needed. They were brought up a short while later. All in all, not a deal breaker, and it does say on the website that any additional requests are not guaranteed, but even if we couldn't get a lower level room or any extra pillows, there certainly should have been enough towels for all guests and bedding for the sofa sleeper. I did learn that their fire alarm works very well!! It went off bright and early Sunday morning at 6:30 a.m. Guests were out of their rooms, walking in the hallways trying to figure out what was going on. Turned out to be a false alarm. When we checked out, the girl at the front desk, (not Yvanna) did not ask us if we enjoyed our stay nor invite us to visit again. So, like I said, a few issues to work on, but overall a good stay, a nice area, a clean, modern hotel and one I'd book again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r233677530-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>233677530</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>Michelle Ponte</t>
+  </si>
+  <si>
+    <t>Everything at the hotel was great but in particular was Michelle Ponte who checked us in. She told me right away her name and that she was there to help us in any way. We got recommendations to two different restaurants and she was right on with both but also asked us the following days how our experiences had been. She really made that extra effort to connect and help and make our experience better. Thank you, Michelle!MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Everything at the hotel was great but in particular was Michelle Ponte who checked us in. She told me right away her name and that she was there to help us in any way. We got recommendations to two different restaurants and she was right on with both but also asked us the following days how our experiences had been. She really made that extra effort to connect and help and make our experience better. Thank you, Michelle!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r232422526-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>232422526</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>great for short stays</t>
+  </si>
+  <si>
+    <t>Hotel is clean, modern, staff very helpful. Room sizes are huge, good sized communal meeting space. Breakfast is ok, and there are a number of restaurants in the local area which are good.Nice pool area also!MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded October 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2014</t>
+  </si>
+  <si>
+    <t>Hotel is clean, modern, staff very helpful. Room sizes are huge, good sized communal meeting space. Breakfast is ok, and there are a number of restaurants in the local area which are good.Nice pool area also!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r229878394-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>229878394</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Check in assistance</t>
+  </si>
+  <si>
+    <t>Greg, the young man working the evening shift was indispensable in assisting me with the resolution of some difficulties with my credit card.  He was patient, polite, and caring.  He helped me for over 30 minutes in getting things straightened out so that I could get to bed.  He was completely professional and I am extremely grateful for his assistance in resolving the problem.  He would make a great hotel manager some day.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Greg, the young man working the evening shift was indispensable in assisting me with the resolution of some difficulties with my credit card.  He was patient, polite, and caring.  He helped me for over 30 minutes in getting things straightened out so that I could get to bed.  He was completely professional and I am extremely grateful for his assistance in resolving the problem.  He would make a great hotel manager some day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r226981119-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>226981119</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Romantic Holiday Weekend</t>
+  </si>
+  <si>
+    <t>My husband and I were in town for the weekend.  My husband has been searching for a job and needed to fill out an online application.  We did not have our laptop as it was in our home in Colorado.  We needed to attach a resume and drivers license to the application, we had help from Alex Depue.  Alex was so kind and helpful, he went above and beyond, he made sure to attach the resume and my husbands license.  Alex was our guardian angel.  We had a wonderful time, the Hotel was very clean, quiet and relaxing.  The area that the Hotel is in, is beautiful, close to restaurants (there is a great restaurant inside the Hotel, as well), shopping and movie theatres. We were able to visit Saddleback Church too   :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded September 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I were in town for the weekend.  My husband has been searching for a job and needed to fill out an online application.  We did not have our laptop as it was in our home in Colorado.  We needed to attach a resume and drivers license to the application, we had help from Alex Depue.  Alex was so kind and helpful, he went above and beyond, he made sure to attach the resume and my husbands license.  Alex was our guardian angel.  We had a wonderful time, the Hotel was very clean, quiet and relaxing.  The area that the Hotel is in, is beautiful, close to restaurants (there is a great restaurant inside the Hotel, as well), shopping and movie theatres. We were able to visit Saddleback Church too   :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r222719142-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>222719142</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>It was pretty good but... Needed some attention</t>
+  </si>
+  <si>
+    <t>I really liked this hotel, the lobby was nice &amp; relaxing. I loved that they had a snack bar &amp; restaurant. It was unfortunate that the food was overpriced ie $10 for a sandwich. The location is fabulous since we could walk down the driveway to the local Starbucks or the some of the tasty restaurants. Our presidential suite was very nice however we had a whole in our shower that had been covered up then began to have mold grow around it. See photo. Then the bathroom did not have a fan to vent out for showering etc. Also the bathroom door lock was broken. This made it tough to have privacy in the bathroom. Lastly, we were not given enough towels for 4 adults traveling. The staff was SUPER WONDERFUL and quickly brought us more towels. 
+   We loved the pool &amp; jacuzzi plus the relaxing patio furniture. We enjoyed just playing in the pool &amp; or sitting on the patio furniture after a long bike ride. 
+   I would definitely stay here again except.... I would ask for the top floors or to not have a soccer team club meeting above us. We had a horrible time falling asleep with LITERALLY A PARTY going on after midnight over our heads. We had to call the front desk 3 times to get the party to end. Aside from these minor things I would definitely stay here. It 's a nice...I really liked this hotel, the lobby was nice &amp; relaxing. I loved that they had a snack bar &amp; restaurant. It was unfortunate that the food was overpriced ie $10 for a sandwich. The location is fabulous since we could walk down the driveway to the local Starbucks or the some of the tasty restaurants. Our presidential suite was very nice however we had a whole in our shower that had been covered up then began to have mold grow around it. See photo. Then the bathroom did not have a fan to vent out for showering etc. Also the bathroom door lock was broken. This made it tough to have privacy in the bathroom. Lastly, we were not given enough towels for 4 adults traveling. The staff was SUPER WONDERFUL and quickly brought us more towels.    We loved the pool &amp; jacuzzi plus the relaxing patio furniture. We enjoyed just playing in the pool &amp; or sitting on the patio furniture after a long bike ride.    I would definitely stay here again except.... I would ask for the top floors or to not have a soccer team club meeting above us. We had a horrible time falling asleep with LITERALLY A PARTY going on after midnight over our heads. We had to call the front desk 3 times to get the party to end. Aside from these minor things I would definitely stay here. It 's a nice hotel with easy access to good restaurants within walking distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>I really liked this hotel, the lobby was nice &amp; relaxing. I loved that they had a snack bar &amp; restaurant. It was unfortunate that the food was overpriced ie $10 for a sandwich. The location is fabulous since we could walk down the driveway to the local Starbucks or the some of the tasty restaurants. Our presidential suite was very nice however we had a whole in our shower that had been covered up then began to have mold grow around it. See photo. Then the bathroom did not have a fan to vent out for showering etc. Also the bathroom door lock was broken. This made it tough to have privacy in the bathroom. Lastly, we were not given enough towels for 4 adults traveling. The staff was SUPER WONDERFUL and quickly brought us more towels. 
+   We loved the pool &amp; jacuzzi plus the relaxing patio furniture. We enjoyed just playing in the pool &amp; or sitting on the patio furniture after a long bike ride. 
+   I would definitely stay here again except.... I would ask for the top floors or to not have a soccer team club meeting above us. We had a horrible time falling asleep with LITERALLY A PARTY going on after midnight over our heads. We had to call the front desk 3 times to get the party to end. Aside from these minor things I would definitely stay here. It 's a nice...I really liked this hotel, the lobby was nice &amp; relaxing. I loved that they had a snack bar &amp; restaurant. It was unfortunate that the food was overpriced ie $10 for a sandwich. The location is fabulous since we could walk down the driveway to the local Starbucks or the some of the tasty restaurants. Our presidential suite was very nice however we had a whole in our shower that had been covered up then began to have mold grow around it. See photo. Then the bathroom did not have a fan to vent out for showering etc. Also the bathroom door lock was broken. This made it tough to have privacy in the bathroom. Lastly, we were not given enough towels for 4 adults traveling. The staff was SUPER WONDERFUL and quickly brought us more towels.    We loved the pool &amp; jacuzzi plus the relaxing patio furniture. We enjoyed just playing in the pool &amp; or sitting on the patio furniture after a long bike ride.    I would definitely stay here again except.... I would ask for the top floors or to not have a soccer team club meeting above us. We had a horrible time falling asleep with LITERALLY A PARTY going on after midnight over our heads. We had to call the front desk 3 times to get the party to end. Aside from these minor things I would definitely stay here. It 's a nice hotel with easy access to good restaurants within walking distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r220588884-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>220588884</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Kaylee rules!</t>
+  </si>
+  <si>
+    <t>The hotel itself was great. Well appointed and very clean. But Kaylee at the front desk was phenomenal. Talk about "above and beyond" customer service. She stayed over half an hour past her shift end to help me with a credit card booking. Extremely proffessional and helpful. Kaylee rules!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>The hotel itself was great. Well appointed and very clean. But Kaylee at the front desk was phenomenal. Talk about "above and beyond" customer service. She stayed over half an hour past her shift end to help me with a credit card booking. Extremely proffessional and helpful. Kaylee rules!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r220223166-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>220223166</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Everything you need</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 days on a recent business trip to Orange County. It's clean and modern, with nice decor and a friendly feel to it. The bar stayed open until reasonably late, the recently refurbished pool was nice (although I didn't get a chance to use it), and the staff were super friendly. I'd saty here again if I was working in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded August 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 days on a recent business trip to Orange County. It's clean and modern, with nice decor and a friendly feel to it. The bar stayed open until reasonably late, the recently refurbished pool was nice (although I didn't get a chance to use it), and the staff were super friendly. I'd saty here again if I was working in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r219029370-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>219029370</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Great hotel. Business center was well designed and allowed me to print reports and boarding passes - a great help. Compliments go to Greg at the front desk. While checking out, I accidently dropped the keys to my rental car behind the front desk, down a hole through which the cables/wires are run. Greg found a wire hook and spent a great deal of time and effort retrieving the keys. He was a life saver. I'll definitely return. Thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Great hotel. Business center was well designed and allowed me to print reports and boarding passes - a great help. Compliments go to Greg at the front desk. While checking out, I accidently dropped the keys to my rental car behind the front desk, down a hole through which the cables/wires are run. Greg found a wire hook and spent a great deal of time and effort retrieving the keys. He was a life saver. I'll definitely return. Thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r210102489-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>210102489</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love the service! </t>
+  </si>
+  <si>
+    <t>Carlos was amazing as well as the rest of the staff. I just loved that he remembered me from my last trip and was super friendly and helpful.  Some of the girls even helped me out with a lint roller after I realized my cat decided to sleep on my work shirt before I left:) Tracy is also absolutely wonderful!  My first trip here was for a job interview that I fortunately got selected for.  Tracy and I traded emails before so I could keep her updated on the status of this job. She actually took the time to contact me and ask how it went and was super excited to see me again! Such an awesome experience:)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded June 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2014</t>
+  </si>
+  <si>
+    <t>Carlos was amazing as well as the rest of the staff. I just loved that he remembered me from my last trip and was super friendly and helpful.  Some of the girls even helped me out with a lint roller after I realized my cat decided to sleep on my work shirt before I left:) Tracy is also absolutely wonderful!  My first trip here was for a job interview that I fortunately got selected for.  Tracy and I traded emails before so I could keep her updated on the status of this job. She actually took the time to contact me and ask how it went and was super excited to see me again! Such an awesome experience:)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r206468628-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>206468628</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>Cookie Cutter Courtyard</t>
+  </si>
+  <si>
+    <t>This Courtyard property is a good choice for business travelers and families seeking a location in the south Orange County footprint. It's located in Foothill Ranch right off the CA-241 toll road, which makes access points a breeze.
+The rooms are pretty basic Courtyard stock. I had a king bed room and enjoyed the in-room flat screen television which was at least 42 inches in size. Internet access was free, although the property offered a $4.95 per day upgrade in case the speed of the complimentary service wasn't fast enough. I found the complimentary service adequate.
+At the back of the property was a pool and hot tub. The hot tub also featured a handicap lift chair for easy access. Nice touch for sure.
+My Two Gripes:  First, the hotel elevator was incredibly slow. It wasn't very efficient especially during busy periods of the day. Second, the service at the lobby bistro was incredibly slow. I love the concept of cooked to order food all day long. But they needed additional help. My first day there, I gave up waiting in line. And I was just one of three waiting to be helped. They need to institute a better system of service to move people through the process quicker. When I was waiting in line, there was a young lady who appeared to be the bistro's manager. Instead of helping guests with their orders, she did "busy work" behind the...This Courtyard property is a good choice for business travelers and families seeking a location in the south Orange County footprint. It's located in Foothill Ranch right off the CA-241 toll road, which makes access points a breeze.The rooms are pretty basic Courtyard stock. I had a king bed room and enjoyed the in-room flat screen television which was at least 42 inches in size. Internet access was free, although the property offered a $4.95 per day upgrade in case the speed of the complimentary service wasn't fast enough. I found the complimentary service adequate.At the back of the property was a pool and hot tub. The hot tub also featured a handicap lift chair for easy access. Nice touch for sure.My Two Gripes:  First, the hotel elevator was incredibly slow. It wasn't very efficient especially during busy periods of the day. Second, the service at the lobby bistro was incredibly slow. I love the concept of cooked to order food all day long. But they needed additional help. My first day there, I gave up waiting in line. And I was just one of three waiting to be helped. They need to institute a better system of service to move people through the process quicker. When I was waiting in line, there was a young lady who appeared to be the bistro's manager. Instead of helping guests with their orders, she did "busy work" behind the counter and left the order taking to her subordinates. She needed to offer assistance as well.Around the hotel, there are plenty of food choices within a mile. Some of the choices include Chili's, Denny's, Pick Up Stix and some more formal restaurants in the town center. Overall, I was fine with this property and would probably include it in selection when I return to the area. The staff was very friendly and it was clean. You could do a lot worse.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Devin H, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded May 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2014</t>
+  </si>
+  <si>
+    <t>This Courtyard property is a good choice for business travelers and families seeking a location in the south Orange County footprint. It's located in Foothill Ranch right off the CA-241 toll road, which makes access points a breeze.
+The rooms are pretty basic Courtyard stock. I had a king bed room and enjoyed the in-room flat screen television which was at least 42 inches in size. Internet access was free, although the property offered a $4.95 per day upgrade in case the speed of the complimentary service wasn't fast enough. I found the complimentary service adequate.
+At the back of the property was a pool and hot tub. The hot tub also featured a handicap lift chair for easy access. Nice touch for sure.
+My Two Gripes:  First, the hotel elevator was incredibly slow. It wasn't very efficient especially during busy periods of the day. Second, the service at the lobby bistro was incredibly slow. I love the concept of cooked to order food all day long. But they needed additional help. My first day there, I gave up waiting in line. And I was just one of three waiting to be helped. They need to institute a better system of service to move people through the process quicker. When I was waiting in line, there was a young lady who appeared to be the bistro's manager. Instead of helping guests with their orders, she did "busy work" behind the...This Courtyard property is a good choice for business travelers and families seeking a location in the south Orange County footprint. It's located in Foothill Ranch right off the CA-241 toll road, which makes access points a breeze.The rooms are pretty basic Courtyard stock. I had a king bed room and enjoyed the in-room flat screen television which was at least 42 inches in size. Internet access was free, although the property offered a $4.95 per day upgrade in case the speed of the complimentary service wasn't fast enough. I found the complimentary service adequate.At the back of the property was a pool and hot tub. The hot tub also featured a handicap lift chair for easy access. Nice touch for sure.My Two Gripes:  First, the hotel elevator was incredibly slow. It wasn't very efficient especially during busy periods of the day. Second, the service at the lobby bistro was incredibly slow. I love the concept of cooked to order food all day long. But they needed additional help. My first day there, I gave up waiting in line. And I was just one of three waiting to be helped. They need to institute a better system of service to move people through the process quicker. When I was waiting in line, there was a young lady who appeared to be the bistro's manager. Instead of helping guests with their orders, she did "busy work" behind the counter and left the order taking to her subordinates. She needed to offer assistance as well.Around the hotel, there are plenty of food choices within a mile. Some of the choices include Chili's, Denny's, Pick Up Stix and some more formal restaurants in the town center. Overall, I was fine with this property and would probably include it in selection when I return to the area. The staff was very friendly and it was clean. You could do a lot worse.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r205404727-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>205404727</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Quiet and Pleasent</t>
+  </si>
+  <si>
+    <t>Courtyard properties are pretty much universally the same, but this one was a bit of a stand out for the location. It was easy to get to, and there are plenty of stores (Walmart, Target, Ralphs) near by for anything you may need, and several restaurants so you are never hurting for a food choice.The staff was friendly and accommodating, and I never had any complaints.The overall area is quiet, which is always a plus. It did seem to have some heavy helicopter traffic near it, but I never heard it while in my room.Cleanliness was always spotless.Overall, a good stay for the dollar.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Courtyard properties are pretty much universally the same, but this one was a bit of a stand out for the location. It was easy to get to, and there are plenty of stores (Walmart, Target, Ralphs) near by for anything you may need, and several restaurants so you are never hurting for a food choice.The staff was friendly and accommodating, and I never had any complaints.The overall area is quiet, which is always a plus. It did seem to have some heavy helicopter traffic near it, but I never heard it while in my room.Cleanliness was always spotless.Overall, a good stay for the dollar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r199075194-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>199075194</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Great little Marriott for business events!</t>
+  </si>
+  <si>
+    <t>My company has been hosting business events at this Marriott for a number of years.  They have always provided great service and made an extra effort to accommodate our guests as much as possible.There are a number of places within walking distance to eat so it's great for those who Taxi from John Wayne airport and don't have any reliable transportation.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>My company has been hosting business events at this Marriott for a number of years.  They have always provided great service and made an extra effort to accommodate our guests as much as possible.There are a number of places within walking distance to eat so it's great for those who Taxi from John Wayne airport and don't have any reliable transportation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r197273282-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>197273282</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>Decent but bathroom has issues</t>
+  </si>
+  <si>
+    <t>Location is in a busines complex type of area, not walking distance to many restaurants but I think few mins by car should provide various options.standard courtyard, starbucks served on site. One thing I didn't appreciate was the bathroom. The toilet flush handle needed to be pressed and held down for a few seconds for the flush to slowly begin working. IT almost makes you feel for those few seconds that oh boy is this thing broken!Another thing was the shower water pressure was way too strong. Standard courtyard shower head as always but the pressure was so strong that it actually hurt while showering. Not cool.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded March 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2014</t>
+  </si>
+  <si>
+    <t>Location is in a busines complex type of area, not walking distance to many restaurants but I think few mins by car should provide various options.standard courtyard, starbucks served on site. One thing I didn't appreciate was the bathroom. The toilet flush handle needed to be pressed and held down for a few seconds for the flush to slowly begin working. IT almost makes you feel for those few seconds that oh boy is this thing broken!Another thing was the shower water pressure was way too strong. Standard courtyard shower head as always but the pressure was so strong that it actually hurt while showering. Not cool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r195350903-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>195350903</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>Stayed for a quick rest on a long drive</t>
+  </si>
+  <si>
+    <t>Stayed at this Courtyard on our way to San Diego. Its a halfway point for us. Facilities were nice, but I found it interesting that you needed your key card to enter the front lobby after hours. I've never seen that one before.Took a minute for the person at the desk to come out from the back and when they did they were a bit on the slow side. It was late, we just wanted to get into our room. Took 10 min to check in, we were the only ones there. This person was polite and helpful, just slow.So basically, everything was perfect except for the check in experience. My boyfriend and I were sure the desk person was smoking something funny in the back, though. Oh and this hotel is like more than 5 miles off the freeway. Its kinda out of the way if you're just making a quick stop like we were.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this Courtyard on our way to San Diego. Its a halfway point for us. Facilities were nice, but I found it interesting that you needed your key card to enter the front lobby after hours. I've never seen that one before.Took a minute for the person at the desk to come out from the back and when they did they were a bit on the slow side. It was late, we just wanted to get into our room. Took 10 min to check in, we were the only ones there. This person was polite and helpful, just slow.So basically, everything was perfect except for the check in experience. My boyfriend and I were sure the desk person was smoking something funny in the back, though. Oh and this hotel is like more than 5 miles off the freeway. Its kinda out of the way if you're just making a quick stop like we were.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r194216990-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>194216990</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>No coffee service</t>
+  </si>
+  <si>
+    <t>First, it's always nice when a desk clerk like Kaylee greets you in a very friendly way and says hello the next day when you pass by.  This is one of the 'modern design' Courtyards and it is worth selecting when you're in this area.  My 'average' score is based on what follows: Although the rooms are well-kept and modern, the hallways and elevator were filthy, and the bed was too firm for me.  What I am most irritated by is Courtyard in general, that stopped offering free coffee service.  I got a great weekend rate, so I selected them despite this, but I am staying at Courtyards much less these days because of it--and I usually have about 100 hotel nights per year, so 'less' means dozens of stays elsewhere as a result of no coffee.  And I refuse to spend money on their overpriced Bistro food and beverages.MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2014</t>
+  </si>
+  <si>
+    <t>First, it's always nice when a desk clerk like Kaylee greets you in a very friendly way and says hello the next day when you pass by.  This is one of the 'modern design' Courtyards and it is worth selecting when you're in this area.  My 'average' score is based on what follows: Although the rooms are well-kept and modern, the hallways and elevator were filthy, and the bed was too firm for me.  What I am most irritated by is Courtyard in general, that stopped offering free coffee service.  I got a great weekend rate, so I selected them despite this, but I am staying at Courtyards much less these days because of it--and I usually have about 100 hotel nights per year, so 'less' means dozens of stays elsewhere as a result of no coffee.  And I refuse to spend money on their overpriced Bistro food and beverages.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r194103954-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>194103954</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay!!</t>
+  </si>
+  <si>
+    <t>Most awesome staff!! Alex will take care of all your food and beverage needs, we will be back every time we come to town!! The rooms are great and the location is perfect for my needs. They are close to a lot of nice restaurants and local businesses.MoreShow less</t>
+  </si>
+  <si>
+    <t>Devin H, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Most awesome staff!! Alex will take care of all your food and beverage needs, we will be back every time we come to town!! The rooms are great and the location is perfect for my needs. They are close to a lot of nice restaurants and local businesses.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r192281406-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>192281406</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The staff and service at this Courtyard was great!  The rooms were clean, and the lobby and cafe area are very inviting.  It definitely felt like a home away from home.  Great shopping center close by as well!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Devin H, Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded January 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2014</t>
+  </si>
+  <si>
+    <t>The staff and service at this Courtyard was great!  The rooms were clean, and the lobby and cafe area are very inviting.  It definitely felt like a home away from home.  Great shopping center close by as well!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r191950029-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>191950029</t>
+  </si>
+  <si>
+    <t>01/24/2014</t>
+  </si>
+  <si>
+    <t>Great service, great experience!</t>
+  </si>
+  <si>
+    <t>We had a great experience here, especially with the help of the front desk. They accomodated all of our needs without hesitation. Also, they recommended some exceptional restaurants and activities in the area. It's great to have referrals like that when you are not familiar with the city. Definetly coming back!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a great experience here, especially with the help of the front desk. They accomodated all of our needs without hesitation. Also, they recommended some exceptional restaurants and activities in the area. It's great to have referrals like that when you are not familiar with the city. Definetly coming back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r191947371-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>191947371</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>I stayed at the Foothill Courtyard for 2 nights last week as I was attending a family gathering and the house was full.  My check-in was fast and courteous. The front desk person Michelle was positive, friendly and professional. My room was clean and comfortable, and I fully enjoyed my stay.  The Bistro offered some late night refreshments that were very appreciated.  All in all, a very good value and experience for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>650DerekB, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded January 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at the Foothill Courtyard for 2 nights last week as I was attending a family gathering and the house was full.  My check-in was fast and courteous. The front desk person Michelle was positive, friendly and professional. My room was clean and comfortable, and I fully enjoyed my stay.  The Bistro offered some late night refreshments that were very appreciated.  All in all, a very good value and experience for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r191944915-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>191944915</t>
+  </si>
+  <si>
+    <t>Friendly and Convenient</t>
+  </si>
+  <si>
+    <t>My in-laws stayed here over the Thanksgiving holiday. The front desk staff was very helpful and accommodating.  The rooms are very large, the pool area is nice, and they sell Starbucks coffee in the lobby!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>My in-laws stayed here over the Thanksgiving holiday. The front desk staff was very helpful and accommodating.  The rooms are very large, the pool area is nice, and they sell Starbucks coffee in the lobby!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r184732602-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>184732602</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>Nice but noisy</t>
+  </si>
+  <si>
+    <t>Typical courtyard Marriott with Bistro.  Very clean and updated.  After reading reviews on trip advisor, I asked for an inside room as many had said they were quieter; unfortunately even though I checked in on a Monday that was not available.  I am a gold or platinum or whatever Marriott member but it never seems to make a difference.  I was tired so thought I might just grab something to eat that night in the bistro but there was only one guy behind the counter and it was happy hour so I gave up and went to a nearby restaurant.  The room was noisy.  There was a busy 6 lane street below my window, Portola Way.  I woke up several times a night.  The rooms were nice but the room door, bathroom door and closet door were conflicting with one another constantly, poor design.  The good news is that the hotel was located in a business park, so within walking distance was a subway, thai garden, urban grill, starbucks and bagel shop.MoreShow less</t>
+  </si>
+  <si>
+    <t>650DerekB, Front Office Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Typical courtyard Marriott with Bistro.  Very clean and updated.  After reading reviews on trip advisor, I asked for an inside room as many had said they were quieter; unfortunately even though I checked in on a Monday that was not available.  I am a gold or platinum or whatever Marriott member but it never seems to make a difference.  I was tired so thought I might just grab something to eat that night in the bistro but there was only one guy behind the counter and it was happy hour so I gave up and went to a nearby restaurant.  The room was noisy.  There was a busy 6 lane street below my window, Portola Way.  I woke up several times a night.  The rooms were nice but the room door, bathroom door and closet door were conflicting with one another constantly, poor design.  The good news is that the hotel was located in a business park, so within walking distance was a subway, thai garden, urban grill, starbucks and bagel shop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r184598336-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>184598336</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Perfect for business</t>
+  </si>
+  <si>
+    <t>I had a 15-day stay in this property for business purpose. The hotel is pretty old. i would date it mid-80s but it is well kept. Rooms are spacious and comfortable. The breakfast is served in the only bar-restaurant in the looby and you pay what you order. there is decent fitness room and a swiming that i did not try. generally speaking the hotel is clean and the staff is always friendly and with a genuine smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I had a 15-day stay in this property for business purpose. The hotel is pretty old. i would date it mid-80s but it is well kept. Rooms are spacious and comfortable. The breakfast is served in the only bar-restaurant in the looby and you pay what you order. there is decent fitness room and a swiming that i did not try. generally speaking the hotel is clean and the staff is always friendly and with a genuine smile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r178188918-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>178188918</t>
+  </si>
+  <si>
+    <t>09/22/2013</t>
+  </si>
+  <si>
+    <t>Good Experience:  Basic Courtyard, Clean with Good Service</t>
+  </si>
+  <si>
+    <t>This is a standard Courtyard with updated lobby and foodservice - very clean and comfortable with above average service.  The hotel has a nice fitness room and is close to a Starbucks, Thai Restaurant, Wine Bar and Fish Taco place (although they serve Starbucks in the lobby and make a good cappuccino there!)  Rooms are just ok - wifi is free - If you're in the area this is a solid place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>650DerekB, Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>This is a standard Courtyard with updated lobby and foodservice - very clean and comfortable with above average service.  The hotel has a nice fitness room and is close to a Starbucks, Thai Restaurant, Wine Bar and Fish Taco place (although they serve Starbucks in the lobby and make a good cappuccino there!)  Rooms are just ok - wifi is free - If you're in the area this is a solid place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r173028249-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>173028249</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>What a pleasure.  The staff was very professional, and friendly.  We were in town for a soccer tournament, and wanted to check in early. They got us in 2 hours early, and upgraded someone we were traveling with when his original room was ready.Their food was very good, and not out of a warming tray.Thanks for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>650DerekB, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded September 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2013</t>
+  </si>
+  <si>
+    <t>What a pleasure.  The staff was very professional, and friendly.  We were in town for a soccer tournament, and wanted to check in early. They got us in 2 hours early, and upgraded someone we were traveling with when his original room was ready.Their food was very good, and not out of a warming tray.Thanks for a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r167587322-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>167587322</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>I travel often and stay for the most part at full service hotels, this hotel gets it!  The staff is friendly and the experience was great.  Rooms are comfortable, nothing extravagant but fully functional.  Good fitness area with up to date equipment and nice pool area.I enjoyed reviewing the comment about no bellman on arrival, hello this is a courtyard and parking was convenient and within feet of the front door!  And, I enjoyed reading the review about one elevator, hello?, there is one on each side of the building!!! So, before you speak out of turn, understand the courtyard brand and the hotel!The hotel is great for a limited service hotel, good lobby, good breakfast, good pool for a courtyard and good computers in the lobby!  Stay, you won't regret it!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>650DerekB, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2013</t>
+  </si>
+  <si>
+    <t>I travel often and stay for the most part at full service hotels, this hotel gets it!  The staff is friendly and the experience was great.  Rooms are comfortable, nothing extravagant but fully functional.  Good fitness area with up to date equipment and nice pool area.I enjoyed reviewing the comment about no bellman on arrival, hello this is a courtyard and parking was convenient and within feet of the front door!  And, I enjoyed reading the review about one elevator, hello?, there is one on each side of the building!!! So, before you speak out of turn, understand the courtyard brand and the hotel!The hotel is great for a limited service hotel, good lobby, good breakfast, good pool for a courtyard and good computers in the lobby!  Stay, you won't regret it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r166300426-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>166300426</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>Worth so much more than their rates!</t>
+  </si>
+  <si>
+    <t>Stayed here during the holidays and just now getting around to writing this review. We wanted a "home base" that was not too far from Disneyland, but still not right next to it either. This hotel was just the ticket! Very affordable rates, great little bistro in the lobby for snacks and light meals, amazing service, clean and comfortable rooms and great beds. Everything you could want in a Courtyard by Marriott and so much more! Really nice pool area and the landscaping surrounding the hotel is beautiful! Plenty of close parking. The lobby has been remodeled and is really, really nice. I would put it on the level of a much more expensive hotel. I had stayed at this hotel a couple of years ago and my stay was ok, but there seems to have been some changes that have been made at this hotel because the service level has risen dramatically, the property looks cleaner and it just has a much happier, enjoyable feel to it. Don't know if there was an ownership change or a new general manager or what, but I was very pleasantly surprised by my last stay. I will back!This is the place to stay if you are visiting the Disneyland, Southern California area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Stayed here during the holidays and just now getting around to writing this review. We wanted a "home base" that was not too far from Disneyland, but still not right next to it either. This hotel was just the ticket! Very affordable rates, great little bistro in the lobby for snacks and light meals, amazing service, clean and comfortable rooms and great beds. Everything you could want in a Courtyard by Marriott and so much more! Really nice pool area and the landscaping surrounding the hotel is beautiful! Plenty of close parking. The lobby has been remodeled and is really, really nice. I would put it on the level of a much more expensive hotel. I had stayed at this hotel a couple of years ago and my stay was ok, but there seems to have been some changes that have been made at this hotel because the service level has risen dramatically, the property looks cleaner and it just has a much happier, enjoyable feel to it. Don't know if there was an ownership change or a new general manager or what, but I was very pleasantly surprised by my last stay. I will back!This is the place to stay if you are visiting the Disneyland, Southern California area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r160196171-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>160196171</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>Clean, Convenient, and Very Friendly Staff</t>
+  </si>
+  <si>
+    <t>Great location convenient to all things in the area, including SNA airport, Newport Beach, Fashion Island, etc. Hotel is situated walking distance from a Starbucks, a Wahoo's Fish Taco, and a really good Thai restaurant, so that is great for those without a car. This is also a "new lobby" Courtyard, so it has the Bistro with the good breakfast and dinner options, and the fitness rooms looked to have been recently redone as well. Although this property is an "older" Courtyard with the original design of the inner rooms overlooking an actual Courtyard/pool/hot tub area, my room was really clean and well-kept, and had a nicely renovated bathroom.The staff was very nice; at check-in, Mio was great. She gave me a balcony room upgrade and a bottle of water, and made sure I felt right at home. Value of the hotel was good, too, for the area. I will stay here again when in the area for business.Don't miss the entrance to this hotel, otherwise you may find yourself on the onramp to the 241 toll road; make a U-turn after the hotel if you miss the driveway entrance, then make another U-turn at the light and make your first right (after the Starbucks and Wahoos).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Great location convenient to all things in the area, including SNA airport, Newport Beach, Fashion Island, etc. Hotel is situated walking distance from a Starbucks, a Wahoo's Fish Taco, and a really good Thai restaurant, so that is great for those without a car. This is also a "new lobby" Courtyard, so it has the Bistro with the good breakfast and dinner options, and the fitness rooms looked to have been recently redone as well. Although this property is an "older" Courtyard with the original design of the inner rooms overlooking an actual Courtyard/pool/hot tub area, my room was really clean and well-kept, and had a nicely renovated bathroom.The staff was very nice; at check-in, Mio was great. She gave me a balcony room upgrade and a bottle of water, and made sure I felt right at home. Value of the hotel was good, too, for the area. I will stay here again when in the area for business.Don't miss the entrance to this hotel, otherwise you may find yourself on the onramp to the 241 toll road; make a U-turn after the hotel if you miss the driveway entrance, then make another U-turn at the light and make your first right (after the Starbucks and Wahoos).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r158194089-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>158194089</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable and Pretty Inexpensive</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 night on business and found the hotel good quality for the cheap price I paid.  Breakfast facilities were fine with a coffee bar so good if you want to grab and go in the morning.  Never ate any dinner in the hotel so cant comment of evening 'entertainment' but it look very quiet while walking through the lobby when returning.  Sound proofing of the rooms are not great so stay away from the ice machine, loacted next to the lifts.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r156655110-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>156655110</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>Pleasant, Relaxing and Convenient</t>
+  </si>
+  <si>
+    <t>We stayed her to be close to our family over the Easter weekend.  The best part was the fact that our Easter Service was just down the way.  This location was extremely convenient for us being that our family lives in Ladera Ranch and attends Saddleback Church.  Our room was comfortable!  So happy there was a fridge for our leftovers from dinner (we took advantage of Wahoos located in the parking lot)!!  The weather was great and we got to relax at the pool!  The staff was super friendly, printed us directions to restaurants in the area, we enjoyed the lobby, there are these cool booths with tvs you can relax at and eat and watch tv or there is a big screen tv in the lobby that is neat to sit at while the husband surfs the internet on the computers in the lobby!  I would highly recommend staying here and will use this location again when I am back to visit family again!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed her to be close to our family over the Easter weekend.  The best part was the fact that our Easter Service was just down the way.  This location was extremely convenient for us being that our family lives in Ladera Ranch and attends Saddleback Church.  Our room was comfortable!  So happy there was a fridge for our leftovers from dinner (we took advantage of Wahoos located in the parking lot)!!  The weather was great and we got to relax at the pool!  The staff was super friendly, printed us directions to restaurants in the area, we enjoyed the lobby, there are these cool booths with tvs you can relax at and eat and watch tv or there is a big screen tv in the lobby that is neat to sit at while the husband surfs the internet on the computers in the lobby!  I would highly recommend staying here and will use this location again when I am back to visit family again!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r154952545-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>154952545</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Dissapointing</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times.  It is a standard Marriott property with the usual amenities.  However, it has gone downhill.  The room cleanliness was dissappointing and the rooms were starting to show their age.  AC units are noisy.  Road noise is definitely more noticeable than previous visits.  Pillows are very uncomfortable.  I even found myself stuck in the one and only elevator.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r154900617-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>154900617</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>I stay at the Courtyard in FHR for business and it is a nice clean hotel.  The staff are friendly and helpful.  I have stayed here 6 times this year and had only a minor issue which the staff took care of right away.  My biggest complaint is the internet is on the slow side, which drops my work connection on occasion.  There is a restaurant which offers some decent choices for Breakfast and dinner.  Overall the hotel is a good choice in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r154220568-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>154220568</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>Relaxing and Very Convenient</t>
+  </si>
+  <si>
+    <t>On a recent trip to Southern California to check-out some colleges for my son, we ended up at the Courtyard Foothill Ranch on a recommendation from a friend.  It turned out to be an ideal location with easy access for a day-trip down to Long Beach to tour UC Long Beach campus and then visit Mickey Mouse at Disneyland before returning to the Bay Area.  The hotel was easily located off the main road; it felt pleasantly inviting with swaying palm trees out front, as we imagine all hotels in southern California have.  We slept well in rooms well insulated from the nearby traffic.  My son was extremely thrilled to find a simple, but well equipped fitness room off the lobby and I truly enjoyed swimming laps in the pool after a long drive.  I found the housekeeping staff took great pride in taking care of keeping the rooms spotless and we enjoyed the casual but very tasty cafe menue for a late evening meal while pouring over maps and brochures in planning out our trip.  The staff made us feel welcome and were very helpful with our many questions and printing out driving directions, including offering up their favorite neighborhood breakfast spot.  We'll be sure to tell a friend why this hotel stands out a great find...MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>On a recent trip to Southern California to check-out some colleges for my son, we ended up at the Courtyard Foothill Ranch on a recommendation from a friend.  It turned out to be an ideal location with easy access for a day-trip down to Long Beach to tour UC Long Beach campus and then visit Mickey Mouse at Disneyland before returning to the Bay Area.  The hotel was easily located off the main road; it felt pleasantly inviting with swaying palm trees out front, as we imagine all hotels in southern California have.  We slept well in rooms well insulated from the nearby traffic.  My son was extremely thrilled to find a simple, but well equipped fitness room off the lobby and I truly enjoyed swimming laps in the pool after a long drive.  I found the housekeeping staff took great pride in taking care of keeping the rooms spotless and we enjoyed the casual but very tasty cafe menue for a late evening meal while pouring over maps and brochures in planning out our trip.  The staff made us feel welcome and were very helpful with our many questions and printing out driving directions, including offering up their favorite neighborhood breakfast spot.  We'll be sure to tell a friend why this hotel stands out a great find...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r151016491-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>151016491</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t>I have stayed here several times for work.the rooms are very clean and fairly spacious. I wish there was a microwave in the room other than that it's a very comfortable place to stay. the staff is always very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r146488745-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>146488745</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel, friendly staff</t>
+  </si>
+  <si>
+    <t>I stay here for work a few times a year. The rooms are always nice and clean. The best part about the hotel is the staff. They go out of their way to be helpful, friendly, and they always remember you. Such a nice touch when you're away from home.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r144894798-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>144894798</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>Good solid place to stay!</t>
+  </si>
+  <si>
+    <t>My husband and I came in for a quick one night stay to go to an event in the area.  We just needed a clean, comfortable, relatively inexpensive place to stay.  This hotel served all of those needs.  The room was clean and the bed was comfortable.  The hotel staff were all very friendly and helpful.  The cafe in the lobby served a short list of items but those items we tried were well prepared and a good value for the money.  We would stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r132868712-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>132868712</t>
+  </si>
+  <si>
+    <t>06/27/2012</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>your staff was awesome I was traveling solo had to stay 2 nights however very nice personal front desk and maintenance nice clean rooms nice locationMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>CYBMGeneralManager, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>your staff was awesome I was traveling solo had to stay 2 nights however very nice personal front desk and maintenance nice clean rooms nice locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r126500507-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>126500507</t>
+  </si>
+  <si>
+    <t>03/22/2012</t>
+  </si>
+  <si>
+    <t>The staff here is amazing</t>
+  </si>
+  <si>
+    <t>I've been staying at this hotel for over a year now traveling weekly for work. I had an incident where I got stuck in Cali for an extra night and the staff went above and beyond to make my stay enjoyable! The new beds are  and lobby nicer then before and having the bistro is conveinent, but I will keep staying here for the amazing staff alone!</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r123919424-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>123919424</t>
+  </si>
+  <si>
+    <t>01/31/2012</t>
+  </si>
+  <si>
+    <t>Comfort Not Where You expect It</t>
+  </si>
+  <si>
+    <t>I often review the upscale properties I have a chance to stay at. This stay was purely utilitarian, I needed a place close to my customer.My expectations were admittedly low. Immediately upon entering the lobby I noted that this Courtyard is in the new format.  I really enjoy this refresh that they are doing to their lobbies. Its an inviting, aesthetic yet very productive site.  But what really makes this Courtyard exceptional is the staff. These people are all out going and I can trust them for anything I need. In January I stayed there twice and I look forward to my next visit as well. BTW: Its only a 25 minute drive from Laguna Beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>CYBMGeneralManager, General Manager at Courtyard Foothill Ranch Irvine East/Lake Forest, responded to this reviewResponded April 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2012</t>
+  </si>
+  <si>
+    <t>I often review the upscale properties I have a chance to stay at. This stay was purely utilitarian, I needed a place close to my customer.My expectations were admittedly low. Immediately upon entering the lobby I noted that this Courtyard is in the new format.  I really enjoy this refresh that they are doing to their lobbies. Its an inviting, aesthetic yet very productive site.  But what really makes this Courtyard exceptional is the staff. These people are all out going and I can trust them for anything I need. In January I stayed there twice and I look forward to my next visit as well. BTW: Its only a 25 minute drive from Laguna Beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r120501968-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>120501968</t>
+  </si>
+  <si>
+    <t>11/12/2011</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Wonderful staff, gave me a military discount, room was clean, comfortable, nearly silent, bed was soft, bathroom was large and well stocked.Best hotel experience we've had to date.Value for accomidation was excellent.We stayed on a Friday night in Nov.2011, high end of the hotel prices but very worth every cent.Great parking, secure location, and easy access to all of Irvine.I highly recommend this place to everyone who wants a great nights sleep and to feel like a King. I'm not rich by any means, but they sure did make us feel like we were. Incredible hotel.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r119354471-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>119354471</t>
+  </si>
+  <si>
+    <t>10/16/2011</t>
+  </si>
+  <si>
+    <t>Good for business travel, helpful breakfast staff</t>
+  </si>
+  <si>
+    <t>I stayed here 1 night after a client meeting.  True to the new Courtyard concept, the hotel was well equipped for the business traveller: free we-fi, spacious desk/working area in the room, spacious lounge/lobby area to meet/greet, computers in the lobby/lounge area to look up last minute stuff, breakfast area serving buffet or a la carte, and (very important) no fuss check in/check out.  The room was spacious, nicely furnished, and clean.  Doesn't have the brand new feel of some of the newer Courtyards, but not tired or worn either.  My 2 complaints: TV was inconveniently located parallel to the bed, and nary a tea bag in sight although ample Barista coffee provided.Breakfast buffet included hot and cold items. The breakfast wait staff was very helpful even though I declined the more expensive buffet, and hustled my order (toasted bagel) when they saw that I was in a hurry.Location was right across the street from my client, ~15 minutes from SNA.Good value for the price (granted, it is Orange County price).MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I stayed here 1 night after a client meeting.  True to the new Courtyard concept, the hotel was well equipped for the business traveller: free we-fi, spacious desk/working area in the room, spacious lounge/lobby area to meet/greet, computers in the lobby/lounge area to look up last minute stuff, breakfast area serving buffet or a la carte, and (very important) no fuss check in/check out.  The room was spacious, nicely furnished, and clean.  Doesn't have the brand new feel of some of the newer Courtyards, but not tired or worn either.  My 2 complaints: TV was inconveniently located parallel to the bed, and nary a tea bag in sight although ample Barista coffee provided.Breakfast buffet included hot and cold items. The breakfast wait staff was very helpful even though I declined the more expensive buffet, and hustled my order (toasted bagel) when they saw that I was in a hurry.Location was right across the street from my client, ~15 minutes from SNA.Good value for the price (granted, it is Orange County price).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r119233008-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>119233008</t>
+  </si>
+  <si>
+    <t>10/12/2011</t>
+  </si>
+  <si>
+    <t>No Complaints</t>
+  </si>
+  <si>
+    <t>The room was clean, the bathroom was clean, and the bed was comfortable.  Only stayed for one night but it was very pleasant.  The front desk staff was extreemly friendly.  I really like that they required a room key or a reservation to even enter the lobby after dark.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r116860195-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>116860195</t>
+  </si>
+  <si>
+    <t>08/17/2011</t>
+  </si>
+  <si>
+    <t>What you expect from Courtyard</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Only complaint is the $12.95 breakfast. Most hotels serve complimentary breakfast.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r116832729-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>116832729</t>
+  </si>
+  <si>
+    <t>08/16/2011</t>
+  </si>
+  <si>
+    <t>pricey but nice</t>
+  </si>
+  <si>
+    <t>not cheap for the level of amenities but I haven't been to other hotels/motels in the area. small coffee shop in the lobby with few choices was expensive too. plenty of parking and close to freeway. A safe choice for a quality room but there might be cheaper choices out there.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r116731991-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>116731991</t>
+  </si>
+  <si>
+    <t>08/14/2011</t>
+  </si>
+  <si>
+    <t>Nice Hotel but...</t>
+  </si>
+  <si>
+    <t>The property is nice. However do not trust your GPS to get you there. My GPS was off by at least 1/4 mile. I would stay hear again as it was a good location for what I needed to do. But,,,the free wi-fi was very weak and slow. $13.95 for breakfast was way too much, but there is a bagel place in walking distance in the same parking lot. We had a room with one king and a sofa bed. The king was on the wrong wall, so when you looked at the 46" HD tv, you had to turn your neck in a funny position. Nice LARGE TV. But like I said funny watching angle from bed and the TV is too large for the room. Free parking. They did not have any foam pillows. Extra sheets for sofa bed had to be brought up by housekeeping.MoreShow less</t>
+  </si>
+  <si>
+    <t>The property is nice. However do not trust your GPS to get you there. My GPS was off by at least 1/4 mile. I would stay hear again as it was a good location for what I needed to do. But,,,the free wi-fi was very weak and slow. $13.95 for breakfast was way too much, but there is a bagel place in walking distance in the same parking lot. We had a room with one king and a sofa bed. The king was on the wrong wall, so when you looked at the 46" HD tv, you had to turn your neck in a funny position. Nice LARGE TV. But like I said funny watching angle from bed and the TV is too large for the room. Free parking. They did not have any foam pillows. Extra sheets for sofa bed had to be brought up by housekeeping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r113241908-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>113241908</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Good Basic Hotel.  Not outstanding in any way</t>
+  </si>
+  <si>
+    <t>I have stayed at this Courtyard probably 100 nights over the past few years as I work for a company in the office complex next to it. The best thing it has going for it is the location. If I counldn't walk to work I would probably not stay there as often.Service is not bad, but no 'extras' like newspapers delivered to your room.  No bar or evening resturant (there are several resturants in the office complex so you won't starve) They don't even deliver dry cleaning to the room!   Rooms are your standard "older" Courtyard.  Not the new remodeled version.  Internet access can be hit or miss. Some of the rooms on the end of the building's have very bad wifi access.If you have status with Marriott, do NOT expect an upgrade.  I am a platnium and have never gotten one!  They have a few suites but don't seem to give them away.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>I have stayed at this Courtyard probably 100 nights over the past few years as I work for a company in the office complex next to it. The best thing it has going for it is the location. If I counldn't walk to work I would probably not stay there as often.Service is not bad, but no 'extras' like newspapers delivered to your room.  No bar or evening resturant (there are several resturants in the office complex so you won't starve) They don't even deliver dry cleaning to the room!   Rooms are your standard "older" Courtyard.  Not the new remodeled version.  Internet access can be hit or miss. Some of the rooms on the end of the building's have very bad wifi access.If you have status with Marriott, do NOT expect an upgrade.  I am a platnium and have never gotten one!  They have a few suites but don't seem to give them away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r111889177-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>111889177</t>
+  </si>
+  <si>
+    <t>06/06/2011</t>
+  </si>
+  <si>
+    <t>Very nice hotel but...</t>
+  </si>
+  <si>
+    <t>In general, the hotel is very good and clean.  The only thing that I disliked is how they put my two rooms in a complete opposite side of the hotel.  Also the hotel is very noisy during night time.  I can hear all traffic in both rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r102889523-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>102889523</t>
+  </si>
+  <si>
+    <t>04/05/2011</t>
+  </si>
+  <si>
+    <t>Stayed here many times - service is beyond excellent</t>
+  </si>
+  <si>
+    <t>We recently moved away from Orange County and have traveled back on several occasions to see family. We have stayed at the Courtyard Marriott in Foothill Ranch. I have stayed in hotels all around the world and the service we get here is beyond excellent. They remember us by name each time, ask about our family. The front desk person Denise is one of the best customer service people we have ever experienced in our lives! The breakfast is excellent, the service there is also superb. I would 100% recommend this hotel to a friend.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r69091028-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>69091028</t>
+  </si>
+  <si>
+    <t>06/29/2010</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Good Value for Orange County</t>
+  </si>
+  <si>
+    <t>I usually stay here on business when in Orange county because it's close to the tollway, not too far from I-5 and actually not that far from the beach.  It's clean, the employees are efficient and friendly, and the breakfast service is quick and not too bad of quality.  I had a freshly prepared omelet each morning that was very good quality.  The beds haven't quite kept up with some of the other chains out there, and they're not quite as comfy.  The rooms are laid out well though, plenty of plugs for your iPhones, laptops, etc.  The rooms also have a huge flat screen, I believe a 42". Carpet and bedding were in good shape. I was given a bed on the west side of the hotel, close to the tollway, but to my surprise, with their double windows, I really didn't hear the noise.  They have a nice pool/courtyard area and they're close to some good restaurants, a few within walking distance.  A Starbucks is also in the same complex.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I usually stay here on business when in Orange county because it's close to the tollway, not too far from I-5 and actually not that far from the beach.  It's clean, the employees are efficient and friendly, and the breakfast service is quick and not too bad of quality.  I had a freshly prepared omelet each morning that was very good quality.  The beds haven't quite kept up with some of the other chains out there, and they're not quite as comfy.  The rooms are laid out well though, plenty of plugs for your iPhones, laptops, etc.  The rooms also have a huge flat screen, I believe a 42". Carpet and bedding were in good shape. I was given a bed on the west side of the hotel, close to the tollway, but to my surprise, with their double windows, I really didn't hear the noise.  They have a nice pool/courtyard area and they're close to some good restaurants, a few within walking distance.  A Starbucks is also in the same complex.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r63198219-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>63198219</t>
+  </si>
+  <si>
+    <t>05/04/2010</t>
+  </si>
+  <si>
+    <t>I stayed on 4th floor. The tub/shower...</t>
+  </si>
+  <si>
+    <t>I stayed on 4th floor. The tub/shower wouldn't drain. Very disappointing. The room decor is vintage Marriott Courtyard. With other hotels nearby, I'll give them a try before returning here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r45625192-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>45625192</t>
+  </si>
+  <si>
+    <t>10/01/2009</t>
+  </si>
+  <si>
+    <t>Classic Courtyard Starting to Show Its Age</t>
+  </si>
+  <si>
+    <t>This Courtyard delivers what you expect from the brand – efficient service, tidy rooms, generous channel lineup, easy and fast internet connection, and a comfortable pool area.  The setting is both tranquil and convenient with an array of restaurants in close proximity to the hotel.  It is what every traveler expects from a Courtyard by Marriott.  The one caution is that while this is not a first-generation Courtyard, it is not a modern version either.  The exercise equipment is dated, and the televisions were boxes.  But there is good news for future travelers: the new flat screens arrived as I departed.  At the end of the day this is a classic Courtyard with several years of guest usage.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>This Courtyard delivers what you expect from the brand – efficient service, tidy rooms, generous channel lineup, easy and fast internet connection, and a comfortable pool area.  The setting is both tranquil and convenient with an array of restaurants in close proximity to the hotel.  It is what every traveler expects from a Courtyard by Marriott.  The one caution is that while this is not a first-generation Courtyard, it is not a modern version either.  The exercise equipment is dated, and the televisions were boxes.  But there is good news for future travelers: the new flat screens arrived as I departed.  At the end of the day this is a classic Courtyard with several years of guest usage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r7219516-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>7219516</t>
+  </si>
+  <si>
+    <t>03/24/2007</t>
+  </si>
+  <si>
+    <t>Great new hotel for business travel</t>
+  </si>
+  <si>
+    <t>This is a nice hotel for business travelers. The great thing is that it’s new, so everything is fresh, no signs of wear and tear. Everything is clean and decorated very modernly.  I recommend it for a short business trip. I do not recommend it for a long stay and much less for a vacation due to the lack of amenities and things to do in the area. 
+The Room……
+It was spacious and clean; with a balcony (lacking table and chairs) overlooking the pool. 
+The room included a king size bed with feather pillows and duvet cover (very comfortable to sleep in), sofa, coffee table, writing desk; dresser and T.V. which you could order pay per view movies for $12. 
+The room was not set up ideally, since the T.V. is uncomfortable to see from the bed and or sofa.
+The Bathroom….
+It was average, clean, nice size with fresh towels daily. Not enough shampoo. 
+Hotel…
+The reception area is nice and the staff is friendly and helpful. The business area only has one computer….which I find it odd since it’s a business traveler’s hotel. I used the computer for 40 minutes and paid $15. The pool area is very nice, decent size with a Jacuzzi. 
+Meals….
+The hotel only serves breakfast which costs $9 for the buffet. They have scrambled eggs, bacon, sausage, potatoes, fruits, cereal, juice, milk, coffee and bread. They do not serve any other meal...This is a nice hotel for business travelers. The great thing is that it’s new, so everything is fresh, no signs of wear and tear. Everything is clean and decorated very modernly.  I recommend it for a short business trip. I do not recommend it for a long stay and much less for a vacation due to the lack of amenities and things to do in the area. The Room……It was spacious and clean; with a balcony (lacking table and chairs) overlooking the pool. The room included a king size bed with feather pillows and duvet cover (very comfortable to sleep in), sofa, coffee table, writing desk; dresser and T.V. which you could order pay per view movies for $12. The room was not set up ideally, since the T.V. is uncomfortable to see from the bed and or sofa.The Bathroom….It was average, clean, nice size with fresh towels daily. Not enough shampoo. Hotel…The reception area is nice and the staff is friendly and helpful. The business area only has one computer….which I find it odd since it’s a business traveler’s hotel. I used the computer for 40 minutes and paid $15. The pool area is very nice, decent size with a Jacuzzi. Meals….The hotel only serves breakfast which costs $9 for the buffet. They have scrambled eggs, bacon, sausage, potatoes, fruits, cereal, juice, milk, coffee and bread. They do not serve any other meal in the hotel. There are menus in the room for a restaurant delivery service. The minimum order is $20, they add $9 for delivery and automatically add 15% for tip. I ended up paying $40 one night for a meal that wasn’t very satisfying. Area….Everything in Orange County is relatively close, but the closest desirable area to go and visit would be Laguna Beach, which is a 20 minute car drive from the hotel. Walking distance from the hotel is a little side mall that includes a Starbucks and 3 fast food restaurants, none of them looked too appetizing. On Partola Parkway, about a 5 minute drive you can find family style restaurants, supermarkets, shops like Target and gas stations.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>This is a nice hotel for business travelers. The great thing is that it’s new, so everything is fresh, no signs of wear and tear. Everything is clean and decorated very modernly.  I recommend it for a short business trip. I do not recommend it for a long stay and much less for a vacation due to the lack of amenities and things to do in the area. 
+The Room……
+It was spacious and clean; with a balcony (lacking table and chairs) overlooking the pool. 
+The room included a king size bed with feather pillows and duvet cover (very comfortable to sleep in), sofa, coffee table, writing desk; dresser and T.V. which you could order pay per view movies for $12. 
+The room was not set up ideally, since the T.V. is uncomfortable to see from the bed and or sofa.
+The Bathroom….
+It was average, clean, nice size with fresh towels daily. Not enough shampoo. 
+Hotel…
+The reception area is nice and the staff is friendly and helpful. The business area only has one computer….which I find it odd since it’s a business traveler’s hotel. I used the computer for 40 minutes and paid $15. The pool area is very nice, decent size with a Jacuzzi. 
+Meals….
+The hotel only serves breakfast which costs $9 for the buffet. They have scrambled eggs, bacon, sausage, potatoes, fruits, cereal, juice, milk, coffee and bread. They do not serve any other meal...This is a nice hotel for business travelers. The great thing is that it’s new, so everything is fresh, no signs of wear and tear. Everything is clean and decorated very modernly.  I recommend it for a short business trip. I do not recommend it for a long stay and much less for a vacation due to the lack of amenities and things to do in the area. The Room……It was spacious and clean; with a balcony (lacking table and chairs) overlooking the pool. The room included a king size bed with feather pillows and duvet cover (very comfortable to sleep in), sofa, coffee table, writing desk; dresser and T.V. which you could order pay per view movies for $12. The room was not set up ideally, since the T.V. is uncomfortable to see from the bed and or sofa.The Bathroom….It was average, clean, nice size with fresh towels daily. Not enough shampoo. Hotel…The reception area is nice and the staff is friendly and helpful. The business area only has one computer….which I find it odd since it’s a business traveler’s hotel. I used the computer for 40 minutes and paid $15. The pool area is very nice, decent size with a Jacuzzi. Meals….The hotel only serves breakfast which costs $9 for the buffet. They have scrambled eggs, bacon, sausage, potatoes, fruits, cereal, juice, milk, coffee and bread. They do not serve any other meal in the hotel. There are menus in the room for a restaurant delivery service. The minimum order is $20, they add $9 for delivery and automatically add 15% for tip. I ended up paying $40 one night for a meal that wasn’t very satisfying. Area….Everything in Orange County is relatively close, but the closest desirable area to go and visit would be Laguna Beach, which is a 20 minute car drive from the hotel. Walking distance from the hotel is a little side mall that includes a Starbucks and 3 fast food restaurants, none of them looked too appetizing. On Partola Parkway, about a 5 minute drive you can find family style restaurants, supermarkets, shops like Target and gas stations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r7007964-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>7007964</t>
+  </si>
+  <si>
+    <t>03/08/2007</t>
+  </si>
+  <si>
+    <t>Great weekend getaway value in a central location</t>
+  </si>
+  <si>
+    <t>This Courtyard is clearly a business hotel, as it is in the middle of an office park.  However, that means there is not a lot going on over the weekend, and that is when I stayed, thanks to great weekend deals.  I was traveling for a 2-city in 4 days Southern California getaway with my mother, and this was our first stop.  We were planning to spend our time primarily in Laguna Beach, but this hotel was a much more affordable option than anything in Laguna Beach, and it only took 10-15 minutes to get there.  It is also not far from other local attractions, such as Disneyland, but at a more affordable cost, again due to the weekend deals.  I cannot speak to the rates during weekdays as we were only there for Friday &amp; Saturday nights.
+The property itself is clean and nice inside and outside.  The rooms had plenty of space, and still look brand new.  The beds are some of the best I've experienced in hotels, which is nice bonus when arriving at about 2:30 am.  Note to anyone who is allergic to feathers: the beds have a down comforter and a large collection of feather pillows (this applies to all Courtyard hotels now).  I requested a blanket &amp; synthetic pillows ahead of time to alleviate the allergies.  They were not there when we checked in, but the staff could not have been more helpful in...This Courtyard is clearly a business hotel, as it is in the middle of an office park.  However, that means there is not a lot going on over the weekend, and that is when I stayed, thanks to great weekend deals.  I was traveling for a 2-city in 4 days Southern California getaway with my mother, and this was our first stop.  We were planning to spend our time primarily in Laguna Beach, but this hotel was a much more affordable option than anything in Laguna Beach, and it only took 10-15 minutes to get there.  It is also not far from other local attractions, such as Disneyland, but at a more affordable cost, again due to the weekend deals.  I cannot speak to the rates during weekdays as we were only there for Friday &amp; Saturday nights.The property itself is clean and nice inside and outside.  The rooms had plenty of space, and still look brand new.  The beds are some of the best I've experienced in hotels, which is nice bonus when arriving at about 2:30 am.  Note to anyone who is allergic to feathers: the beds have a down comforter and a large collection of feather pillows (this applies to all Courtyard hotels now).  I requested a blanket &amp; synthetic pillows ahead of time to alleviate the allergies.  They were not there when we checked in, but the staff could not have been more helpful in resolving the situation in the middle of the night, so I could breathe easy.  I never expect perfection - how problems are solved and the level of customer service is always a telling point, and they passed this with flying colors.The breakfast is very tasty, including fruits, breakfast meats &amp; potatoes, as well as eggs.  although it is not a free breakfast if that is a priority.Our room had a small deck overlooking the pool area.  I believe this was a Marriott Rewards upgrade, but it was very nice to step outside and get a feel for the weather and enjoy the sunshine in the morning.The free high speed internet worked well, and I love the set-up of the rooms for business travelers, even if we were there for vacation.  There were not as many TV station options as I have seen in many other hotels recently, which was fine since we weren't there to watch TV, but as a former business traveler, I know I would like a few more choices if that was my reason for travel.  A small fridge was also included.  It is not fancy , and is not in a "vacation" location, but it is a quality place, as one would expect from a Courtyard, and provides accessibility to many locations in Orange County.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>This Courtyard is clearly a business hotel, as it is in the middle of an office park.  However, that means there is not a lot going on over the weekend, and that is when I stayed, thanks to great weekend deals.  I was traveling for a 2-city in 4 days Southern California getaway with my mother, and this was our first stop.  We were planning to spend our time primarily in Laguna Beach, but this hotel was a much more affordable option than anything in Laguna Beach, and it only took 10-15 minutes to get there.  It is also not far from other local attractions, such as Disneyland, but at a more affordable cost, again due to the weekend deals.  I cannot speak to the rates during weekdays as we were only there for Friday &amp; Saturday nights.
+The property itself is clean and nice inside and outside.  The rooms had plenty of space, and still look brand new.  The beds are some of the best I've experienced in hotels, which is nice bonus when arriving at about 2:30 am.  Note to anyone who is allergic to feathers: the beds have a down comforter and a large collection of feather pillows (this applies to all Courtyard hotels now).  I requested a blanket &amp; synthetic pillows ahead of time to alleviate the allergies.  They were not there when we checked in, but the staff could not have been more helpful in...This Courtyard is clearly a business hotel, as it is in the middle of an office park.  However, that means there is not a lot going on over the weekend, and that is when I stayed, thanks to great weekend deals.  I was traveling for a 2-city in 4 days Southern California getaway with my mother, and this was our first stop.  We were planning to spend our time primarily in Laguna Beach, but this hotel was a much more affordable option than anything in Laguna Beach, and it only took 10-15 minutes to get there.  It is also not far from other local attractions, such as Disneyland, but at a more affordable cost, again due to the weekend deals.  I cannot speak to the rates during weekdays as we were only there for Friday &amp; Saturday nights.The property itself is clean and nice inside and outside.  The rooms had plenty of space, and still look brand new.  The beds are some of the best I've experienced in hotels, which is nice bonus when arriving at about 2:30 am.  Note to anyone who is allergic to feathers: the beds have a down comforter and a large collection of feather pillows (this applies to all Courtyard hotels now).  I requested a blanket &amp; synthetic pillows ahead of time to alleviate the allergies.  They were not there when we checked in, but the staff could not have been more helpful in resolving the situation in the middle of the night, so I could breathe easy.  I never expect perfection - how problems are solved and the level of customer service is always a telling point, and they passed this with flying colors.The breakfast is very tasty, including fruits, breakfast meats &amp; potatoes, as well as eggs.  although it is not a free breakfast if that is a priority.Our room had a small deck overlooking the pool area.  I believe this was a Marriott Rewards upgrade, but it was very nice to step outside and get a feel for the weather and enjoy the sunshine in the morning.The free high speed internet worked well, and I love the set-up of the rooms for business travelers, even if we were there for vacation.  There were not as many TV station options as I have seen in many other hotels recently, which was fine since we weren't there to watch TV, but as a former business traveler, I know I would like a few more choices if that was my reason for travel.  A small fridge was also included.  It is not fancy , and is not in a "vacation" location, but it is a quality place, as one would expect from a Courtyard, and provides accessibility to many locations in Orange County.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r6817972-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>6817972</t>
+  </si>
+  <si>
+    <t>02/19/2007</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel in Orange County</t>
+  </si>
+  <si>
+    <t>I can’t say enough good things about this hotel.  It’s brand new, very clean, the staff is very helpful, the rooms are tastefully decorated, the beds are soft, and the view is great.  I really don’t know what more you could ask for.  Every time I go out to Orange County (4 or 5 times a year), I stay in this hotel.  The Foothills Ranch Courtyard probably the nicest Courtyard that Marriott has built to date.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3182,7241 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>180</v>
+      </c>
+      <c r="X19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>189</v>
+      </c>
+      <c r="X20" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>197</v>
+      </c>
+      <c r="X22" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>213</v>
+      </c>
+      <c r="X23" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>221</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X24" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>230</v>
+      </c>
+      <c r="X25" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>238</v>
+      </c>
+      <c r="X26" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" t="s">
+        <v>243</v>
+      </c>
+      <c r="K27" t="s">
+        <v>244</v>
+      </c>
+      <c r="L27" t="s">
+        <v>245</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>246</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>249</v>
+      </c>
+      <c r="J28" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>238</v>
+      </c>
+      <c r="X28" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" t="s">
+        <v>257</v>
+      </c>
+      <c r="L29" t="s">
+        <v>258</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>260</v>
+      </c>
+      <c r="X29" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K30" t="s">
+        <v>266</v>
+      </c>
+      <c r="L30" t="s">
+        <v>267</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>268</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>269</v>
+      </c>
+      <c r="X30" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>268</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>277</v>
+      </c>
+      <c r="X31" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>285</v>
+      </c>
+      <c r="O32" t="s">
+        <v>286</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>287</v>
+      </c>
+      <c r="X32" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>285</v>
+      </c>
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>295</v>
+      </c>
+      <c r="X33" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s">
+        <v>302</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>295</v>
+      </c>
+      <c r="X34" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s">
+        <v>308</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>259</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>295</v>
+      </c>
+      <c r="X35" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>311</v>
+      </c>
+      <c r="J36" t="s">
+        <v>312</v>
+      </c>
+      <c r="K36" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" t="s">
+        <v>314</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>295</v>
+      </c>
+      <c r="X36" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" t="s">
+        <v>318</v>
+      </c>
+      <c r="K37" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s">
+        <v>319</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>320</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>323</v>
+      </c>
+      <c r="J38" t="s">
+        <v>324</v>
+      </c>
+      <c r="K38" t="s">
+        <v>325</v>
+      </c>
+      <c r="L38" t="s">
+        <v>326</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>327</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>327</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>334</v>
+      </c>
+      <c r="J40" t="s">
+        <v>335</v>
+      </c>
+      <c r="K40" t="s">
+        <v>336</v>
+      </c>
+      <c r="L40" t="s">
+        <v>337</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>327</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>344</v>
+      </c>
+      <c r="X41" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>343</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>344</v>
+      </c>
+      <c r="X42" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>353</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>354</v>
+      </c>
+      <c r="J43" t="s">
+        <v>355</v>
+      </c>
+      <c r="K43" t="s">
+        <v>356</v>
+      </c>
+      <c r="L43" t="s">
+        <v>357</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>344</v>
+      </c>
+      <c r="X43" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>359</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>360</v>
+      </c>
+      <c r="J44" t="s">
+        <v>361</v>
+      </c>
+      <c r="K44" t="s">
+        <v>362</v>
+      </c>
+      <c r="L44" t="s">
+        <v>363</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>343</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>364</v>
+      </c>
+      <c r="X44" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>372</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X45" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>376</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>377</v>
+      </c>
+      <c r="J46" t="s">
+        <v>378</v>
+      </c>
+      <c r="K46" t="s">
+        <v>379</v>
+      </c>
+      <c r="L46" t="s">
+        <v>380</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>381</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>382</v>
+      </c>
+      <c r="X46" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>385</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" t="s">
+        <v>387</v>
+      </c>
+      <c r="K47" t="s">
+        <v>388</v>
+      </c>
+      <c r="L47" t="s">
+        <v>389</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>390</v>
+      </c>
+      <c r="X47" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>393</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>394</v>
+      </c>
+      <c r="J48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K48" t="s">
+        <v>396</v>
+      </c>
+      <c r="L48" t="s">
+        <v>397</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>398</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>399</v>
+      </c>
+      <c r="X48" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J49" t="s">
+        <v>404</v>
+      </c>
+      <c r="K49" t="s">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>407</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>390</v>
+      </c>
+      <c r="X49" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>409</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>410</v>
+      </c>
+      <c r="J50" t="s">
+        <v>411</v>
+      </c>
+      <c r="K50" t="s">
+        <v>412</v>
+      </c>
+      <c r="L50" t="s">
+        <v>413</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>414</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>415</v>
+      </c>
+      <c r="X50" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>418</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>419</v>
+      </c>
+      <c r="J51" t="s">
+        <v>420</v>
+      </c>
+      <c r="K51" t="s">
+        <v>421</v>
+      </c>
+      <c r="L51" t="s">
+        <v>422</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>414</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>423</v>
+      </c>
+      <c r="X51" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>426</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>427</v>
+      </c>
+      <c r="J52" t="s">
+        <v>428</v>
+      </c>
+      <c r="K52" t="s">
+        <v>429</v>
+      </c>
+      <c r="L52" t="s">
+        <v>430</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>414</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>431</v>
+      </c>
+      <c r="X52" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>434</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>435</v>
+      </c>
+      <c r="J53" t="s">
+        <v>436</v>
+      </c>
+      <c r="K53" t="s">
+        <v>437</v>
+      </c>
+      <c r="L53" t="s">
+        <v>438</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>439</v>
+      </c>
+      <c r="O53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>440</v>
+      </c>
+      <c r="X53" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>443</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>444</v>
+      </c>
+      <c r="J54" t="s">
+        <v>445</v>
+      </c>
+      <c r="K54" t="s">
+        <v>446</v>
+      </c>
+      <c r="L54" t="s">
+        <v>447</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>439</v>
+      </c>
+      <c r="O54" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>448</v>
+      </c>
+      <c r="X54" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>451</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>452</v>
+      </c>
+      <c r="J55" t="s">
+        <v>453</v>
+      </c>
+      <c r="K55" t="s">
+        <v>454</v>
+      </c>
+      <c r="L55" t="s">
+        <v>455</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>439</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>456</v>
+      </c>
+      <c r="X55" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>459</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>460</v>
+      </c>
+      <c r="J56" t="s">
+        <v>461</v>
+      </c>
+      <c r="K56" t="s">
+        <v>462</v>
+      </c>
+      <c r="L56" t="s">
+        <v>463</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>464</v>
+      </c>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>465</v>
+      </c>
+      <c r="X56" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>468</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>469</v>
+      </c>
+      <c r="J57" t="s">
+        <v>470</v>
+      </c>
+      <c r="K57" t="s">
+        <v>471</v>
+      </c>
+      <c r="L57" t="s">
+        <v>472</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>464</v>
+      </c>
+      <c r="O57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>473</v>
+      </c>
+      <c r="X57" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>476</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>477</v>
+      </c>
+      <c r="J58" t="s">
+        <v>478</v>
+      </c>
+      <c r="K58" t="s">
+        <v>479</v>
+      </c>
+      <c r="L58" t="s">
+        <v>480</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>464</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>481</v>
+      </c>
+      <c r="X58" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>483</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>484</v>
+      </c>
+      <c r="J59" t="s">
+        <v>485</v>
+      </c>
+      <c r="K59" t="s">
+        <v>486</v>
+      </c>
+      <c r="L59" t="s">
+        <v>487</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>464</v>
+      </c>
+      <c r="O59" t="s">
+        <v>79</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>488</v>
+      </c>
+      <c r="X59" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>491</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>492</v>
+      </c>
+      <c r="J60" t="s">
+        <v>493</v>
+      </c>
+      <c r="K60" t="s">
+        <v>494</v>
+      </c>
+      <c r="L60" t="s">
+        <v>495</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>464</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>496</v>
+      </c>
+      <c r="X60" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>498</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>499</v>
+      </c>
+      <c r="J61" t="s">
+        <v>500</v>
+      </c>
+      <c r="K61" t="s">
+        <v>501</v>
+      </c>
+      <c r="L61" t="s">
+        <v>502</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>464</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>503</v>
+      </c>
+      <c r="X61" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>506</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>507</v>
+      </c>
+      <c r="J62" t="s">
+        <v>508</v>
+      </c>
+      <c r="K62" t="s">
+        <v>509</v>
+      </c>
+      <c r="L62" t="s">
+        <v>510</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>511</v>
+      </c>
+      <c r="O62" t="s">
+        <v>79</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>512</v>
+      </c>
+      <c r="X62" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>515</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J63" t="s">
+        <v>517</v>
+      </c>
+      <c r="K63" t="s">
+        <v>518</v>
+      </c>
+      <c r="L63" t="s">
+        <v>519</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>511</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>520</v>
+      </c>
+      <c r="X63" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>523</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>524</v>
+      </c>
+      <c r="J64" t="s">
+        <v>525</v>
+      </c>
+      <c r="K64" t="s">
+        <v>526</v>
+      </c>
+      <c r="L64" t="s">
+        <v>527</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>520</v>
+      </c>
+      <c r="X64" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>529</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>530</v>
+      </c>
+      <c r="J65" t="s">
+        <v>531</v>
+      </c>
+      <c r="K65" t="s">
+        <v>532</v>
+      </c>
+      <c r="L65" t="s">
+        <v>533</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>534</v>
+      </c>
+      <c r="O65" t="s">
+        <v>72</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>535</v>
+      </c>
+      <c r="X65" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>538</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>539</v>
+      </c>
+      <c r="J66" t="s">
+        <v>540</v>
+      </c>
+      <c r="K66" t="s">
+        <v>541</v>
+      </c>
+      <c r="L66" t="s">
+        <v>542</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>534</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>543</v>
+      </c>
+      <c r="X66" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>546</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>547</v>
+      </c>
+      <c r="J67" t="s">
+        <v>548</v>
+      </c>
+      <c r="K67" t="s">
+        <v>549</v>
+      </c>
+      <c r="L67" t="s">
+        <v>550</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>551</v>
+      </c>
+      <c r="O67" t="s">
+        <v>72</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>552</v>
+      </c>
+      <c r="X67" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>555</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>556</v>
+      </c>
+      <c r="J68" t="s">
+        <v>557</v>
+      </c>
+      <c r="K68" t="s">
+        <v>558</v>
+      </c>
+      <c r="L68" t="s">
+        <v>559</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>560</v>
+      </c>
+      <c r="O68" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>561</v>
+      </c>
+      <c r="X68" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>564</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>565</v>
+      </c>
+      <c r="J69" t="s">
+        <v>566</v>
+      </c>
+      <c r="K69" t="s">
+        <v>567</v>
+      </c>
+      <c r="L69" t="s">
+        <v>568</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>569</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>570</v>
+      </c>
+      <c r="X69" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>573</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>574</v>
+      </c>
+      <c r="J70" t="s">
+        <v>575</v>
+      </c>
+      <c r="K70" t="s">
+        <v>576</v>
+      </c>
+      <c r="L70" t="s">
+        <v>577</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>578</v>
+      </c>
+      <c r="O70" t="s">
+        <v>72</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>579</v>
+      </c>
+      <c r="X70" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>582</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>583</v>
+      </c>
+      <c r="J71" t="s">
+        <v>584</v>
+      </c>
+      <c r="K71" t="s">
+        <v>585</v>
+      </c>
+      <c r="L71" t="s">
+        <v>586</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>587</v>
+      </c>
+      <c r="O71" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>588</v>
+      </c>
+      <c r="X71" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>591</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>592</v>
+      </c>
+      <c r="J72" t="s">
+        <v>593</v>
+      </c>
+      <c r="K72" t="s">
+        <v>594</v>
+      </c>
+      <c r="L72" t="s">
+        <v>595</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>596</v>
+      </c>
+      <c r="O72" t="s">
+        <v>72</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>597</v>
+      </c>
+      <c r="X72" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>600</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>601</v>
+      </c>
+      <c r="J73" t="s">
+        <v>602</v>
+      </c>
+      <c r="K73" t="s">
+        <v>603</v>
+      </c>
+      <c r="L73" t="s">
+        <v>604</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>578</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>597</v>
+      </c>
+      <c r="X73" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>606</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>607</v>
+      </c>
+      <c r="J74" t="s">
+        <v>608</v>
+      </c>
+      <c r="K74" t="s">
+        <v>609</v>
+      </c>
+      <c r="L74" t="s">
+        <v>610</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>578</v>
+      </c>
+      <c r="O74" t="s">
+        <v>72</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>611</v>
+      </c>
+      <c r="X74" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>614</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>615</v>
+      </c>
+      <c r="J75" t="s">
+        <v>616</v>
+      </c>
+      <c r="K75" t="s">
+        <v>617</v>
+      </c>
+      <c r="L75" t="s">
+        <v>618</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>619</v>
+      </c>
+      <c r="X75" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>622</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>623</v>
+      </c>
+      <c r="J76" t="s">
+        <v>624</v>
+      </c>
+      <c r="K76" t="s">
+        <v>625</v>
+      </c>
+      <c r="L76" t="s">
+        <v>626</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>627</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>628</v>
+      </c>
+      <c r="X76" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>631</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>632</v>
+      </c>
+      <c r="J77" t="s">
+        <v>633</v>
+      </c>
+      <c r="K77" t="s">
+        <v>634</v>
+      </c>
+      <c r="L77" t="s">
+        <v>635</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>627</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>628</v>
+      </c>
+      <c r="X77" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>637</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>638</v>
+      </c>
+      <c r="J78" t="s">
+        <v>633</v>
+      </c>
+      <c r="K78" t="s">
+        <v>639</v>
+      </c>
+      <c r="L78" t="s">
+        <v>640</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>641</v>
+      </c>
+      <c r="O78" t="s">
+        <v>79</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>642</v>
+      </c>
+      <c r="X78" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>645</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>646</v>
+      </c>
+      <c r="J79" t="s">
+        <v>633</v>
+      </c>
+      <c r="K79" t="s">
+        <v>647</v>
+      </c>
+      <c r="L79" t="s">
+        <v>648</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>649</v>
+      </c>
+      <c r="O79" t="s">
+        <v>79</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>642</v>
+      </c>
+      <c r="X79" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>651</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>652</v>
+      </c>
+      <c r="J80" t="s">
+        <v>653</v>
+      </c>
+      <c r="K80" t="s">
+        <v>654</v>
+      </c>
+      <c r="L80" t="s">
+        <v>655</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>649</v>
+      </c>
+      <c r="O80" t="s">
+        <v>72</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>656</v>
+      </c>
+      <c r="X80" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>659</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>660</v>
+      </c>
+      <c r="J81" t="s">
+        <v>661</v>
+      </c>
+      <c r="K81" t="s">
+        <v>662</v>
+      </c>
+      <c r="L81" t="s">
+        <v>663</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>664</v>
+      </c>
+      <c r="O81" t="s">
+        <v>72</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>656</v>
+      </c>
+      <c r="X81" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>666</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>667</v>
+      </c>
+      <c r="J82" t="s">
+        <v>668</v>
+      </c>
+      <c r="K82" t="s">
+        <v>669</v>
+      </c>
+      <c r="L82" t="s">
+        <v>670</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>671</v>
+      </c>
+      <c r="O82" t="s">
+        <v>72</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>672</v>
+      </c>
+      <c r="X82" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>675</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>676</v>
+      </c>
+      <c r="J83" t="s">
+        <v>677</v>
+      </c>
+      <c r="K83" t="s">
+        <v>678</v>
+      </c>
+      <c r="L83" t="s">
+        <v>679</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>680</v>
+      </c>
+      <c r="O83" t="s">
+        <v>79</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>681</v>
+      </c>
+      <c r="X83" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>684</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>685</v>
+      </c>
+      <c r="J84" t="s">
+        <v>686</v>
+      </c>
+      <c r="K84" t="s">
+        <v>687</v>
+      </c>
+      <c r="L84" t="s">
+        <v>688</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>689</v>
+      </c>
+      <c r="O84" t="s">
+        <v>79</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>690</v>
+      </c>
+      <c r="X84" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>693</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>694</v>
+      </c>
+      <c r="J85" t="s">
+        <v>695</v>
+      </c>
+      <c r="K85" t="s">
+        <v>696</v>
+      </c>
+      <c r="L85" t="s">
+        <v>697</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>698</v>
+      </c>
+      <c r="O85" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>690</v>
+      </c>
+      <c r="X85" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>700</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>701</v>
+      </c>
+      <c r="J86" t="s">
+        <v>702</v>
+      </c>
+      <c r="K86" t="s">
+        <v>703</v>
+      </c>
+      <c r="L86" t="s">
+        <v>704</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>705</v>
+      </c>
+      <c r="O86" t="s">
+        <v>72</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>707</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>708</v>
+      </c>
+      <c r="J87" t="s">
+        <v>709</v>
+      </c>
+      <c r="K87" t="s">
+        <v>710</v>
+      </c>
+      <c r="L87" t="s">
+        <v>711</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>712</v>
+      </c>
+      <c r="O87" t="s">
+        <v>72</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>713</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>714</v>
+      </c>
+      <c r="J88" t="s">
+        <v>715</v>
+      </c>
+      <c r="K88" t="s">
+        <v>716</v>
+      </c>
+      <c r="L88" t="s">
+        <v>717</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>712</v>
+      </c>
+      <c r="O88" t="s">
+        <v>79</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>719</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>720</v>
+      </c>
+      <c r="J89" t="s">
+        <v>721</v>
+      </c>
+      <c r="K89" t="s">
+        <v>722</v>
+      </c>
+      <c r="L89" t="s">
+        <v>723</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>712</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>724</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>725</v>
+      </c>
+      <c r="J90" t="s">
+        <v>726</v>
+      </c>
+      <c r="K90" t="s">
+        <v>727</v>
+      </c>
+      <c r="L90" t="s">
+        <v>728</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>712</v>
+      </c>
+      <c r="O90" t="s">
+        <v>72</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>729</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>730</v>
+      </c>
+      <c r="J91" t="s">
+        <v>731</v>
+      </c>
+      <c r="K91" t="s">
+        <v>732</v>
+      </c>
+      <c r="L91" t="s">
+        <v>733</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>734</v>
+      </c>
+      <c r="O91" t="s">
+        <v>79</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>736</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>737</v>
+      </c>
+      <c r="J92" t="s">
+        <v>738</v>
+      </c>
+      <c r="K92" t="s">
+        <v>739</v>
+      </c>
+      <c r="L92" t="s">
+        <v>740</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>741</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>742</v>
+      </c>
+      <c r="J93" t="s">
+        <v>743</v>
+      </c>
+      <c r="K93" t="s">
+        <v>744</v>
+      </c>
+      <c r="L93" t="s">
+        <v>745</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>746</v>
+      </c>
+      <c r="O93" t="s">
+        <v>72</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>747</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>748</v>
+      </c>
+      <c r="J94" t="s">
+        <v>749</v>
+      </c>
+      <c r="K94" t="s">
+        <v>750</v>
+      </c>
+      <c r="L94" t="s">
+        <v>751</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>746</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>752</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>753</v>
+      </c>
+      <c r="J95" t="s">
+        <v>754</v>
+      </c>
+      <c r="K95" t="s">
+        <v>755</v>
+      </c>
+      <c r="L95" t="s">
+        <v>756</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>757</v>
+      </c>
+      <c r="O95" t="s">
+        <v>63</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>758</v>
+      </c>
+      <c r="X95" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>761</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>762</v>
+      </c>
+      <c r="J96" t="s">
+        <v>763</v>
+      </c>
+      <c r="K96" t="s">
+        <v>764</v>
+      </c>
+      <c r="L96" t="s">
+        <v>765</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>766</v>
+      </c>
+      <c r="O96" t="s">
+        <v>72</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>767</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>768</v>
+      </c>
+      <c r="J97" t="s">
+        <v>769</v>
+      </c>
+      <c r="K97" t="s">
+        <v>770</v>
+      </c>
+      <c r="L97" t="s">
+        <v>771</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>772</v>
+      </c>
+      <c r="O97" t="s">
+        <v>72</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>773</v>
+      </c>
+      <c r="X97" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>776</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>777</v>
+      </c>
+      <c r="J98" t="s">
+        <v>778</v>
+      </c>
+      <c r="K98" t="s">
+        <v>779</v>
+      </c>
+      <c r="L98" t="s">
+        <v>780</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>781</v>
+      </c>
+      <c r="O98" t="s">
+        <v>79</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>782</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>783</v>
+      </c>
+      <c r="J99" t="s">
+        <v>784</v>
+      </c>
+      <c r="K99" t="s">
+        <v>785</v>
+      </c>
+      <c r="L99" t="s">
+        <v>786</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>787</v>
+      </c>
+      <c r="O99" t="s">
+        <v>72</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>789</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>790</v>
+      </c>
+      <c r="J100" t="s">
+        <v>791</v>
+      </c>
+      <c r="K100" t="s">
+        <v>792</v>
+      </c>
+      <c r="L100" t="s">
+        <v>793</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>787</v>
+      </c>
+      <c r="O100" t="s">
+        <v>63</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>794</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>795</v>
+      </c>
+      <c r="J101" t="s">
+        <v>796</v>
+      </c>
+      <c r="K101" t="s">
+        <v>797</v>
+      </c>
+      <c r="L101" t="s">
+        <v>798</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>799</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>800</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>801</v>
+      </c>
+      <c r="J102" t="s">
+        <v>802</v>
+      </c>
+      <c r="K102" t="s">
+        <v>803</v>
+      </c>
+      <c r="L102" t="s">
+        <v>804</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>805</v>
+      </c>
+      <c r="O102" t="s">
+        <v>79</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>806</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>807</v>
+      </c>
+      <c r="J103" t="s">
+        <v>808</v>
+      </c>
+      <c r="K103" t="s">
+        <v>809</v>
+      </c>
+      <c r="L103" t="s">
+        <v>810</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>799</v>
+      </c>
+      <c r="O103" t="s">
+        <v>79</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>812</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>813</v>
+      </c>
+      <c r="J104" t="s">
+        <v>814</v>
+      </c>
+      <c r="K104" t="s">
+        <v>815</v>
+      </c>
+      <c r="L104" t="s">
+        <v>816</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>817</v>
+      </c>
+      <c r="O104" t="s">
+        <v>72</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>819</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>820</v>
+      </c>
+      <c r="J105" t="s">
+        <v>821</v>
+      </c>
+      <c r="K105" t="s">
+        <v>822</v>
+      </c>
+      <c r="L105" t="s">
+        <v>823</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>817</v>
+      </c>
+      <c r="O105" t="s">
+        <v>79</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>824</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>825</v>
+      </c>
+      <c r="J106" t="s">
+        <v>826</v>
+      </c>
+      <c r="K106" t="s">
+        <v>827</v>
+      </c>
+      <c r="L106" t="s">
+        <v>828</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>829</v>
+      </c>
+      <c r="O106" t="s">
+        <v>79</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>830</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>831</v>
+      </c>
+      <c r="J107" t="s">
+        <v>832</v>
+      </c>
+      <c r="K107" t="s">
+        <v>833</v>
+      </c>
+      <c r="L107" t="s">
+        <v>834</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>835</v>
+      </c>
+      <c r="O107" t="s">
+        <v>72</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>837</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>838</v>
+      </c>
+      <c r="J108" t="s">
+        <v>839</v>
+      </c>
+      <c r="K108" t="s">
+        <v>840</v>
+      </c>
+      <c r="L108" t="s">
+        <v>841</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>842</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>843</v>
+      </c>
+      <c r="J109" t="s">
+        <v>844</v>
+      </c>
+      <c r="K109" t="s">
+        <v>845</v>
+      </c>
+      <c r="L109" t="s">
+        <v>846</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s">
+        <v>847</v>
+      </c>
+      <c r="O109" t="s">
+        <v>72</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>849</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>850</v>
+      </c>
+      <c r="J110" t="s">
+        <v>851</v>
+      </c>
+      <c r="K110" t="s">
+        <v>852</v>
+      </c>
+      <c r="L110" t="s">
+        <v>853</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="s">
+        <v>854</v>
+      </c>
+      <c r="O110" t="s">
+        <v>72</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>3</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>856</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>857</v>
+      </c>
+      <c r="J111" t="s">
+        <v>858</v>
+      </c>
+      <c r="K111" t="s">
+        <v>859</v>
+      </c>
+      <c r="L111" t="s">
+        <v>860</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>861</v>
+      </c>
+      <c r="O111" t="s">
+        <v>79</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>52190</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>863</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>864</v>
+      </c>
+      <c r="J112" t="s">
+        <v>865</v>
+      </c>
+      <c r="K112" t="s">
+        <v>866</v>
+      </c>
+      <c r="L112" t="s">
+        <v>867</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>867</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_145.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_145.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="977">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>MAK2123</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This is a really quite area to stay. A great suburb and very modern. A bit like a commercial or business park layout. You need a car but I would recommend this area if you like your LA stay a little quitter.The hotel is really nice. A great open foyer/eating area/bar. The rooms are huge and the staff are so friendly. Easy free parking. We did experience an issue with the room but it was promptly managed by Leith at the front desk and he was really helpful, professional and apologetic. As a nice gesture he offered us a complimentary breakfast in the morning which for which we were very appreciative.The breakfast was served by Aaron and he too was so nice to chat too. It's nice to see some hotels in LA still have wonderful staff representing their brands so well as evidenced by Leith and Aaron.More</t>
   </si>
   <si>
+    <t>464staceyt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r553797316-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>This is my second stay at this hotel and there's a reason I keep going back. The hotel is modern, the rooms are clean and spacious and the service is excellent .The hotel staff are friendly, housekeeping does a great job and the restaurant has fast efficient service. The only problem I have with Marriott Courtyard Hotels is they don't have room safes. I don't understand why they don't. They do have a safe, you can leave things with reception, but a room safe would make it nicer or those o us who travel with laptops etc.I didn't use the pool this time, but it's nice and clean.I'll stay here again next time I visit the relatives.More</t>
   </si>
   <si>
+    <t>GramsB487</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r548483932-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>David Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r530569921-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>luvtravlin53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r524702079-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -283,6 +298,9 @@
   </si>
   <si>
     <t>Not a great experience. Seems like everything is in need of service or fixing. The place smells moldy and musty and I must keep the window open to get the smell out. The entire hotel is that way. I wonder when they lasted had the AC system serviced. The ice machine has been broken for 2 weeks. The elevator broke. The TV in the lobby didn't work (or they lost the controls). Maid service is awful, constantly adjusting the temps and randomly leaving coffee. the cable freezes every night, you can't get the channel in your room that they get in the lobby because they want you to sit in the freezing cold lobby and purchase their over priced food and beverages. The staff is very nice, but constantly apologizing for things they have no control over. My credit card was hacked. I told the desk and spent an hour on the phone with Marriott customer care and they punted it back to the facility. Definitely not good for a long term stay. The cable situation is the most annoying thing because the channels are limited and the rest are frozen. I asked for a quite room and was placed back by the toll road!More</t>
+  </si>
+  <si>
+    <t>Jay B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r518793816-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
@@ -318,6 +336,9 @@
 But one of the best features of the location...This is a really nice hotel in a very convenient spot.  The rooms are big and the furnishings are nice.  I had a king balcony on the third floor over looking the pool area.The bed was very comfortable and had a pair of bolsters behind the pillows.  They made laying in bed watching tv very comfortable.  Speaking of the tv, it was larger than most (guessing 50") with a great picture for the HD channels.  Pretty sure it's a satellite feed, because several on the network channels were a bit snowy.The bathroom was nice and bright, but the lights are on a motion sensor.  Spend too long in the shower with just the sink lighting on and it will go dark.  Shower amenities were great, Paul Mitchel shampoo and conditioner.The lobby is nice and includes what looked to be a very convenient restaurant, but I didn't eat there.  The hall corridors were also well done and everything looked new (a weird comment I know, but I've been in lots of places where the halls are dirty and ugly).The room also had great power outlets including USB plugs on both lamps on either side of the bed.  Lamp at the desk also had two outlets if memory serves.The plaza includes several restaurants and coffee shops.  I went to the Thai Garden, Urban Grill, Sunrise Bagel and Starbucks.But one of the best features of the location is access to the Whiting Ranch Wilderness Area and the Serrano Trail.  Cross the parking lot, and it's right there.  Head toward the right, cross under the Foothills Parkway and follow the trail up Dreaded Hill.  If you can run all the way to the top, you're a stud.  The grade gets pretty steep, so I walked the last bit, but what a view.  Go to the left and you'll have miles of flatness that weave through the local communities.More</t>
   </si>
   <si>
+    <t>RFk900</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r507231009-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>MegailnSonja</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r499009419-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>Clean hotel - the lobby, hotel &amp; rooms were nice and clean.  The bed was comfortable, although the pillows were way to soft and we ended up going to Walmart to buy firm pillows (they had foam &amp; feather but both were too soft for us).  The AC worked GREAT!  We had a room on the 2nd floor facing the pool, it got a little loud at night with the kids in the pool, but once we closed the patio door and turned on the tv, it was fine.  The bathroom was clean too, no issues.  We did order breakfast from the Bistro downstairs, everything was delicious (a bit pricey but right in line for room service).  Has many things nearby - restaurants, movie theatre, stores, gas stations.. so location was great.  It was on the tollway so we had to pretty much pay for the tollway (through our rental) anytime we wanted to go anywhere, but other than that, great locations!  Would stay again!More</t>
   </si>
   <si>
+    <t>travellistics</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r496571286-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Ladybuggin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r491602531-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -390,6 +420,9 @@
     <t>I was in Foothill Ranch on business.  My employer booked and paid for my room at the Courtyard for a 2- night (Sunday/Monday) stay.  My room was clean and very comfortable.  The bed was awesome, the pillows were great.  I loved the wedge pillows against the wall acting as a headboard.  I had everything I needed - free WiFi, shampoo, coffee maker.  I would stay there again.</t>
   </si>
   <si>
+    <t>Gingy Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r484755655-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -414,6 +447,9 @@
     <t>We recently stayed at this hotel for 5 nights while in Orange County, CA. We were there to visit my mother who was very ill. She passed away as we arrived in CA; we stayed here while making plans for her funeral.  The staff was friendly, the room very comfortable and the hotel is relatively new.  There is a bistro so we could get breakfast, or dinner when we were too tired to go out.  The location is good.  It's a business hotel so the rates are slightly higher Sunday through Thursday, $126 a night vs $123.  We needed to extend our stay one more night  (a Monday) and were told we could do so, even though they were technically sold out. We were not told there would be an increase in cost for the extra night. (We assumed we would pay the $126 for a business night as we had for the previous Thursday) We were disappointed to learn at check out that we had been charged $200+ for the fifth night of our stay.  When we asked why, we were told it was because they were "sold out" and the fewer rooms available, the higher the price.  Really!! Somehow that didn't make sense, especially since we had been there for four nights already!  Disappointing.More</t>
   </si>
   <si>
+    <t>Bill H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r480901927-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -432,6 +468,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>599allank</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r466349074-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -459,6 +498,9 @@
     <t>Used my Marriott Rewards for a one night stay at this lovely location.  This hotel located off the toll road, is situated near many restaurants and gyms.  The hotel is a newer courtyard, quiet and very comfortable.  I used the mobile check-in for early arrival and my room was waiting upon my arrival.  It's a lively hotel and I highly recommend this place.More</t>
   </si>
   <si>
+    <t>SDmommy76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r451889530-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -484,6 +526,9 @@
   </si>
   <si>
     <t>We were only in the hotel for one night however it was very comfortable, affordable and had modern decor and furnishings. The beds were super comfortable and shower pressure was just right.  The staff was genuinely friendly and helpful. We had a few drinks at the bar before heading out for the night and was surprised by the selection of drinks available. I had a spicy margarita that was delicious and the server even offered to make me something different if I didn't like it.  We needed an uber for our night out and found one easily in the neighborhood.  Overall a great experience that I'd definitely recommend. More</t>
+  </si>
+  <si>
+    <t>Maikai_hoaloha</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r449624513-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
@@ -519,6 +564,9 @@
 However, if you're going to travel North you'll need to use route 241 / 133. Turns out these are toll roads. Yet there is no immediate way for you to pay your toll if you do not have the local fast pass option. Instead of a toll plaza they photograph your license plate and you must go online to pay your toll. You have no idea how much the toll is while you're passing. For a regular passenger vehicle traveling from the hotel to Interstate 5 North it turned out to...Overall, a nice property. I got a good rate. Rooms were clean. Blackout curtains were awesome. Amenities included in-room coffee, decent shampoo and conditioner. My room had a working TV and refrigerator. However, my brother's room was missing the refrigerator and the TV did not work properly. Had my brother's room not had these problems I would have given the property a rating of 4 instead of 3. Desk staff was polite. They offered to comp him a breakfast for the inconvenience.We did not use the pool, however another family told us that it was heated. There is a small restaurant on the property, again we did not use this feature.Surrounding area allows good access to restaurants and shopping. There is a Round Table Pizza and a Thai restaurant in the same complex. Within a 2-mile radius you'll have almost every retail and restaurant option you want.However, if you're going to travel North you'll need to use route 241 / 133. Turns out these are toll roads. Yet there is no immediate way for you to pay your toll if you do not have the local fast pass option. Instead of a toll plaza they photograph your license plate and you must go online to pay your toll. You have no idea how much the toll is while you're passing. For a regular passenger vehicle traveling from the hotel to Interstate 5 North it turned out to be $3.70 each way. So be prepared to add an extra $7 to $8 a day in additional taxes that you give Orange County. Add to that when you go on their website you have to enter in your entry point, exit point and date of travel. If you use the unknown option they will charge you the maximum amount. I found this to be incredibly annoying and may alter weather I choose to stay at this hotel in the future.More</t>
   </si>
   <si>
+    <t>Chad L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r440947686-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -537,6 +585,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>colandre73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r431386499-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -561,6 +612,9 @@
     <t>Staying two weeks per month in a dirty hotel should be enough... but if it is very next to the office you can force yourself.But if you are hungry and "the Bistro" (what a wasted French name for using the microwave!!!) should be open looking at the timetable... but emplyee is too lazy and rude for preparing a salad... it is time to change.More</t>
   </si>
   <si>
+    <t>Nicola Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r423977899-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -585,6 +639,9 @@
     <t>I use to sleep here when I'm on a business trip around here.They charge me 130$ per night for having an average room with a small neon light bathroom and a long but narrow double queen side bed. There's no other view than factories and a toll road.I would definitely pick something else if it was not so close to where I work at.More</t>
   </si>
   <si>
+    <t>Jasbo55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r418568937-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -612,6 +669,9 @@
     <t>This was the third year in a row that we stayed at this hotel next to Saddleback Church.  I was very happy that the desk was able to accommodate my first floor room request since I hurt my knee a week prior to staying here.  The hotel also put in a Starbucks Coffee in the lobby this year! The room is just right for my wife and I.  The bathroom was very clean and it had a beautiful counter and shower tub.  The small couch was very comfortable to sit and watch the Olympics on.  Very quick access to Saddleback Church, you could easily walk over if you want to.More</t>
   </si>
   <si>
+    <t>newlifers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r416520134-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -636,6 +696,9 @@
     <t>The hotel is beautiful however the room we reserved and booked was not available to us.  We had 4 adults booked in a double queen room and we were given a single King bed for all four of us.  The staff would absolutely not give us the room we booked and it wasn't until after we begged the manager to give us our room that the staff finally conceded.  We were told by the front desk staff member that because we had a silver member reward card that we would get free internet and once we got back home found a charge on my credit card for $24.75 for internet charges.  When I called to ask about the charges I was told only gold and platinum members get free internet.  I'm very disappointed that the staff was not knowledgeable of policy and misinformed us.More</t>
   </si>
   <si>
+    <t>Hansen5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r415963751-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -657,6 +720,9 @@
     <t>We were very comfortable, front desk upgraded our room when we arrived late and tired.  Easy drive to Laguna beach without paying beach prices.  Highly recommend as clean, comfy, safe and friendly!  We also enjoyed the pool and spa.  Many good restaurants nearby!More</t>
   </si>
   <si>
+    <t>Cypressman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r390262071-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -684,6 +750,9 @@
     <t>This hotel was perfect. It was down the street from numerous restaurant although the Denny's was terrible, the Bistro would have been much better....don't know what I was thinking when I chose the later.  The room was very clean, lobby was excellent and the area was perfect.  Not too far from OC's attractions and within a quick jump to the 241 toll for travels to the Inland EmpireMore</t>
   </si>
   <si>
+    <t>Amy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r389572558-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -711,6 +780,9 @@
     <t>Super clean and spacious room, super comfy bed, great hot shower with good water pressure. Above average friendly staff and delicious coffee and breakfast. The hotel and staff were so kind and accommodating to our motorcycle crew. We enjoyed it so much we stayed an extra night!More</t>
   </si>
   <si>
+    <t>nickiwms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r387638161-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -735,6 +807,9 @@
     <t>Stayed there for 2 night last week and had a great time for a family wedding.  Took advantage of the workout center, pool and lobby for big family gatherings.  The common areas were really nice and the staff were helpful with everything we needed.Room was renovated and suited all our needs. We had a king room with a pull out single couch.  Perfect for our family of 3.  Desk chair was also very comfy and there was free wifi for marriott rewards people..sign up if you haven't already.  Free parking and within 5 minutes of target, dennys, chickfila and other fast food.    If you go for a run, find the trail off the main entrance of Portola.  There was tons of trails that have you weaving around and hanging with local and the tourists decked out in full hiking gear.More</t>
   </si>
   <si>
+    <t>wjoiner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r381770057-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -759,6 +834,9 @@
     <t>I found this property great. First off, it is newer, clean, quiet and a friendly staff.  The location was good for a business trip for me, but the bonus was a trail system just a block from the front door. The trails are wide, well cared for, quiet and challenging. I was on them as soon as the sun arose and barely saw a soul, but by the end a few mountain bikers , runners and walkers were arriving.More</t>
   </si>
   <si>
+    <t>JuFrida</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r374222618-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -780,6 +858,9 @@
     <t>Not knowing the area, I found it on a whim.  Since Rancho Santa Margarita is a more high-end housing area, I drove for more than a few miles around the church where I was to attend a memorial service looking for a place to stay.  There it was, a grand hotel perched on a hill and waiting for me.  Upon arrival, I was greeted warmly, even without a reservation.  Check-in was easy; instantly I was entering a very clean, upgraded room.  All the amenities were present for a very comfortable stay.  I really appreciated the calm lobby with a fireplace and a fully stocked cafeteria, including Starbuck's coffee!  I didn't need to leave the hotel to eat a healthy dinner and breakfast.  It was the perfect last minute oasis.More</t>
   </si>
   <si>
+    <t>Rebecca A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r373911825-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -798,6 +879,9 @@
     <t>Bed was super comfy and the balcony was worth it to enjoy my morning coffee. The couch was also comfy and cute. Staff was extremely friendly and the room was clean and with great lighting to get ready. It also was nearby to everything which is great.More</t>
   </si>
   <si>
+    <t>Nick N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r344559189-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -825,6 +909,9 @@
     <t>Lake Forest, California definitely isn't a tourist destination but if you're there on business (like I frequently am) the Courtyard Mariott is a good choice.I was there for 3 nights on business. Here are some pros and cons I noticed during my stay.PROS-free WiFi-friendly staff-nice bar/restaurant area-decent sized rooms that are comfortable-smaller gym but had everything I needed (treadmill)-have an outdoor pool (although, I didn't use it)-good business meeting rooms-snack bar at front desk for late night snacksCONS-not much walking distance in the area. Just a small appie bar and a fast food restaurantMore</t>
   </si>
   <si>
+    <t>matsmd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r343688564-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -852,6 +939,9 @@
     <t>Not bad but really nothing to brag about. The rooms were clean and the staff was friendly but a lot of minor details were annoying. When checking in the TV didn't work and the shower was very difficult to get to a comfortable temperature, it varied between too cold to too hot. I'm a Marriott Gold member and this is the only Marriott hotel I stayed in there I didn't get the usual extra benefits like room upgrade, free breakfast etc.More</t>
   </si>
   <si>
+    <t>edtoby007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r340987447-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -876,6 +966,9 @@
     <t>12 year old property, 4 stories, U-shaped, directly off highway, 15 minutes from SNA airport. Very good condition, clean/comfortable with a refresh scheduled for this year.  The property is by no means out of shape, very commendable that they plan on keeping it fresh.  There are a few restaurants within walking distance (including a Starbucks), plethora of choices within 15 minutes. If you're into Fitness, there is a LA Fitness about a mile away ($15 for a day pass). My suite had two LCD TVs, fridge, no microwave.  Internet (free) speed very good. As in all Courtyard properties, there is no free breakfast.  Bistro restaurant offers pre-made meals at decent prices.More</t>
   </si>
   <si>
+    <t>goriajk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r334130584-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -906,6 +999,9 @@
     <t>I visited this particular Courtyard by Marriott with two local friends on Sat night December 19, 2015 on a AT&amp;T Employee weekend rate negotiated with Marriott. This was my first stay at this location, which is growing with new homes sprouting in all directions (I remembered driving by this area many years ago, and it was all rural country - the urban growth is simply mind boggling!) We were greeted nicely and received Room 337 (King Sized Bed with Sofa Bed) with view of a rainy pool and spa area (Due to the heavy rain and winds, I decided not to visit the pool area). The room was nice, with plenty of pillows!!! My friends and 'yours truly' enjoyed sleeping in late, and got my customary 1pm late checkout. FIVE CLAWS UP!!!!! Gay Friendly. Thanks and 'Merry Christmas'!!! Joe G. BearMore</t>
   </si>
   <si>
+    <t>Mararti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r333015680-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -930,6 +1026,9 @@
     <t>I have been in this nice hotel during a business trip for a week.Surroundings are not interesting, anyway the hotel is decent, it has a small fitness center and an open pool.I appreciated the stay and also all the hotel personnel was very kind.Wi-fi in the rooms is free, reliable and fast enough.Unfortunately there is no breakfast, but a small cafe inside the main lobby where you can order simple meals of good quality.Anyway recommended if you need to stay around here.More</t>
   </si>
   <si>
+    <t>Tara K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r332570061-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -948,6 +1047,9 @@
     <t>This place used to be on the top of my list due to the excellent and friendly staff from the management to the individuals cleaning the rooms.  There has been significant turnover as of late making this go from a not too bad place to go if you must be away from home to an average, if that, hotel.  The only saving grace continues to be the Bistro staff.More</t>
   </si>
   <si>
+    <t>Hassan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r327704352-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -966,6 +1068,9 @@
     <t>I stayed there for a weekend visiting family in the area. Its Marriott Courtyard and you get what you expect: clean room, comfortable bed, more than enough parking space, and a starbucks plus a breakfast venue across the parking area north.More</t>
   </si>
   <si>
+    <t>Mehavasu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r325410200-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -984,6 +1089,9 @@
     <t>Rooms are clean and comfy.   Provide good shampoo and conditioner,beds are big and comfortable.   Really have to say love the bar tender such a nice guy!  It's nice to be able to unwind and have a nice conversation.    The staff is very friendly and helpful.More</t>
   </si>
   <si>
+    <t>D L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r319130068-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1002,6 +1110,9 @@
     <t>At first glance this seems like a really nice hotel.  Lobby was spacious and had lots of seating for socializing.  Nice area set aide to do business.  It had a cafe inside with seating for eating,  Nice and friendly staff .Very Nice!  On to the rooms.  This is where things were not so impressive.  Nice and clean but seemed dated.  Room very close to toll road, so traffic noise could be heard regularly.  Bed had a basic mattress that was uncomfortable and it had a small raised area going down the middle, Office chair would not stay up.  Very small cooler type refrigerator that had no temp. setting and didn't keep food/drinks very cold.  No microwave.  I have stayed in more comfortable updated rooms for less money.  There was also no type of complimentary breakfast of any kind.  I expected better from a Courtyard Marriott.   The basics were covered but nothing above average except for the prices in the cafe and the hotel staff.:o)  I was there for a conference with some church members and arrangements were made through our church.  I would have stayed somewhere else if it had just been me.More</t>
   </si>
   <si>
+    <t>Jim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r301808090-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1020,6 +1131,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>daveholden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r300328528-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1035,6 +1149,9 @@
     <t xml:space="preserve">Each time I have stayed here I have been impressed with the feeling of "spaciousness." It is very open. The counter staff is always helpful and professional. They have a small convenience store and a large meeting area for socializing and even offers cocktails in the evening. The morning breakfast is ample and tasty! You will enjoy your stay here! </t>
   </si>
   <si>
+    <t>Longmich</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r299373258-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1050,6 +1167,9 @@
     <t xml:space="preserve">I have stayed at this property before.  While the rooms are in need of a renovation, the staff is wonderful.  The bistro has a nice assortment of breakfast items. The workout facilities are good and the location is near the highway and shopping area.  I would stay here again.  </t>
   </si>
   <si>
+    <t>HappyGirlAdventurer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r277683102-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1077,6 +1197,9 @@
     <t>We had 3 rooms at the hotel last weekend for a wedding event in the area.  The hotel staff were all welcoming and efficient in getting us registered.  Our rooms were nice, very clean and comfortable.  We got back to the hotel late in the evening and although there are a couple of restaurants within walking distance we decided to order at the bistro in the lobby.  The waiter was very friendly and the food was quite good!  I have stayed at this hotel in the past and will certainly do so again!  It's easy to get to and if you use the 241 toll road, you can go online within 5 days to pay your toll.  If you are traveling during busy rush hours, the toll road is a great alternative to sitting in traffic.More</t>
   </si>
   <si>
+    <t>texnan2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r275428061-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1095,6 +1218,9 @@
     <t>I really liked staying at this hotel....everything about it is nice! My room was very nice, large and all the amenities were great!  I ate at the Bistro one morning for breakfast and the food was good and I enjoyed it very much! I found the hotel employees to be very friendly and helpful if I needed anything.  The lobby is nice and relaxing to just sit in or visit with others and/or have a drink in front of the fireplace.I will definitely be coming back to this hotel in the future!More</t>
   </si>
   <si>
+    <t>russellvilleaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r275070744-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1137,6 +1263,9 @@
     <t>The front desk staff was very welcoming!  Every time I came/went I was treated with a warm welcome. Lobby is nicely renovated and cafe was perfect. The only room for improvement were the guest rooms.  They are in need of renovation. The hall was also musty. Location was very convenient to restaurants/shopping/highway.More</t>
   </si>
   <si>
+    <t>arisma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r269584940-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1164,6 +1293,9 @@
     <t>The exterior and the lobby of this hotel looked like a typical Courtyard - but, the rooms were rather bland.  Nothing special about the decor at all.  The furniture was not attractive, and the dresser drawers in my room were all broken. The bathroom was a disappointment, as well - old tub with a hot/cold water mix that was variable/unpredictable.  I was surprised, as most buildings in the area seemed to be new, but this room felt like it was from an older hotel.  On the positive side, the service was good, and the fitness center was well equipped.  Also, the 'free' wifi wasn't quite as slow as at other Courtyard properties.More</t>
   </si>
   <si>
+    <t>smiteee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r262010471-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1191,6 +1323,9 @@
     <t>Stayed here for a trade show and the entire team at this location was TERIFFIC! My apologies as I only have the names of: Yvanna, Shelly, Kevin, Alex, Tracy but my gratitude goes out to all we interacted with during our stay from March 5th thru the 9th, pretty sure it was entire staff at one time or another. From the very beginning what could have gone wrong did regarding prepping for this show. Our supplies were delivered 2 days prior to our arrival, so many boxes the staff was gracious enough to store our supplies in a conference room …Thank you!Always being sincerely greeted and asked to let them know if we need anything, regardless of how early we started our day or how late we rolled in was just great. The assistance we received after our perishable supplies were delivered a day late due to inclement weather and delayed FedEx deliveries was above and beyond.This group of professionals should be the model of corporate training... Thanks again!More</t>
   </si>
   <si>
+    <t>Kim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r253686220-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1215,6 +1350,9 @@
     <t>What distinguishes this hotel is its service. The front desk clerk (Tim) very graciously provided directions on running trails in the area, and I was so impressed by his knowledge and understanding. The clerk in the morning was similarly anticipatory and helpful with small things. Though the property is consistent with the Courtyard brand in almost every respect, the service element really shines. Shows that management is "on it" and "participatory".More</t>
   </si>
   <si>
+    <t>Ton J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r252421181-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1240,6 +1378,9 @@
   </si>
   <si>
     <t>All in all the hotel is pretty nice but unfortunately housekeeping likes to wake people up between 7:30 and 8:30 AM and due to the odd language barrier when you tell them you're sleeping go away they still like to walk inand when you tell the front desk issue they do not take it serious quite sadMore</t>
+  </si>
+  <si>
+    <t>KimberlyB1974</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r252291977-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
@@ -1269,6 +1410,9 @@
 The last issue was with the "Complimentary Coffee Service." The handbook in the room indicated that there was "Coffee Service available in the lobby area rom 6am-10am", however; this practice has apparently been discontinued. Instead, we shelled out $5 for Starbucks black coffee from the bar. Yes, there is free coffee in the rooms, but I'm not a fan...This is the third time we've stayed at this hotel. Good location, close to a shopping center with several dining choices, a movie theater, Target. The bed was incredibly hard, and we've gotten better rooms the last two stays (this time, we did not have a balcony) but I'm beginning to believe that this has to do more with my Marriott Rewards membership. Seems ever since I started booking with my membership, I've gotten the crappier rooms. Bonus: I checked both in and out of my room with the Marriott hotel app on my Android phone. Nice! There was noise above us from about 3am-5am. It may have gone on for longer than that, but I can't be certain. I do know that everytime I would coerce myself back to sleep, I would be awakened by them again. I'm only being partially sarcastic when I tell you that it sounded like a couple of 400-pound Sumo wrestlers engaging in battle. Seriously, no person on Earth could have possibly stomped as much as that room. Alas, I made the best of it. The last issue was with the "Complimentary Coffee Service." The handbook in the room indicated that there was "Coffee Service available in the lobby area rom 6am-10am", however; this practice has apparently been discontinued. Instead, we shelled out $5 for Starbucks black coffee from the bar. Yes, there is free coffee in the rooms, but I'm not a fan of room coffee with sink water, and the last few times we'd stayed in the hotel, I'd enjoyed running down for a quick (free) cup of coffee. It stinks in my opinion to get rid of this practice, but at least take the time to update the room handbooks.More</t>
   </si>
   <si>
+    <t>Trent O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r247665383-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1296,6 +1440,9 @@
     <t>My husband and 6 year old daughter and I were forced out of our house due to water damage and not happy. But everyone at the hotel was so nice and helpful. They kept asking how things were going with the work and it made our stay much more pleasant! We have been there before for pleasure so we will definitely go back and refer our out of state guests to stay there. Thanks all!  Also the hotel itself was very clean and well kept. Special thanks to Alex Rios for making us smile : )More</t>
   </si>
   <si>
+    <t>Vanessa G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r246405516-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1320,6 +1467,9 @@
     <t>What a wonderful hotel! My husband and I booked a room for my company's holiday party, which was about 5 minutes away. We were greeted at the front desk by Tim. He was very professional, friendly, and made us feel welcome. We got ready in our spacious room, and then headed to the bar for a cocktail before the party.  The bartender was very kind and professional. (I don't remember her name) But she had glasses and was extremely friendly.  We lost track of time because we had such a great experience at the bar!!  The next morning, we tried the breakfast options.  Absolutely delicious!!  Entire hotel was a quiet and quaint atmosphere.  We will always choose this hotel every year for our overnight stay for the holiday party.  My only minor complaint, was no hair conditioner was offered.  I sometimes bring my own, because not all hotels offer it, but I forgot to bring some.More</t>
   </si>
   <si>
+    <t>Vikram K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r243232696-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1344,6 +1494,9 @@
     <t>What great service at this hotel!! I checked in at 2pm and had to cut my trip short. I had to check out only 4 hours later at 6pm. Tiffany at front desk waived my hotel room charge and my internet usage charge. I checked out with a 0$ charge!  Thats what I call customer service!  Thank you so much Tiffany!  I'll always stay at the Courtyard Foothill Ranch because of you!More</t>
   </si>
   <si>
+    <t>jtyler27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r242037743-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1371,6 +1524,9 @@
     <t>The hotel hallways were freezing all the time but otherwise my stay was amazing. I stayed for 8 days and Alex Depue was an incresible help! He worked the main desk and I felt lile everytime i turned around i had a question, he was there and ready to help! He definitely needs a raise!More</t>
   </si>
   <si>
+    <t>249sh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r241344667-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1395,6 +1551,9 @@
     <t>Spent two weekends here.  Rooms are very nicer do spacious with small fridge.  Front desk folks are very friendly and helpful especially Kaylee.  I would recommend this hotel.  A variety of places to eat in the same parking lot as hotel.  Away from the Orange County madness but very accessible to it.  Only downside is the Starbucks coffee.More</t>
   </si>
   <si>
+    <t>Spencer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r240707410-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1446,6 +1605,9 @@
     <t>I travel 50%+, both internationally and domestically, and this is one of the best hotels ever.  Well, the staff at this hotel is as good as they come, and the hotel is a standard clean Courtyard.  You are greeted by Michelle, Elaine and Yvanna upon arrival with a warm hello and a smile.  If you stay here a few times, you will notice that they remember your name, which is quite nice when you spend more time in a hotel than at home.  The Bistro has decent food given that it is not intended to be a 4-star restaurant but again, the staff makes it top notch.  The morning crew (Alex, Adriana and Kaylie) are friendly, fast and kick your morning off right.  And the evening staff (Alex &amp; Tracy) will help you end your day with a good laugh, a refreshing beverage and a yummy brownie.  I recommend this hotel if you are in the area and want to feel as at home as possible in a hotel.More</t>
   </si>
   <si>
+    <t>Jeff H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r237578289-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1470,6 +1632,9 @@
     <t>Take it from someone who does a fair amount of traveling... this place is excellent!  When I travel to the area, this hotel is always my first choice.  All of the staff are incredibly friendly and helpful.  On every visit, the front desk people make me feel welcome, and often go beyond the call of duty to ensure all of my travels needs are met.  On my most recent trip, I had a last minute need to travel to a different city; a front desk person went out of his way to assist me in finding a room in that city.  Later upon my departure, the front desk manager even became actively involved in this search.  These are the kinds of experiences that bring people back!Also of note: Great Bistro, nice gym, cozy pool area!More</t>
   </si>
   <si>
+    <t>rick c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r236829512-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1489,6 +1654,9 @@
   </si>
   <si>
     <t>I stay here several times every month .  I am always greeted warmly and treateded with respect and courtesy.  Alex Rios in the Bistro is always attentive, friendly and prompt.  Truly great service and hospitality.  Front Desk crew is always friendly.More</t>
+  </si>
+  <si>
+    <t>BethanneU4</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r235778745-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
@@ -1521,6 +1689,9 @@
 Now for the minor issues. I made the reservation online, and there is a section for additional requests. I requested four things: a roll away, extra pillows,...We booked this hotel for two nights as a base for a weekend trip to the SoCal beaches and Disneyland. The area was great. Very convenient, with only a 25 minute drive to beaches and theme park. There are lots of places to eat nearby as well, including just about every fast food place you could want, and some chain restaurants. Also close by there is a Ralph's grocery store, a Target and a Walmart. Freeway is close as well but be aware that there are many toll roads. The hotel itself is very nice, with a neat, modern lobby. Parking is free and plentiful. There is a pool although we didn't have time to use it. There is no complimentary breakfast which is something I usually look for in a hotel stay, but there is a restaurant where you can purchase items. We opted to keep some breakfast items in the small fridge located in the room and just eat that in the mornings. Check in was quick and easy. Yvanna (sp?) was very friendly and informative. The room itself was ready early, and was clean. We had 5 people in the room, two adults with three kids, and we had a king bed, a sofa sleeper and a complimentary roll away. Now for the minor issues. I made the reservation online, and there is a section for additional requests. I requested four things: a roll away, extra pillows, extra towels and a lower level room. Our room was on the 4th floor, which is the highest, so we didn't get the lower level request. During check in I inquired about the roll away and she said she would see if one was available and if so, have it delivered. Luckily one was, so there were no problems there. But, that evening while getting ready for bed, we checked the drawers and closet and realized there were no sheets or pillows for the sofa sleeper. Also, there were only 3 bath towels even though I had asked for extra and the reservation listed 5 guests. We called down to the front desk to see about getting those items brought up, but there was no answer. I waited a bit, then called a second time and again no answer. My husband had to go downstairs to requested the items we needed. They were brought up a short while later. All in all, not a deal breaker, and it does say on the website that any additional requests are not guaranteed, but even if we couldn't get a lower level room or any extra pillows, there certainly should have been enough towels for all guests and bedding for the sofa sleeper. I did learn that their fire alarm works very well!! It went off bright and early Sunday morning at 6:30 a.m. Guests were out of their rooms, walking in the hallways trying to figure out what was going on. Turned out to be a false alarm. When we checked out, the girl at the front desk, (not Yvanna) did not ask us if we enjoyed our stay nor invite us to visit again. So, like I said, a few issues to work on, but overall a good stay, a nice area, a clean, modern hotel and one I'd book again.More</t>
   </si>
   <si>
+    <t>Valerietravelor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r233677530-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1542,6 +1713,9 @@
     <t>Everything at the hotel was great but in particular was Michelle Ponte who checked us in. She told me right away her name and that she was there to help us in any way. We got recommendations to two different restaurants and she was right on with both but also asked us the following days how our experiences had been. She really made that extra effort to connect and help and make our experience better. Thank you, Michelle!More</t>
   </si>
   <si>
+    <t>Liam H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r232422526-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1566,6 +1740,9 @@
     <t>Hotel is clean, modern, staff very helpful. Room sizes are huge, good sized communal meeting space. Breakfast is ok, and there are a number of restaurants in the local area which are good.Nice pool area also!More</t>
   </si>
   <si>
+    <t>Garth W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r229878394-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1593,6 +1770,9 @@
     <t>Greg, the young man working the evening shift was indispensable in assisting me with the resolution of some difficulties with my credit card.  He was patient, polite, and caring.  He helped me for over 30 minutes in getting things straightened out so that I could get to bed.  He was completely professional and I am extremely grateful for his assistance in resolving the problem.  He would make a great hotel manager some day.More</t>
   </si>
   <si>
+    <t>Joni I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r226981119-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1615,6 +1795,9 @@
   </si>
   <si>
     <t>My husband and I were in town for the weekend.  My husband has been searching for a job and needed to fill out an online application.  We did not have our laptop as it was in our home in Colorado.  We needed to attach a resume and drivers license to the application, we had help from Alex Depue.  Alex was so kind and helpful, he went above and beyond, he made sure to attach the resume and my husbands license.  Alex was our guardian angel.  We had a wonderful time, the Hotel was very clean, quiet and relaxing.  The area that the Hotel is in, is beautiful, close to restaurants (there is a great restaurant inside the Hotel, as well), shopping and movie theatres. We were able to visit Saddleback Church too   :)More</t>
+  </si>
+  <si>
+    <t>Fffly</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r222719142-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
@@ -1639,6 +1822,9 @@
    I would definitely stay here again except.... I would ask for the top floors or to not have a soccer team club meeting above us. We had a horrible time falling asleep with LITERALLY A PARTY going on after midnight over our heads. We had to call the front desk 3 times to get the party to end. Aside from these minor things I would definitely stay here. It 's a nice...I really liked this hotel, the lobby was nice &amp; relaxing. I loved that they had a snack bar &amp; restaurant. It was unfortunate that the food was overpriced ie $10 for a sandwich. The location is fabulous since we could walk down the driveway to the local Starbucks or the some of the tasty restaurants. Our presidential suite was very nice however we had a whole in our shower that had been covered up then began to have mold grow around it. See photo. Then the bathroom did not have a fan to vent out for showering etc. Also the bathroom door lock was broken. This made it tough to have privacy in the bathroom. Lastly, we were not given enough towels for 4 adults traveling. The staff was SUPER WONDERFUL and quickly brought us more towels.    We loved the pool &amp; jacuzzi plus the relaxing patio furniture. We enjoyed just playing in the pool &amp; or sitting on the patio furniture after a long bike ride.    I would definitely stay here again except.... I would ask for the top floors or to not have a soccer team club meeting above us. We had a horrible time falling asleep with LITERALLY A PARTY going on after midnight over our heads. We had to call the front desk 3 times to get the party to end. Aside from these minor things I would definitely stay here. It 's a nice hotel with easy access to good restaurants within walking distance. More</t>
   </si>
   <si>
+    <t>Ann H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r220588884-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1666,6 +1852,9 @@
     <t>The hotel itself was great. Well appointed and very clean. But Kaylee at the front desk was phenomenal. Talk about "above and beyond" customer service. She stayed over half an hour past her shift end to help me with a credit card booking. Extremely proffessional and helpful. Kaylee rules!More</t>
   </si>
   <si>
+    <t>Chris B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r220223166-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1690,6 +1879,9 @@
     <t>Stayed here for 4 days on a recent business trip to Orange County. It's clean and modern, with nice decor and a friendly feel to it. The bar stayed open until reasonably late, the recently refurbished pool was nice (although I didn't get a chance to use it), and the staff were super friendly. I'd saty here again if I was working in the area.More</t>
   </si>
   <si>
+    <t>FaceBook46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r219029370-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1717,6 +1909,9 @@
     <t>Great hotel. Business center was well designed and allowed me to print reports and boarding passes - a great help. Compliments go to Greg at the front desk. While checking out, I accidently dropped the keys to my rental car behind the front desk, down a hole through which the cables/wires are run. Greg found a wire hook and spent a great deal of time and effort retrieving the keys. He was a life saver. I'll definitely return. Thanks.More</t>
   </si>
   <si>
+    <t>genofevil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r210102489-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1742,6 +1937,9 @@
   </si>
   <si>
     <t>Carlos was amazing as well as the rest of the staff. I just loved that he remembered me from my last trip and was super friendly and helpful.  Some of the girls even helped me out with a lint roller after I realized my cat decided to sleep on my work shirt before I left:) Tracy is also absolutely wonderful!  My first trip here was for a job interview that I fortunately got selected for.  Tracy and I traded emails before so I could keep her updated on the status of this job. She actually took the time to contact me and ask how it went and was super excited to see me again! Such an awesome experience:)More</t>
+  </si>
+  <si>
+    <t>AtlantaTalkinghead</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r206468628-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
@@ -1777,6 +1975,9 @@
 My Two Gripes:  First, the hotel elevator was incredibly slow. It wasn't very efficient especially during busy periods of the day. Second, the service at the lobby bistro was incredibly slow. I love the concept of cooked to order food all day long. But they needed additional help. My first day there, I gave up waiting in line. And I was just one of three waiting to be helped. They need to institute a better system of service to move people through the process quicker. When I was waiting in line, there was a young lady who appeared to be the bistro's manager. Instead of helping guests with their orders, she did "busy work" behind the...This Courtyard property is a good choice for business travelers and families seeking a location in the south Orange County footprint. It's located in Foothill Ranch right off the CA-241 toll road, which makes access points a breeze.The rooms are pretty basic Courtyard stock. I had a king bed room and enjoyed the in-room flat screen television which was at least 42 inches in size. Internet access was free, although the property offered a $4.95 per day upgrade in case the speed of the complimentary service wasn't fast enough. I found the complimentary service adequate.At the back of the property was a pool and hot tub. The hot tub also featured a handicap lift chair for easy access. Nice touch for sure.My Two Gripes:  First, the hotel elevator was incredibly slow. It wasn't very efficient especially during busy periods of the day. Second, the service at the lobby bistro was incredibly slow. I love the concept of cooked to order food all day long. But they needed additional help. My first day there, I gave up waiting in line. And I was just one of three waiting to be helped. They need to institute a better system of service to move people through the process quicker. When I was waiting in line, there was a young lady who appeared to be the bistro's manager. Instead of helping guests with their orders, she did "busy work" behind the counter and left the order taking to her subordinates. She needed to offer assistance as well.Around the hotel, there are plenty of food choices within a mile. Some of the choices include Chili's, Denny's, Pick Up Stix and some more formal restaurants in the town center. Overall, I was fine with this property and would probably include it in selection when I return to the area. The staff was very friendly and it was clean. You could do a lot worse.More</t>
   </si>
   <si>
+    <t>Sean A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r205404727-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1804,6 +2005,9 @@
     <t>Courtyard properties are pretty much universally the same, but this one was a bit of a stand out for the location. It was easy to get to, and there are plenty of stores (Walmart, Target, Ralphs) near by for anything you may need, and several restaurants so you are never hurting for a food choice.The staff was friendly and accommodating, and I never had any complaints.The overall area is quiet, which is always a plus. It did seem to have some heavy helicopter traffic near it, but I never heard it while in my room.Cleanliness was always spotless.Overall, a good stay for the dollar.More</t>
   </si>
   <si>
+    <t>Christopher G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r199075194-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1831,6 +2035,9 @@
     <t>My company has been hosting business events at this Marriott for a number of years.  They have always provided great service and made an extra effort to accommodate our guests as much as possible.There are a number of places within walking distance to eat so it's great for those who Taxi from John Wayne airport and don't have any reliable transportation.More</t>
   </si>
   <si>
+    <t>KamAli06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r197273282-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1858,6 +2065,9 @@
     <t>Location is in a busines complex type of area, not walking distance to many restaurants but I think few mins by car should provide various options.standard courtyard, starbucks served on site. One thing I didn't appreciate was the bathroom. The toilet flush handle needed to be pressed and held down for a few seconds for the flush to slowly begin working. IT almost makes you feel for those few seconds that oh boy is this thing broken!Another thing was the shower water pressure was way too strong. Standard courtyard shower head as always but the pressure was so strong that it actually hurt while showering. Not cool.More</t>
   </si>
   <si>
+    <t>Elizabeth C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r195350903-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1876,6 +2086,9 @@
     <t>Stayed at this Courtyard on our way to San Diego. Its a halfway point for us. Facilities were nice, but I found it interesting that you needed your key card to enter the front lobby after hours. I've never seen that one before.Took a minute for the person at the desk to come out from the back and when they did they were a bit on the slow side. It was late, we just wanted to get into our room. Took 10 min to check in, we were the only ones there. This person was polite and helpful, just slow.So basically, everything was perfect except for the check in experience. My boyfriend and I were sure the desk person was smoking something funny in the back, though. Oh and this hotel is like more than 5 miles off the freeway. Its kinda out of the way if you're just making a quick stop like we were.More</t>
   </si>
   <si>
+    <t>Tony9876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r194216990-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1900,6 +2113,9 @@
     <t>First, it's always nice when a desk clerk like Kaylee greets you in a very friendly way and says hello the next day when you pass by.  This is one of the 'modern design' Courtyards and it is worth selecting when you're in this area.  My 'average' score is based on what follows: Although the rooms are well-kept and modern, the hallways and elevator were filthy, and the bed was too firm for me.  What I am most irritated by is Courtyard in general, that stopped offering free coffee service.  I got a great weekend rate, so I selected them despite this, but I am staying at Courtyards much less these days because of it--and I usually have about 100 hotel nights per year, so 'less' means dozens of stays elsewhere as a result of no coffee.  And I refuse to spend money on their overpriced Bistro food and beverages.More</t>
   </si>
   <si>
+    <t>keefe366</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r194103954-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1924,6 +2140,9 @@
     <t>Most awesome staff!! Alex will take care of all your food and beverage needs, we will be back every time we come to town!! The rooms are great and the location is perfect for my needs. They are close to a lot of nice restaurants and local businesses.More</t>
   </si>
   <si>
+    <t>jmf900</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r192281406-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1951,6 +2170,9 @@
     <t>The staff and service at this Courtyard was great!  The rooms were clean, and the lobby and cafe area are very inviting.  It definitely felt like a home away from home.  Great shopping center close by as well!More</t>
   </si>
   <si>
+    <t>luv2travel616</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r191950029-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1969,6 +2191,9 @@
     <t>We had a great experience here, especially with the help of the front desk. They accomodated all of our needs without hesitation. Also, they recommended some exceptional restaurants and activities in the area. It's great to have referrals like that when you are not familiar with the city. Definetly coming back!More</t>
   </si>
   <si>
+    <t>OCPaul</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r191947371-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1993,6 +2218,9 @@
     <t>I stayed at the Foothill Courtyard for 2 nights last week as I was attending a family gathering and the house was full.  My check-in was fast and courteous. The front desk person Michelle was positive, friendly and professional. My room was clean and comfortable, and I fully enjoyed my stay.  The Bistro offered some late night refreshments that were very appreciated.  All in all, a very good value and experience for the price.More</t>
   </si>
   <si>
+    <t>JamieDeeds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r191944915-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2011,6 +2239,9 @@
     <t>My in-laws stayed here over the Thanksgiving holiday. The front desk staff was very helpful and accommodating.  The rooms are very large, the pool area is nice, and they sell Starbucks coffee in the lobby!More</t>
   </si>
   <si>
+    <t>eabarrdvm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r184732602-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2035,6 +2266,9 @@
     <t>Typical courtyard Marriott with Bistro.  Very clean and updated.  After reading reviews on trip advisor, I asked for an inside room as many had said they were quieter; unfortunately even though I checked in on a Monday that was not available.  I am a gold or platinum or whatever Marriott member but it never seems to make a difference.  I was tired so thought I might just grab something to eat that night in the bistro but there was only one guy behind the counter and it was happy hour so I gave up and went to a nearby restaurant.  The room was noisy.  There was a busy 6 lane street below my window, Portola Way.  I woke up several times a night.  The rooms were nice but the room door, bathroom door and closet door were conflicting with one another constantly, poor design.  The good news is that the hotel was located in a business park, so within walking distance was a subway, thai garden, urban grill, starbucks and bagel shop.More</t>
   </si>
   <si>
+    <t>Sim0n_0n_the_r0ad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r184598336-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2056,6 +2290,9 @@
     <t>I had a 15-day stay in this property for business purpose. The hotel is pretty old. i would date it mid-80s but it is well kept. Rooms are spacious and comfortable. The breakfast is served in the only bar-restaurant in the looby and you pay what you order. there is decent fitness room and a swiming that i did not try. generally speaking the hotel is clean and the staff is always friendly and with a genuine smile.More</t>
   </si>
   <si>
+    <t>dysphorichousewife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r178188918-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2083,6 +2320,9 @@
     <t>This is a standard Courtyard with updated lobby and foodservice - very clean and comfortable with above average service.  The hotel has a nice fitness room and is close to a Starbucks, Thai Restaurant, Wine Bar and Fish Taco place (although they serve Starbucks in the lobby and make a good cappuccino there!)  Rooms are just ok - wifi is free - If you're in the area this is a solid place to stay.More</t>
   </si>
   <si>
+    <t>Sheryl F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r173028249-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2110,6 +2350,9 @@
     <t>What a pleasure.  The staff was very professional, and friendly.  We were in town for a soccer tournament, and wanted to check in early. They got us in 2 hours early, and upgraded someone we were traveling with when his original room was ready.Their food was very good, and not out of a warming tray.Thanks for a great stay!More</t>
   </si>
   <si>
+    <t>striker212121</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r167587322-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2137,6 +2380,9 @@
     <t>I travel often and stay for the most part at full service hotels, this hotel gets it!  The staff is friendly and the experience was great.  Rooms are comfortable, nothing extravagant but fully functional.  Good fitness area with up to date equipment and nice pool area.I enjoyed reviewing the comment about no bellman on arrival, hello this is a courtyard and parking was convenient and within feet of the front door!  And, I enjoyed reading the review about one elevator, hello?, there is one on each side of the building!!! So, before you speak out of turn, understand the courtyard brand and the hotel!The hotel is great for a limited service hotel, good lobby, good breakfast, good pool for a courtyard and good computers in the lobby!  Stay, you won't regret it!More</t>
   </si>
   <si>
+    <t>Doug P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r166300426-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2158,6 +2404,9 @@
     <t>Stayed here during the holidays and just now getting around to writing this review. We wanted a "home base" that was not too far from Disneyland, but still not right next to it either. This hotel was just the ticket! Very affordable rates, great little bistro in the lobby for snacks and light meals, amazing service, clean and comfortable rooms and great beds. Everything you could want in a Courtyard by Marriott and so much more! Really nice pool area and the landscaping surrounding the hotel is beautiful! Plenty of close parking. The lobby has been remodeled and is really, really nice. I would put it on the level of a much more expensive hotel. I had stayed at this hotel a couple of years ago and my stay was ok, but there seems to have been some changes that have been made at this hotel because the service level has risen dramatically, the property looks cleaner and it just has a much happier, enjoyable feel to it. Don't know if there was an ownership change or a new general manager or what, but I was very pleasantly surprised by my last stay. I will back!This is the place to stay if you are visiting the Disneyland, Southern California area.More</t>
   </si>
   <si>
+    <t>volksaudinut</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r160196171-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2179,6 +2428,9 @@
     <t>Great location convenient to all things in the area, including SNA airport, Newport Beach, Fashion Island, etc. Hotel is situated walking distance from a Starbucks, a Wahoo's Fish Taco, and a really good Thai restaurant, so that is great for those without a car. This is also a "new lobby" Courtyard, so it has the Bistro with the good breakfast and dinner options, and the fitness rooms looked to have been recently redone as well. Although this property is an "older" Courtyard with the original design of the inner rooms overlooking an actual Courtyard/pool/hot tub area, my room was really clean and well-kept, and had a nicely renovated bathroom.The staff was very nice; at check-in, Mio was great. She gave me a balcony room upgrade and a bottle of water, and made sure I felt right at home. Value of the hotel was good, too, for the area. I will stay here again when in the area for business.Don't miss the entrance to this hotel, otherwise you may find yourself on the onramp to the 241 toll road; make a U-turn after the hotel if you miss the driveway entrance, then make another U-turn at the light and make your first right (after the Starbucks and Wahoos).More</t>
   </si>
   <si>
+    <t>AliT123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r158194089-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2197,6 +2449,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>143shawn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r156655110-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2215,6 +2470,9 @@
     <t>We stayed her to be close to our family over the Easter weekend.  The best part was the fact that our Easter Service was just down the way.  This location was extremely convenient for us being that our family lives in Ladera Ranch and attends Saddleback Church.  Our room was comfortable!  So happy there was a fridge for our leftovers from dinner (we took advantage of Wahoos located in the parking lot)!!  The weather was great and we got to relax at the pool!  The staff was super friendly, printed us directions to restaurants in the area, we enjoyed the lobby, there are these cool booths with tvs you can relax at and eat and watch tv or there is a big screen tv in the lobby that is neat to sit at while the husband surfs the internet on the computers in the lobby!  I would highly recommend staying here and will use this location again when I am back to visit family again!!!!!More</t>
   </si>
   <si>
+    <t>Jasper298</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r154952545-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2230,6 +2488,9 @@
     <t>I have stayed at this hotel several times.  It is a standard Marriott property with the usual amenities.  However, it has gone downhill.  The room cleanliness was dissappointing and the rooms were starting to show their age.  AC units are noisy.  Road noise is definitely more noticeable than previous visits.  Pillows are very uncomfortable.  I even found myself stuck in the one and only elevator.</t>
   </si>
   <si>
+    <t>Slickd23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r154900617-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2245,6 +2506,9 @@
     <t>I stay at the Courtyard in FHR for business and it is a nice clean hotel.  The staff are friendly and helpful.  I have stayed here 6 times this year and had only a minor issue which the staff took care of right away.  My biggest complaint is the internet is on the slow side, which drops my work connection on occasion.  There is a restaurant which offers some decent choices for Breakfast and dinner.  Overall the hotel is a good choice in the area.</t>
   </si>
   <si>
+    <t>Gill E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r154220568-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2266,6 +2530,9 @@
     <t>On a recent trip to Southern California to check-out some colleges for my son, we ended up at the Courtyard Foothill Ranch on a recommendation from a friend.  It turned out to be an ideal location with easy access for a day-trip down to Long Beach to tour UC Long Beach campus and then visit Mickey Mouse at Disneyland before returning to the Bay Area.  The hotel was easily located off the main road; it felt pleasantly inviting with swaying palm trees out front, as we imagine all hotels in southern California have.  We slept well in rooms well insulated from the nearby traffic.  My son was extremely thrilled to find a simple, but well equipped fitness room off the lobby and I truly enjoyed swimming laps in the pool after a long drive.  I found the housekeeping staff took great pride in taking care of keeping the rooms spotless and we enjoyed the casual but very tasty cafe menue for a late evening meal while pouring over maps and brochures in planning out our trip.  The staff made us feel welcome and were very helpful with our many questions and printing out driving directions, including offering up their favorite neighborhood breakfast spot.  We'll be sure to tell a friend why this hotel stands out a great find...More</t>
   </si>
   <si>
+    <t>MadameD677</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r151016491-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2281,6 +2548,9 @@
     <t>I have stayed here several times for work.the rooms are very clean and fairly spacious. I wish there was a microwave in the room other than that it's a very comfortable place to stay. the staff is always very friendly and helpful.</t>
   </si>
   <si>
+    <t>allic2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r146488745-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2299,6 +2569,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Cutpaste</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r144894798-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2314,6 +2587,9 @@
     <t>My husband and I came in for a quick one night stay to go to an event in the area.  We just needed a clean, comfortable, relatively inexpensive place to stay.  This hotel served all of those needs.  The room was clean and the bed was comfortable.  The hotel staff were all very friendly and helpful.  The cafe in the lobby served a short list of items but those items we tried were well prepared and a good value for the money.  We would stay here again!</t>
   </si>
   <si>
+    <t>Norma S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r132868712-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2341,6 +2617,9 @@
     <t>your staff was awesome I was traveling solo had to stay 2 nights however very nice personal front desk and maintenance nice clean rooms nice locationMore</t>
   </si>
   <si>
+    <t>Amy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r126500507-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2359,6 +2638,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>DaFeng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r123919424-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2386,6 +2668,9 @@
     <t>I often review the upscale properties I have a chance to stay at. This stay was purely utilitarian, I needed a place close to my customer.My expectations were admittedly low. Immediately upon entering the lobby I noted that this Courtyard is in the new format.  I really enjoy this refresh that they are doing to their lobbies. Its an inviting, aesthetic yet very productive site.  But what really makes this Courtyard exceptional is the staff. These people are all out going and I can trust them for anything I need. In January I stayed there twice and I look forward to my next visit as well. BTW: Its only a 25 minute drive from Laguna Beach.More</t>
   </si>
   <si>
+    <t>CancunVIP10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r120501968-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2404,6 +2689,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>houstonturtle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r119354471-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2425,6 +2713,9 @@
     <t>I stayed here 1 night after a client meeting.  True to the new Courtyard concept, the hotel was well equipped for the business traveller: free we-fi, spacious desk/working area in the room, spacious lounge/lobby area to meet/greet, computers in the lobby/lounge area to look up last minute stuff, breakfast area serving buffet or a la carte, and (very important) no fuss check in/check out.  The room was spacious, nicely furnished, and clean.  Doesn't have the brand new feel of some of the newer Courtyards, but not tired or worn either.  My 2 complaints: TV was inconveniently located parallel to the bed, and nary a tea bag in sight although ample Barista coffee provided.Breakfast buffet included hot and cold items. The breakfast wait staff was very helpful even though I declined the more expensive buffet, and hustled my order (toasted bagel) when they saw that I was in a hurry.Location was right across the street from my client, ~15 minutes from SNA.Good value for the price (granted, it is Orange County price).More</t>
   </si>
   <si>
+    <t>jagUtah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r119233008-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2440,6 +2731,9 @@
     <t>The room was clean, the bathroom was clean, and the bed was comfortable.  Only stayed for one night but it was very pleasant.  The front desk staff was extreemly friendly.  I really like that they required a room key or a reservation to even enter the lobby after dark.</t>
   </si>
   <si>
+    <t>Redrabot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r116860195-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2458,6 +2752,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>Fast4d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r116832729-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2476,6 +2773,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>txjmorr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r116731991-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2494,6 +2794,9 @@
     <t>The property is nice. However do not trust your GPS to get you there. My GPS was off by at least 1/4 mile. I would stay hear again as it was a good location for what I needed to do. But,,,the free wi-fi was very weak and slow. $13.95 for breakfast was way too much, but there is a bagel place in walking distance in the same parking lot. We had a room with one king and a sofa bed. The king was on the wrong wall, so when you looked at the 46" HD tv, you had to turn your neck in a funny position. Nice LARGE TV. But like I said funny watching angle from bed and the TV is too large for the room. Free parking. They did not have any foam pillows. Extra sheets for sofa bed had to be brought up by housekeeping.More</t>
   </si>
   <si>
+    <t>CarolLeeAtlanta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r113241908-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2515,6 +2818,9 @@
     <t>I have stayed at this Courtyard probably 100 nights over the past few years as I work for a company in the office complex next to it. The best thing it has going for it is the location. If I counldn't walk to work I would probably not stay there as often.Service is not bad, but no 'extras' like newspapers delivered to your room.  No bar or evening resturant (there are several resturants in the office complex so you won't starve) They don't even deliver dry cleaning to the room!   Rooms are your standard "older" Courtyard.  Not the new remodeled version.  Internet access can be hit or miss. Some of the rooms on the end of the building's have very bad wifi access.If you have status with Marriott, do NOT expect an upgrade.  I am a platnium and have never gotten one!  They have a few suites but don't seem to give them away.More</t>
   </si>
   <si>
+    <t>sf_eeekkk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r111889177-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2530,6 +2836,9 @@
     <t>In general, the hotel is very good and clean.  The only thing that I disliked is how they put my two rooms in a complete opposite side of the hotel.  Also the hotel is very noisy during night time.  I can hear all traffic in both rooms.</t>
   </si>
   <si>
+    <t>DawnNoelm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r102889523-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2548,6 +2857,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>Jeffontheroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r69091028-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2569,6 +2881,9 @@
     <t>I usually stay here on business when in Orange county because it's close to the tollway, not too far from I-5 and actually not that far from the beach.  It's clean, the employees are efficient and friendly, and the breakfast service is quick and not too bad of quality.  I had a freshly prepared omelet each morning that was very good quality.  The beds haven't quite kept up with some of the other chains out there, and they're not quite as comfy.  The rooms are laid out well though, plenty of plugs for your iPhones, laptops, etc.  The rooms also have a huge flat screen, I believe a 42". Carpet and bedding were in good shape. I was given a bed on the west side of the hotel, close to the tollway, but to my surprise, with their double windows, I really didn't hear the noise.  They have a nice pool/courtyard area and they're close to some good restaurants, a few within walking distance.  A Starbucks is also in the same complex.More</t>
   </si>
   <si>
+    <t>tvhtml</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r63198219-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2584,6 +2899,9 @@
     <t>I stayed on 4th floor. The tub/shower wouldn't drain. Very disappointing. The room decor is vintage Marriott Courtyard. With other hotels nearby, I'll give them a try before returning here.</t>
   </si>
   <si>
+    <t>scl44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r45625192-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2603,6 +2921,9 @@
   </si>
   <si>
     <t>This Courtyard delivers what you expect from the brand – efficient service, tidy rooms, generous channel lineup, easy and fast internet connection, and a comfortable pool area.  The setting is both tranquil and convenient with an array of restaurants in close proximity to the hotel.  It is what every traveler expects from a Courtyard by Marriott.  The one caution is that while this is not a first-generation Courtyard, it is not a modern version either.  The exercise equipment is dated, and the televisions were boxes.  But there is good news for future travelers: the new flat screens arrived as I departed.  At the end of the day this is a classic Courtyard with several years of guest usage.More</t>
+  </si>
+  <si>
+    <t>ElsiMM</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r7219516-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
@@ -2646,6 +2967,9 @@
 The hotel only serves breakfast which costs $9 for the buffet. They have scrambled eggs, bacon, sausage, potatoes, fruits, cereal, juice, milk, coffee and bread. They do not serve any other meal...This is a nice hotel for business travelers. The great thing is that it’s new, so everything is fresh, no signs of wear and tear. Everything is clean and decorated very modernly.  I recommend it for a short business trip. I do not recommend it for a long stay and much less for a vacation due to the lack of amenities and things to do in the area. The Room……It was spacious and clean; with a balcony (lacking table and chairs) overlooking the pool. The room included a king size bed with feather pillows and duvet cover (very comfortable to sleep in), sofa, coffee table, writing desk; dresser and T.V. which you could order pay per view movies for $12. The room was not set up ideally, since the T.V. is uncomfortable to see from the bed and or sofa.The Bathroom….It was average, clean, nice size with fresh towels daily. Not enough shampoo. Hotel…The reception area is nice and the staff is friendly and helpful. The business area only has one computer….which I find it odd since it’s a business traveler’s hotel. I used the computer for 40 minutes and paid $15. The pool area is very nice, decent size with a Jacuzzi. Meals….The hotel only serves breakfast which costs $9 for the buffet. They have scrambled eggs, bacon, sausage, potatoes, fruits, cereal, juice, milk, coffee and bread. They do not serve any other meal in the hotel. There are menus in the room for a restaurant delivery service. The minimum order is $20, they add $9 for delivery and automatically add 15% for tip. I ended up paying $40 one night for a meal that wasn’t very satisfying. Area….Everything in Orange County is relatively close, but the closest desirable area to go and visit would be Laguna Beach, which is a 20 minute car drive from the hotel. Walking distance from the hotel is a little side mall that includes a Starbucks and 3 fast food restaurants, none of them looked too appetizing. On Partola Parkway, about a 5 minute drive you can find family style restaurants, supermarkets, shops like Target and gas stations.More</t>
   </si>
   <si>
+    <t>TrueLiz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r7007964-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2667,6 +2991,9 @@
   <si>
     <t>This Courtyard is clearly a business hotel, as it is in the middle of an office park.  However, that means there is not a lot going on over the weekend, and that is when I stayed, thanks to great weekend deals.  I was traveling for a 2-city in 4 days Southern California getaway with my mother, and this was our first stop.  We were planning to spend our time primarily in Laguna Beach, but this hotel was a much more affordable option than anything in Laguna Beach, and it only took 10-15 minutes to get there.  It is also not far from other local attractions, such as Disneyland, but at a more affordable cost, again due to the weekend deals.  I cannot speak to the rates during weekdays as we were only there for Friday &amp; Saturday nights.
 The property itself is clean and nice inside and outside.  The rooms had plenty of space, and still look brand new.  The beds are some of the best I've experienced in hotels, which is nice bonus when arriving at about 2:30 am.  Note to anyone who is allergic to feathers: the beds have a down comforter and a large collection of feather pillows (this applies to all Courtyard hotels now).  I requested a blanket &amp; synthetic pillows ahead of time to alleviate the allergies.  They were not there when we checked in, but the staff could not have been more helpful in...This Courtyard is clearly a business hotel, as it is in the middle of an office park.  However, that means there is not a lot going on over the weekend, and that is when I stayed, thanks to great weekend deals.  I was traveling for a 2-city in 4 days Southern California getaway with my mother, and this was our first stop.  We were planning to spend our time primarily in Laguna Beach, but this hotel was a much more affordable option than anything in Laguna Beach, and it only took 10-15 minutes to get there.  It is also not far from other local attractions, such as Disneyland, but at a more affordable cost, again due to the weekend deals.  I cannot speak to the rates during weekdays as we were only there for Friday &amp; Saturday nights.The property itself is clean and nice inside and outside.  The rooms had plenty of space, and still look brand new.  The beds are some of the best I've experienced in hotels, which is nice bonus when arriving at about 2:30 am.  Note to anyone who is allergic to feathers: the beds have a down comforter and a large collection of feather pillows (this applies to all Courtyard hotels now).  I requested a blanket &amp; synthetic pillows ahead of time to alleviate the allergies.  They were not there when we checked in, but the staff could not have been more helpful in resolving the situation in the middle of the night, so I could breathe easy.  I never expect perfection - how problems are solved and the level of customer service is always a telling point, and they passed this with flying colors.The breakfast is very tasty, including fruits, breakfast meats &amp; potatoes, as well as eggs.  although it is not a free breakfast if that is a priority.Our room had a small deck overlooking the pool area.  I believe this was a Marriott Rewards upgrade, but it was very nice to step outside and get a feel for the weather and enjoy the sunshine in the morning.The free high speed internet worked well, and I love the set-up of the rooms for business travelers, even if we were there for vacation.  There were not as many TV station options as I have seen in many other hotels recently, which was fine since we weren't there to watch TV, but as a former business traveler, I know I would like a few more choices if that was my reason for travel.  A small fridge was also included.  It is not fancy , and is not in a "vacation" location, but it is a quality place, as one would expect from a Courtyard, and provides accessibility to many locations in Orange County.More</t>
+  </si>
+  <si>
+    <t>TellyMonster</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d293295-r6817972-Courtyard_Foothill_Ranch_Irvine_East_Lake_Forest-Lake_Forest_California.html</t>
@@ -3186,43 +3513,47 @@
       <c r="A2" t="n">
         <v>52190</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>132158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -3240,56 +3571,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52190</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>132159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -3307,56 +3642,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52190</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>132160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -3376,50 +3715,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52190</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>21832</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3433,50 +3776,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52190</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>132161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3494,56 +3841,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52190</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>17017</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3557,50 +3908,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52190</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>132162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3614,50 +3969,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52190</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>71863</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3677,50 +4036,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52190</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>132163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3738,41 +4101,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52190</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>132164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -3791,50 +4158,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52190</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>132165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3852,56 +4223,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52190</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>10096</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3921,50 +4296,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52190</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>132166</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3976,56 +4355,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52190</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>132167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -4037,56 +4420,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="X15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52190</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>132168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4098,56 +4485,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52190</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>33486</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4167,50 +4558,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52190</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>132169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4226,47 +4621,51 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52190</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>132170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
@@ -4283,56 +4682,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52190</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>132171</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4348,56 +4751,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="X20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52190</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>132172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -4415,56 +4822,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="X21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52190</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>132173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4476,56 +4887,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="X22" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52190</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>118261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4537,56 +4952,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="X23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="Y23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52190</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>13978</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4598,56 +5017,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="X24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52190</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>4187</v>
+      </c>
+      <c r="C25" t="s">
+        <v>248</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4659,56 +5082,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="X25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="Y25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52190</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>132174</v>
+      </c>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4726,56 +5153,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="X26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="Y26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52190</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>132175</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4795,50 +5226,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52190</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>29840</v>
+      </c>
+      <c r="C28" t="s">
+        <v>274</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="J28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="K28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4850,56 +5285,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="X28" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="Y28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52190</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>70128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="J29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4917,56 +5356,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="X29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="Y29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52190</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>4615</v>
+      </c>
+      <c r="C30" t="s">
+        <v>291</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="J30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="K30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4982,56 +5425,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="X30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="Y30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52190</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>31965</v>
+      </c>
+      <c r="C31" t="s">
+        <v>301</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5049,56 +5496,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="X31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52190</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>132176</v>
+      </c>
+      <c r="C32" t="s">
+        <v>310</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="O32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5110,56 +5561,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="X32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="Y32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52190</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>132177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>321</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="K33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="O33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5177,56 +5632,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="X33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="Y33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52190</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>5590</v>
+      </c>
+      <c r="C34" t="s">
+        <v>330</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="J34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="K34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="L34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5242,56 +5701,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="X34" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="Y34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52190</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>132178</v>
+      </c>
+      <c r="C35" t="s">
+        <v>337</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="J35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="K35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="L35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5303,47 +5766,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="X35" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="Y35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52190</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>132179</v>
+      </c>
+      <c r="C36" t="s">
+        <v>344</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="J36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="K36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="L36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
@@ -5360,56 +5827,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="X36" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52190</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>21420</v>
+      </c>
+      <c r="C37" t="s">
+        <v>351</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="J37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5429,50 +5900,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52190</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C38" t="s">
+        <v>358</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="J38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="K38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="L38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5492,50 +5967,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52190</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>132180</v>
+      </c>
+      <c r="C39" t="s">
+        <v>365</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="J39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="K39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5549,50 +6028,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52190</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>80731</v>
+      </c>
+      <c r="C40" t="s">
+        <v>371</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="J40" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="K40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="L40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5606,50 +6089,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52190</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>132181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>377</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="J41" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="L41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="O41" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5667,56 +6154,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="X41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="Y41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52190</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>132182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>387</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="J42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="K42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="L42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5732,56 +6223,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="X42" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="Y42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52190</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>132183</v>
+      </c>
+      <c r="C43" t="s">
+        <v>394</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="J43" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="K43" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="L43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5799,56 +6294,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="X43" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="Y43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52190</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>80731</v>
+      </c>
+      <c r="C44" t="s">
+        <v>371</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="J44" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="K44" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="L44" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5866,56 +6365,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="X44" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="Y44" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52190</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>132184</v>
+      </c>
+      <c r="C45" t="s">
+        <v>409</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="J45" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="K45" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="L45" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5933,56 +6436,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="X45" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="Y45" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52190</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>38549</v>
+      </c>
+      <c r="C46" t="s">
+        <v>419</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="J46" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="K46" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="L46" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -6000,47 +6507,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="X46" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="Y46" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52190</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>25262</v>
+      </c>
+      <c r="C47" t="s">
+        <v>429</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="J47" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="K47" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="L47" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
@@ -6063,56 +6574,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="X47" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="Y47" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52190</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>132185</v>
+      </c>
+      <c r="C48" t="s">
+        <v>438</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="J48" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="K48" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="L48" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -6130,56 +6645,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="X48" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="Y48" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52190</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>132186</v>
+      </c>
+      <c r="C49" t="s">
+        <v>448</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="J49" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="K49" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="L49" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -6197,56 +6716,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="X49" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="Y49" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>52190</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>132187</v>
+      </c>
+      <c r="C50" t="s">
+        <v>456</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="J50" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="K50" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="L50" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="O50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6264,56 +6787,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="X50" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="Y50" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>52190</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>69027</v>
+      </c>
+      <c r="C51" t="s">
+        <v>466</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="J51" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="K51" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="L51" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6331,56 +6858,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="X51" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="Y51" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>52190</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>132188</v>
+      </c>
+      <c r="C52" t="s">
+        <v>475</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="J52" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="K52" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="L52" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -6398,56 +6929,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="X52" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="Y52" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52190</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>132189</v>
+      </c>
+      <c r="C53" t="s">
+        <v>484</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="J53" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="K53" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="L53" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="O53" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6459,56 +6994,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="X53" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="Y53" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>52190</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>132190</v>
+      </c>
+      <c r="C54" t="s">
+        <v>494</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="J54" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="K54" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="L54" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="O54" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6526,56 +7065,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="X54" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="Y54" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>52190</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>33235</v>
+      </c>
+      <c r="C55" t="s">
+        <v>503</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="J55" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="K55" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="L55" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6593,56 +7136,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="X55" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="Y55" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>52190</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>5590</v>
+      </c>
+      <c r="C56" t="s">
+        <v>330</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="J56" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="K56" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="L56" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="O56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6658,56 +7205,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="X56" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="Y56" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>52190</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>538</v>
+      </c>
+      <c r="C57" t="s">
+        <v>521</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="J57" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="K57" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="L57" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="O57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6725,56 +7276,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="X57" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="Y57" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>52190</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>132191</v>
+      </c>
+      <c r="C58" t="s">
+        <v>530</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="J58" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="K58" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="L58" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="O58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6790,56 +7345,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="X58" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="Y58" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>52190</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>132192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>538</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="J59" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="K59" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="L59" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="O59" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6857,56 +7416,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="X59" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="Y59" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>52190</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>132193</v>
+      </c>
+      <c r="C60" t="s">
+        <v>547</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="J60" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="K60" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="L60" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="O60" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6924,56 +7487,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="X60" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="Y60" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>52190</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>132194</v>
+      </c>
+      <c r="C61" t="s">
+        <v>555</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="J61" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="K61" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="L61" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="O61" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6991,56 +7558,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="X61" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="Y61" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>52190</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>132195</v>
+      </c>
+      <c r="C62" t="s">
+        <v>564</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="J62" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="K62" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="L62" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="O62" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -7058,56 +7629,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="X62" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="Y62" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>52190</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>132196</v>
+      </c>
+      <c r="C63" t="s">
+        <v>574</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="J63" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="K63" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="L63" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7125,47 +7700,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="X63" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="Y63" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>52190</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>132197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>583</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="J64" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="K64" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="L64" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -7182,56 +7761,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="X64" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="Y64" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>52190</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>10997</v>
+      </c>
+      <c r="C65" t="s">
+        <v>590</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="J65" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="K65" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="L65" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="O65" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7247,56 +7830,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="X65" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="Y65" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>52190</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>6529</v>
+      </c>
+      <c r="C66" t="s">
+        <v>600</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="J66" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="K66" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="L66" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="O66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7312,56 +7899,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="X66" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="Y66" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>52190</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>132198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>609</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="J67" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="K67" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="L67" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="O67" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -7379,56 +7970,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="X67" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="Y67" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>52190</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>132199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>619</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="J68" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="K68" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="L68" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="O68" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7440,56 +8035,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="X68" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="Y68" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>52190</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>132200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>629</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="J69" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="K69" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="L69" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7511,56 +8110,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="X69" t="s">
-        <v>571</v>
+        <v>637</v>
       </c>
       <c r="Y69" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>52190</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>15419</v>
+      </c>
+      <c r="C70" t="s">
+        <v>639</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="J70" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="K70" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
       <c r="L70" t="s">
-        <v>577</v>
+        <v>644</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
       <c r="O70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7582,56 +8185,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>579</v>
+        <v>646</v>
       </c>
       <c r="X70" t="s">
-        <v>580</v>
+        <v>647</v>
       </c>
       <c r="Y70" t="s">
-        <v>581</v>
+        <v>648</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>52190</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>66304</v>
+      </c>
+      <c r="C71" t="s">
+        <v>649</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="J71" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="K71" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="L71" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7653,56 +8260,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="X71" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="Y71" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>52190</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>132201</v>
+      </c>
+      <c r="C72" t="s">
+        <v>659</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="J72" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="K72" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="L72" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
       <c r="O72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7714,56 +8325,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="X72" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="Y72" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>52190</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C73" t="s">
+        <v>669</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
       <c r="J73" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="K73" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="L73" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7785,56 +8400,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="X73" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="Y73" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>52190</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>19432</v>
+      </c>
+      <c r="C74" t="s">
+        <v>676</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>606</v>
+        <v>677</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
       <c r="J74" t="s">
-        <v>608</v>
+        <v>679</v>
       </c>
       <c r="K74" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="L74" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
       <c r="O74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7856,47 +8475,51 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="X74" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="Y74" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>52190</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>132202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>685</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="J75" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="K75" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="L75" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -7923,56 +8546,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="X75" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="Y75" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>52190</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>132203</v>
+      </c>
+      <c r="C76" t="s">
+        <v>694</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
       <c r="J76" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="K76" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="L76" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="O76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7994,56 +8621,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="X76" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="Y76" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>52190</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>132204</v>
+      </c>
+      <c r="C77" t="s">
+        <v>704</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>631</v>
+        <v>705</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="J77" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
       <c r="K77" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="L77" t="s">
-        <v>635</v>
+        <v>709</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -8065,56 +8696,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="X77" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="Y77" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>52190</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>132205</v>
+      </c>
+      <c r="C78" t="s">
+        <v>711</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>638</v>
+        <v>713</v>
       </c>
       <c r="J78" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
       <c r="K78" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="L78" t="s">
-        <v>640</v>
+        <v>715</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
       <c r="O78" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8136,56 +8771,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
       <c r="X78" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="Y78" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>52190</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>132206</v>
+      </c>
+      <c r="C79" t="s">
+        <v>720</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="J79" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
       <c r="K79" t="s">
-        <v>647</v>
+        <v>723</v>
       </c>
       <c r="L79" t="s">
-        <v>648</v>
+        <v>724</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>649</v>
+        <v>725</v>
       </c>
       <c r="O79" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8207,56 +8846,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
       <c r="X79" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="Y79" t="s">
-        <v>650</v>
+        <v>726</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>52190</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>132207</v>
+      </c>
+      <c r="C80" t="s">
+        <v>727</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="J80" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
       <c r="K80" t="s">
-        <v>654</v>
+        <v>731</v>
       </c>
       <c r="L80" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>649</v>
+        <v>725</v>
       </c>
       <c r="O80" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8278,56 +8921,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="X80" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
       <c r="Y80" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>52190</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>132208</v>
+      </c>
+      <c r="C81" t="s">
+        <v>736</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="J81" t="s">
-        <v>661</v>
+        <v>739</v>
       </c>
       <c r="K81" t="s">
-        <v>662</v>
+        <v>740</v>
       </c>
       <c r="L81" t="s">
-        <v>663</v>
+        <v>741</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>664</v>
+        <v>742</v>
       </c>
       <c r="O81" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -8349,56 +8996,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="X81" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
       <c r="Y81" t="s">
-        <v>665</v>
+        <v>743</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>52190</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>132209</v>
+      </c>
+      <c r="C82" t="s">
+        <v>744</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="J82" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="K82" t="s">
-        <v>669</v>
+        <v>748</v>
       </c>
       <c r="L82" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="O82" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -8420,56 +9071,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="X82" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
       <c r="Y82" t="s">
-        <v>674</v>
+        <v>753</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>52190</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>28621</v>
+      </c>
+      <c r="C83" t="s">
+        <v>754</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>675</v>
+        <v>755</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>676</v>
+        <v>756</v>
       </c>
       <c r="J83" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
       <c r="K83" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="L83" t="s">
-        <v>679</v>
+        <v>759</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="O83" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8491,56 +9146,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
       <c r="X83" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
       <c r="Y83" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>52190</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>132210</v>
+      </c>
+      <c r="C84" t="s">
+        <v>764</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
       <c r="J84" t="s">
-        <v>686</v>
+        <v>767</v>
       </c>
       <c r="K84" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="L84" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
       <c r="O84" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8562,56 +9221,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="X84" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="Y84" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>52190</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>10023</v>
+      </c>
+      <c r="C85" t="s">
+        <v>774</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>693</v>
+        <v>775</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>694</v>
+        <v>776</v>
       </c>
       <c r="J85" t="s">
-        <v>695</v>
+        <v>777</v>
       </c>
       <c r="K85" t="s">
-        <v>696</v>
+        <v>778</v>
       </c>
       <c r="L85" t="s">
-        <v>697</v>
+        <v>779</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="O85" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8633,56 +9296,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="X85" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="Y85" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>52190</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>132211</v>
+      </c>
+      <c r="C86" t="s">
+        <v>782</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>700</v>
+        <v>783</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>701</v>
+        <v>784</v>
       </c>
       <c r="J86" t="s">
-        <v>702</v>
+        <v>785</v>
       </c>
       <c r="K86" t="s">
-        <v>703</v>
+        <v>786</v>
       </c>
       <c r="L86" t="s">
-        <v>704</v>
+        <v>787</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>705</v>
+        <v>788</v>
       </c>
       <c r="O86" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8706,50 +9373,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>706</v>
+        <v>789</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>52190</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>132212</v>
+      </c>
+      <c r="C87" t="s">
+        <v>790</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>707</v>
+        <v>791</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>708</v>
+        <v>792</v>
       </c>
       <c r="J87" t="s">
-        <v>709</v>
+        <v>793</v>
       </c>
       <c r="K87" t="s">
-        <v>710</v>
+        <v>794</v>
       </c>
       <c r="L87" t="s">
-        <v>711</v>
+        <v>795</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O87" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8773,50 +9444,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>711</v>
+        <v>795</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>52190</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>132213</v>
+      </c>
+      <c r="C88" t="s">
+        <v>797</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>713</v>
+        <v>798</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>714</v>
+        <v>799</v>
       </c>
       <c r="J88" t="s">
-        <v>715</v>
+        <v>800</v>
       </c>
       <c r="K88" t="s">
-        <v>716</v>
+        <v>801</v>
       </c>
       <c r="L88" t="s">
-        <v>717</v>
+        <v>802</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O88" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8840,50 +9515,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>718</v>
+        <v>803</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>52190</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>45974</v>
+      </c>
+      <c r="C89" t="s">
+        <v>804</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>719</v>
+        <v>805</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>720</v>
+        <v>806</v>
       </c>
       <c r="J89" t="s">
-        <v>721</v>
+        <v>807</v>
       </c>
       <c r="K89" t="s">
-        <v>722</v>
+        <v>808</v>
       </c>
       <c r="L89" t="s">
-        <v>723</v>
+        <v>809</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>2</v>
@@ -8907,50 +9586,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>723</v>
+        <v>809</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>52190</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>132214</v>
+      </c>
+      <c r="C90" t="s">
+        <v>810</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>724</v>
+        <v>811</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>725</v>
+        <v>812</v>
       </c>
       <c r="J90" t="s">
-        <v>726</v>
+        <v>813</v>
       </c>
       <c r="K90" t="s">
-        <v>727</v>
+        <v>814</v>
       </c>
       <c r="L90" t="s">
-        <v>728</v>
+        <v>815</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O90" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8974,50 +9657,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>728</v>
+        <v>815</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>52190</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>132215</v>
+      </c>
+      <c r="C91" t="s">
+        <v>816</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>729</v>
+        <v>817</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>730</v>
+        <v>818</v>
       </c>
       <c r="J91" t="s">
-        <v>731</v>
+        <v>819</v>
       </c>
       <c r="K91" t="s">
-        <v>732</v>
+        <v>820</v>
       </c>
       <c r="L91" t="s">
-        <v>733</v>
+        <v>821</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>734</v>
+        <v>822</v>
       </c>
       <c r="O91" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9041,41 +9728,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>735</v>
+        <v>823</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>52190</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>132216</v>
+      </c>
+      <c r="C92" t="s">
+        <v>824</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>736</v>
+        <v>825</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>737</v>
+        <v>826</v>
       </c>
       <c r="J92" t="s">
-        <v>738</v>
+        <v>827</v>
       </c>
       <c r="K92" t="s">
-        <v>739</v>
+        <v>828</v>
       </c>
       <c r="L92" t="s">
-        <v>740</v>
+        <v>829</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
@@ -9104,50 +9795,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>740</v>
+        <v>829</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>52190</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>132217</v>
+      </c>
+      <c r="C93" t="s">
+        <v>830</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>742</v>
+        <v>832</v>
       </c>
       <c r="J93" t="s">
-        <v>743</v>
+        <v>833</v>
       </c>
       <c r="K93" t="s">
-        <v>744</v>
+        <v>834</v>
       </c>
       <c r="L93" t="s">
-        <v>745</v>
+        <v>835</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>746</v>
+        <v>836</v>
       </c>
       <c r="O93" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -9171,50 +9866,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>745</v>
+        <v>835</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>52190</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>132218</v>
+      </c>
+      <c r="C94" t="s">
+        <v>837</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>748</v>
+        <v>839</v>
       </c>
       <c r="J94" t="s">
-        <v>749</v>
+        <v>840</v>
       </c>
       <c r="K94" t="s">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="L94" t="s">
-        <v>751</v>
+        <v>842</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>746</v>
+        <v>836</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9238,50 +9937,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>751</v>
+        <v>842</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>52190</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>132219</v>
+      </c>
+      <c r="C95" t="s">
+        <v>843</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>752</v>
+        <v>844</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>753</v>
+        <v>845</v>
       </c>
       <c r="J95" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
       <c r="K95" t="s">
-        <v>755</v>
+        <v>847</v>
       </c>
       <c r="L95" t="s">
-        <v>756</v>
+        <v>848</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>757</v>
+        <v>849</v>
       </c>
       <c r="O95" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -9303,56 +10006,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>758</v>
+        <v>850</v>
       </c>
       <c r="X95" t="s">
-        <v>759</v>
+        <v>851</v>
       </c>
       <c r="Y95" t="s">
-        <v>760</v>
+        <v>852</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>52190</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>10648</v>
+      </c>
+      <c r="C96" t="s">
+        <v>853</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>761</v>
+        <v>854</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>762</v>
+        <v>855</v>
       </c>
       <c r="J96" t="s">
-        <v>763</v>
+        <v>856</v>
       </c>
       <c r="K96" t="s">
-        <v>764</v>
+        <v>857</v>
       </c>
       <c r="L96" t="s">
-        <v>765</v>
+        <v>858</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>766</v>
+        <v>859</v>
       </c>
       <c r="O96" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9376,50 +10083,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>765</v>
+        <v>858</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>52190</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>132220</v>
+      </c>
+      <c r="C97" t="s">
+        <v>860</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>767</v>
+        <v>861</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>768</v>
+        <v>862</v>
       </c>
       <c r="J97" t="s">
-        <v>769</v>
+        <v>863</v>
       </c>
       <c r="K97" t="s">
-        <v>770</v>
+        <v>864</v>
       </c>
       <c r="L97" t="s">
-        <v>771</v>
+        <v>865</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>772</v>
+        <v>866</v>
       </c>
       <c r="O97" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9441,56 +10152,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>773</v>
+        <v>867</v>
       </c>
       <c r="X97" t="s">
-        <v>774</v>
+        <v>868</v>
       </c>
       <c r="Y97" t="s">
-        <v>775</v>
+        <v>869</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>52190</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>132221</v>
+      </c>
+      <c r="C98" t="s">
+        <v>870</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>776</v>
+        <v>871</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>777</v>
+        <v>872</v>
       </c>
       <c r="J98" t="s">
-        <v>778</v>
+        <v>873</v>
       </c>
       <c r="K98" t="s">
-        <v>779</v>
+        <v>874</v>
       </c>
       <c r="L98" t="s">
-        <v>780</v>
+        <v>875</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>781</v>
+        <v>876</v>
       </c>
       <c r="O98" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9514,50 +10229,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>780</v>
+        <v>875</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>52190</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>132222</v>
+      </c>
+      <c r="C99" t="s">
+        <v>877</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>782</v>
+        <v>878</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>783</v>
+        <v>879</v>
       </c>
       <c r="J99" t="s">
-        <v>784</v>
+        <v>880</v>
       </c>
       <c r="K99" t="s">
-        <v>785</v>
+        <v>881</v>
       </c>
       <c r="L99" t="s">
-        <v>786</v>
+        <v>882</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>787</v>
+        <v>883</v>
       </c>
       <c r="O99" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9581,50 +10300,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>788</v>
+        <v>884</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>52190</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>132223</v>
+      </c>
+      <c r="C100" t="s">
+        <v>885</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>789</v>
+        <v>886</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>790</v>
+        <v>887</v>
       </c>
       <c r="J100" t="s">
-        <v>791</v>
+        <v>888</v>
       </c>
       <c r="K100" t="s">
-        <v>792</v>
+        <v>889</v>
       </c>
       <c r="L100" t="s">
-        <v>793</v>
+        <v>890</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>787</v>
+        <v>883</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9648,50 +10371,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>793</v>
+        <v>890</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>52190</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>132224</v>
+      </c>
+      <c r="C101" t="s">
+        <v>891</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>794</v>
+        <v>892</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>795</v>
+        <v>893</v>
       </c>
       <c r="J101" t="s">
-        <v>796</v>
+        <v>894</v>
       </c>
       <c r="K101" t="s">
-        <v>797</v>
+        <v>895</v>
       </c>
       <c r="L101" t="s">
-        <v>798</v>
+        <v>896</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>799</v>
+        <v>897</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9711,50 +10438,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>798</v>
+        <v>896</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>52190</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>132225</v>
+      </c>
+      <c r="C102" t="s">
+        <v>898</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>801</v>
+        <v>900</v>
       </c>
       <c r="J102" t="s">
-        <v>802</v>
+        <v>901</v>
       </c>
       <c r="K102" t="s">
-        <v>803</v>
+        <v>902</v>
       </c>
       <c r="L102" t="s">
-        <v>804</v>
+        <v>903</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>805</v>
+        <v>904</v>
       </c>
       <c r="O102" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9774,50 +10505,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>804</v>
+        <v>903</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>52190</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>98905</v>
+      </c>
+      <c r="C103" t="s">
+        <v>905</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>806</v>
+        <v>906</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>807</v>
+        <v>907</v>
       </c>
       <c r="J103" t="s">
-        <v>808</v>
+        <v>908</v>
       </c>
       <c r="K103" t="s">
-        <v>809</v>
+        <v>909</v>
       </c>
       <c r="L103" t="s">
-        <v>810</v>
+        <v>910</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>799</v>
+        <v>897</v>
       </c>
       <c r="O103" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9837,50 +10572,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>811</v>
+        <v>911</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>52190</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>132226</v>
+      </c>
+      <c r="C104" t="s">
+        <v>912</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>812</v>
+        <v>913</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>813</v>
+        <v>914</v>
       </c>
       <c r="J104" t="s">
-        <v>814</v>
+        <v>915</v>
       </c>
       <c r="K104" t="s">
-        <v>815</v>
+        <v>916</v>
       </c>
       <c r="L104" t="s">
-        <v>816</v>
+        <v>917</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>817</v>
+        <v>918</v>
       </c>
       <c r="O104" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9900,50 +10639,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>818</v>
+        <v>919</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>52190</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>132227</v>
+      </c>
+      <c r="C105" t="s">
+        <v>920</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>819</v>
+        <v>921</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>820</v>
+        <v>922</v>
       </c>
       <c r="J105" t="s">
-        <v>821</v>
+        <v>923</v>
       </c>
       <c r="K105" t="s">
-        <v>822</v>
+        <v>924</v>
       </c>
       <c r="L105" t="s">
-        <v>823</v>
+        <v>925</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>817</v>
+        <v>918</v>
       </c>
       <c r="O105" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9963,50 +10706,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>823</v>
+        <v>925</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>52190</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>132228</v>
+      </c>
+      <c r="C106" t="s">
+        <v>926</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>824</v>
+        <v>927</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>825</v>
+        <v>928</v>
       </c>
       <c r="J106" t="s">
-        <v>826</v>
+        <v>929</v>
       </c>
       <c r="K106" t="s">
-        <v>827</v>
+        <v>930</v>
       </c>
       <c r="L106" t="s">
-        <v>828</v>
+        <v>931</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>829</v>
+        <v>932</v>
       </c>
       <c r="O106" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -10030,50 +10777,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>828</v>
+        <v>931</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>52190</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>132229</v>
+      </c>
+      <c r="C107" t="s">
+        <v>933</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>830</v>
+        <v>934</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>831</v>
+        <v>935</v>
       </c>
       <c r="J107" t="s">
-        <v>832</v>
+        <v>936</v>
       </c>
       <c r="K107" t="s">
-        <v>833</v>
+        <v>937</v>
       </c>
       <c r="L107" t="s">
-        <v>834</v>
+        <v>938</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>835</v>
+        <v>939</v>
       </c>
       <c r="O107" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10097,41 +10848,45 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>836</v>
+        <v>940</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>52190</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>132230</v>
+      </c>
+      <c r="C108" t="s">
+        <v>941</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>837</v>
+        <v>942</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>838</v>
+        <v>943</v>
       </c>
       <c r="J108" t="s">
-        <v>839</v>
+        <v>944</v>
       </c>
       <c r="K108" t="s">
-        <v>840</v>
+        <v>945</v>
       </c>
       <c r="L108" t="s">
-        <v>841</v>
+        <v>946</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
@@ -10160,50 +10915,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>841</v>
+        <v>946</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>52190</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>118408</v>
+      </c>
+      <c r="C109" t="s">
+        <v>947</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>842</v>
+        <v>948</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>843</v>
+        <v>949</v>
       </c>
       <c r="J109" t="s">
-        <v>844</v>
+        <v>950</v>
       </c>
       <c r="K109" t="s">
-        <v>845</v>
+        <v>951</v>
       </c>
       <c r="L109" t="s">
-        <v>846</v>
+        <v>952</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
       </c>
       <c r="N109" t="s">
-        <v>847</v>
+        <v>953</v>
       </c>
       <c r="O109" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P109" t="n">
         <v>2</v>
@@ -10227,50 +10986,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>848</v>
+        <v>954</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>52190</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>132231</v>
+      </c>
+      <c r="C110" t="s">
+        <v>955</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>849</v>
+        <v>956</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>850</v>
+        <v>957</v>
       </c>
       <c r="J110" t="s">
-        <v>851</v>
+        <v>958</v>
       </c>
       <c r="K110" t="s">
-        <v>852</v>
+        <v>959</v>
       </c>
       <c r="L110" t="s">
-        <v>853</v>
+        <v>960</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
       </c>
       <c r="N110" t="s">
-        <v>854</v>
+        <v>961</v>
       </c>
       <c r="O110" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P110" t="n">
         <v>3</v>
@@ -10294,50 +11057,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>855</v>
+        <v>962</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>52190</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>132232</v>
+      </c>
+      <c r="C111" t="s">
+        <v>963</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>856</v>
+        <v>964</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>857</v>
+        <v>965</v>
       </c>
       <c r="J111" t="s">
-        <v>858</v>
+        <v>966</v>
       </c>
       <c r="K111" t="s">
-        <v>859</v>
+        <v>967</v>
       </c>
       <c r="L111" t="s">
-        <v>860</v>
+        <v>968</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>861</v>
+        <v>969</v>
       </c>
       <c r="O111" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10361,41 +11128,45 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>862</v>
+        <v>970</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>52190</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>132233</v>
+      </c>
+      <c r="C112" t="s">
+        <v>971</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>863</v>
+        <v>972</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>864</v>
+        <v>973</v>
       </c>
       <c r="J112" t="s">
-        <v>865</v>
+        <v>974</v>
       </c>
       <c r="K112" t="s">
-        <v>866</v>
+        <v>975</v>
       </c>
       <c r="L112" t="s">
-        <v>867</v>
+        <v>976</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
@@ -10414,7 +11185,7 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>867</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_145.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_145.xlsx
@@ -3514,7 +3514,7 @@
         <v>52190</v>
       </c>
       <c r="B2" t="n">
-        <v>132158</v>
+        <v>162949</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3585,7 +3585,7 @@
         <v>52190</v>
       </c>
       <c r="B3" t="n">
-        <v>132159</v>
+        <v>162950</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3656,7 +3656,7 @@
         <v>52190</v>
       </c>
       <c r="B4" t="n">
-        <v>132160</v>
+        <v>162951</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -3784,7 +3784,7 @@
         <v>52190</v>
       </c>
       <c r="B6" t="n">
-        <v>132161</v>
+        <v>162952</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
@@ -3916,7 +3916,7 @@
         <v>52190</v>
       </c>
       <c r="B8" t="n">
-        <v>132162</v>
+        <v>162953</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -4044,7 +4044,7 @@
         <v>52190</v>
       </c>
       <c r="B10" t="n">
-        <v>132163</v>
+        <v>162954</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
@@ -4109,7 +4109,7 @@
         <v>52190</v>
       </c>
       <c r="B11" t="n">
-        <v>132164</v>
+        <v>162955</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
@@ -4166,7 +4166,7 @@
         <v>52190</v>
       </c>
       <c r="B12" t="n">
-        <v>132165</v>
+        <v>162956</v>
       </c>
       <c r="C12" t="s">
         <v>130</v>
@@ -4304,7 +4304,7 @@
         <v>52190</v>
       </c>
       <c r="B14" t="n">
-        <v>132166</v>
+        <v>162957</v>
       </c>
       <c r="C14" t="s">
         <v>146</v>
@@ -4369,7 +4369,7 @@
         <v>52190</v>
       </c>
       <c r="B15" t="n">
-        <v>132167</v>
+        <v>162958</v>
       </c>
       <c r="C15" t="s">
         <v>156</v>
@@ -4434,7 +4434,7 @@
         <v>52190</v>
       </c>
       <c r="B16" t="n">
-        <v>132168</v>
+        <v>162959</v>
       </c>
       <c r="C16" t="s">
         <v>166</v>
@@ -4566,7 +4566,7 @@
         <v>52190</v>
       </c>
       <c r="B18" t="n">
-        <v>132169</v>
+        <v>162960</v>
       </c>
       <c r="C18" t="s">
         <v>183</v>
@@ -4635,7 +4635,7 @@
         <v>52190</v>
       </c>
       <c r="B19" t="n">
-        <v>132170</v>
+        <v>162961</v>
       </c>
       <c r="C19" t="s">
         <v>192</v>
@@ -4696,7 +4696,7 @@
         <v>52190</v>
       </c>
       <c r="B20" t="n">
-        <v>132171</v>
+        <v>162962</v>
       </c>
       <c r="C20" t="s">
         <v>201</v>
@@ -4765,7 +4765,7 @@
         <v>52190</v>
       </c>
       <c r="B21" t="n">
-        <v>132172</v>
+        <v>162963</v>
       </c>
       <c r="C21" t="s">
         <v>211</v>
@@ -4836,7 +4836,7 @@
         <v>52190</v>
       </c>
       <c r="B22" t="n">
-        <v>132173</v>
+        <v>162964</v>
       </c>
       <c r="C22" t="s">
         <v>220</v>
@@ -5096,7 +5096,7 @@
         <v>52190</v>
       </c>
       <c r="B26" t="n">
-        <v>132174</v>
+        <v>162965</v>
       </c>
       <c r="C26" t="s">
         <v>257</v>
@@ -5167,7 +5167,7 @@
         <v>52190</v>
       </c>
       <c r="B27" t="n">
-        <v>132175</v>
+        <v>162966</v>
       </c>
       <c r="C27" t="s">
         <v>266</v>
@@ -5510,7 +5510,7 @@
         <v>52190</v>
       </c>
       <c r="B32" t="n">
-        <v>132176</v>
+        <v>162967</v>
       </c>
       <c r="C32" t="s">
         <v>310</v>
@@ -5575,7 +5575,7 @@
         <v>52190</v>
       </c>
       <c r="B33" t="n">
-        <v>132177</v>
+        <v>162968</v>
       </c>
       <c r="C33" t="s">
         <v>321</v>
@@ -5715,7 +5715,7 @@
         <v>52190</v>
       </c>
       <c r="B35" t="n">
-        <v>132178</v>
+        <v>162969</v>
       </c>
       <c r="C35" t="s">
         <v>337</v>
@@ -5780,7 +5780,7 @@
         <v>52190</v>
       </c>
       <c r="B36" t="n">
-        <v>132179</v>
+        <v>162970</v>
       </c>
       <c r="C36" t="s">
         <v>344</v>
@@ -5975,7 +5975,7 @@
         <v>52190</v>
       </c>
       <c r="B39" t="n">
-        <v>132180</v>
+        <v>162971</v>
       </c>
       <c r="C39" t="s">
         <v>365</v>
@@ -6097,7 +6097,7 @@
         <v>52190</v>
       </c>
       <c r="B41" t="n">
-        <v>132181</v>
+        <v>162972</v>
       </c>
       <c r="C41" t="s">
         <v>377</v>
@@ -6168,7 +6168,7 @@
         <v>52190</v>
       </c>
       <c r="B42" t="n">
-        <v>132182</v>
+        <v>162973</v>
       </c>
       <c r="C42" t="s">
         <v>387</v>
@@ -6237,7 +6237,7 @@
         <v>52190</v>
       </c>
       <c r="B43" t="n">
-        <v>132183</v>
+        <v>162974</v>
       </c>
       <c r="C43" t="s">
         <v>394</v>
@@ -6379,7 +6379,7 @@
         <v>52190</v>
       </c>
       <c r="B45" t="n">
-        <v>132184</v>
+        <v>162975</v>
       </c>
       <c r="C45" t="s">
         <v>409</v>
@@ -6588,7 +6588,7 @@
         <v>52190</v>
       </c>
       <c r="B48" t="n">
-        <v>132185</v>
+        <v>162976</v>
       </c>
       <c r="C48" t="s">
         <v>438</v>
@@ -6659,7 +6659,7 @@
         <v>52190</v>
       </c>
       <c r="B49" t="n">
-        <v>132186</v>
+        <v>162977</v>
       </c>
       <c r="C49" t="s">
         <v>448</v>
@@ -6730,7 +6730,7 @@
         <v>52190</v>
       </c>
       <c r="B50" t="n">
-        <v>132187</v>
+        <v>162978</v>
       </c>
       <c r="C50" t="s">
         <v>456</v>
@@ -6872,7 +6872,7 @@
         <v>52190</v>
       </c>
       <c r="B52" t="n">
-        <v>132188</v>
+        <v>162979</v>
       </c>
       <c r="C52" t="s">
         <v>475</v>
@@ -6943,7 +6943,7 @@
         <v>52190</v>
       </c>
       <c r="B53" t="n">
-        <v>132189</v>
+        <v>162980</v>
       </c>
       <c r="C53" t="s">
         <v>484</v>
@@ -7008,7 +7008,7 @@
         <v>52190</v>
       </c>
       <c r="B54" t="n">
-        <v>132190</v>
+        <v>162981</v>
       </c>
       <c r="C54" t="s">
         <v>494</v>
@@ -7290,7 +7290,7 @@
         <v>52190</v>
       </c>
       <c r="B58" t="n">
-        <v>132191</v>
+        <v>162982</v>
       </c>
       <c r="C58" t="s">
         <v>530</v>
@@ -7359,7 +7359,7 @@
         <v>52190</v>
       </c>
       <c r="B59" t="n">
-        <v>132192</v>
+        <v>162983</v>
       </c>
       <c r="C59" t="s">
         <v>538</v>
@@ -7430,7 +7430,7 @@
         <v>52190</v>
       </c>
       <c r="B60" t="n">
-        <v>132193</v>
+        <v>162984</v>
       </c>
       <c r="C60" t="s">
         <v>547</v>
@@ -7501,7 +7501,7 @@
         <v>52190</v>
       </c>
       <c r="B61" t="n">
-        <v>132194</v>
+        <v>162985</v>
       </c>
       <c r="C61" t="s">
         <v>555</v>
@@ -7572,7 +7572,7 @@
         <v>52190</v>
       </c>
       <c r="B62" t="n">
-        <v>132195</v>
+        <v>162986</v>
       </c>
       <c r="C62" t="s">
         <v>564</v>
@@ -7643,7 +7643,7 @@
         <v>52190</v>
       </c>
       <c r="B63" t="n">
-        <v>132196</v>
+        <v>162987</v>
       </c>
       <c r="C63" t="s">
         <v>574</v>
@@ -7714,7 +7714,7 @@
         <v>52190</v>
       </c>
       <c r="B64" t="n">
-        <v>132197</v>
+        <v>162988</v>
       </c>
       <c r="C64" t="s">
         <v>583</v>
@@ -7913,7 +7913,7 @@
         <v>52190</v>
       </c>
       <c r="B67" t="n">
-        <v>132198</v>
+        <v>162989</v>
       </c>
       <c r="C67" t="s">
         <v>609</v>
@@ -7984,7 +7984,7 @@
         <v>52190</v>
       </c>
       <c r="B68" t="n">
-        <v>132199</v>
+        <v>162990</v>
       </c>
       <c r="C68" t="s">
         <v>619</v>
@@ -8049,7 +8049,7 @@
         <v>52190</v>
       </c>
       <c r="B69" t="n">
-        <v>132200</v>
+        <v>162991</v>
       </c>
       <c r="C69" t="s">
         <v>629</v>
@@ -8274,7 +8274,7 @@
         <v>52190</v>
       </c>
       <c r="B72" t="n">
-        <v>132201</v>
+        <v>162992</v>
       </c>
       <c r="C72" t="s">
         <v>659</v>
@@ -8489,7 +8489,7 @@
         <v>52190</v>
       </c>
       <c r="B75" t="n">
-        <v>132202</v>
+        <v>162993</v>
       </c>
       <c r="C75" t="s">
         <v>685</v>
@@ -8560,7 +8560,7 @@
         <v>52190</v>
       </c>
       <c r="B76" t="n">
-        <v>132203</v>
+        <v>162994</v>
       </c>
       <c r="C76" t="s">
         <v>694</v>
@@ -8635,7 +8635,7 @@
         <v>52190</v>
       </c>
       <c r="B77" t="n">
-        <v>132204</v>
+        <v>162995</v>
       </c>
       <c r="C77" t="s">
         <v>704</v>
@@ -8710,7 +8710,7 @@
         <v>52190</v>
       </c>
       <c r="B78" t="n">
-        <v>132205</v>
+        <v>162996</v>
       </c>
       <c r="C78" t="s">
         <v>711</v>
@@ -8785,7 +8785,7 @@
         <v>52190</v>
       </c>
       <c r="B79" t="n">
-        <v>132206</v>
+        <v>162997</v>
       </c>
       <c r="C79" t="s">
         <v>720</v>
@@ -8860,7 +8860,7 @@
         <v>52190</v>
       </c>
       <c r="B80" t="n">
-        <v>132207</v>
+        <v>162998</v>
       </c>
       <c r="C80" t="s">
         <v>727</v>
@@ -8935,7 +8935,7 @@
         <v>52190</v>
       </c>
       <c r="B81" t="n">
-        <v>132208</v>
+        <v>162999</v>
       </c>
       <c r="C81" t="s">
         <v>736</v>
@@ -9010,7 +9010,7 @@
         <v>52190</v>
       </c>
       <c r="B82" t="n">
-        <v>132209</v>
+        <v>163000</v>
       </c>
       <c r="C82" t="s">
         <v>744</v>
@@ -9160,7 +9160,7 @@
         <v>52190</v>
       </c>
       <c r="B84" t="n">
-        <v>132210</v>
+        <v>163001</v>
       </c>
       <c r="C84" t="s">
         <v>764</v>
@@ -9310,7 +9310,7 @@
         <v>52190</v>
       </c>
       <c r="B86" t="n">
-        <v>132211</v>
+        <v>163002</v>
       </c>
       <c r="C86" t="s">
         <v>782</v>
@@ -9381,7 +9381,7 @@
         <v>52190</v>
       </c>
       <c r="B87" t="n">
-        <v>132212</v>
+        <v>163003</v>
       </c>
       <c r="C87" t="s">
         <v>790</v>
@@ -9452,7 +9452,7 @@
         <v>52190</v>
       </c>
       <c r="B88" t="n">
-        <v>132213</v>
+        <v>163004</v>
       </c>
       <c r="C88" t="s">
         <v>797</v>
@@ -9594,7 +9594,7 @@
         <v>52190</v>
       </c>
       <c r="B90" t="n">
-        <v>132214</v>
+        <v>163005</v>
       </c>
       <c r="C90" t="s">
         <v>810</v>
@@ -9665,7 +9665,7 @@
         <v>52190</v>
       </c>
       <c r="B91" t="n">
-        <v>132215</v>
+        <v>163006</v>
       </c>
       <c r="C91" t="s">
         <v>816</v>
@@ -9736,7 +9736,7 @@
         <v>52190</v>
       </c>
       <c r="B92" t="n">
-        <v>132216</v>
+        <v>163007</v>
       </c>
       <c r="C92" t="s">
         <v>824</v>
@@ -9803,7 +9803,7 @@
         <v>52190</v>
       </c>
       <c r="B93" t="n">
-        <v>132217</v>
+        <v>163008</v>
       </c>
       <c r="C93" t="s">
         <v>830</v>
@@ -9874,7 +9874,7 @@
         <v>52190</v>
       </c>
       <c r="B94" t="n">
-        <v>132218</v>
+        <v>163009</v>
       </c>
       <c r="C94" t="s">
         <v>837</v>
@@ -9945,7 +9945,7 @@
         <v>52190</v>
       </c>
       <c r="B95" t="n">
-        <v>132219</v>
+        <v>163010</v>
       </c>
       <c r="C95" t="s">
         <v>843</v>
@@ -10091,7 +10091,7 @@
         <v>52190</v>
       </c>
       <c r="B97" t="n">
-        <v>132220</v>
+        <v>163011</v>
       </c>
       <c r="C97" t="s">
         <v>860</v>
@@ -10166,7 +10166,7 @@
         <v>52190</v>
       </c>
       <c r="B98" t="n">
-        <v>132221</v>
+        <v>163012</v>
       </c>
       <c r="C98" t="s">
         <v>870</v>
@@ -10237,7 +10237,7 @@
         <v>52190</v>
       </c>
       <c r="B99" t="n">
-        <v>132222</v>
+        <v>163013</v>
       </c>
       <c r="C99" t="s">
         <v>877</v>
@@ -10308,7 +10308,7 @@
         <v>52190</v>
       </c>
       <c r="B100" t="n">
-        <v>132223</v>
+        <v>163014</v>
       </c>
       <c r="C100" t="s">
         <v>885</v>
@@ -10379,7 +10379,7 @@
         <v>52190</v>
       </c>
       <c r="B101" t="n">
-        <v>132224</v>
+        <v>163015</v>
       </c>
       <c r="C101" t="s">
         <v>891</v>
@@ -10446,7 +10446,7 @@
         <v>52190</v>
       </c>
       <c r="B102" t="n">
-        <v>132225</v>
+        <v>163016</v>
       </c>
       <c r="C102" t="s">
         <v>898</v>
@@ -10580,7 +10580,7 @@
         <v>52190</v>
       </c>
       <c r="B104" t="n">
-        <v>132226</v>
+        <v>163017</v>
       </c>
       <c r="C104" t="s">
         <v>912</v>
@@ -10647,7 +10647,7 @@
         <v>52190</v>
       </c>
       <c r="B105" t="n">
-        <v>132227</v>
+        <v>163018</v>
       </c>
       <c r="C105" t="s">
         <v>920</v>
@@ -10714,7 +10714,7 @@
         <v>52190</v>
       </c>
       <c r="B106" t="n">
-        <v>132228</v>
+        <v>163019</v>
       </c>
       <c r="C106" t="s">
         <v>926</v>
@@ -10785,7 +10785,7 @@
         <v>52190</v>
       </c>
       <c r="B107" t="n">
-        <v>132229</v>
+        <v>163020</v>
       </c>
       <c r="C107" t="s">
         <v>933</v>
@@ -10856,7 +10856,7 @@
         <v>52190</v>
       </c>
       <c r="B108" t="n">
-        <v>132230</v>
+        <v>163021</v>
       </c>
       <c r="C108" t="s">
         <v>941</v>
@@ -10994,7 +10994,7 @@
         <v>52190</v>
       </c>
       <c r="B110" t="n">
-        <v>132231</v>
+        <v>163022</v>
       </c>
       <c r="C110" t="s">
         <v>955</v>
@@ -11065,7 +11065,7 @@
         <v>52190</v>
       </c>
       <c r="B111" t="n">
-        <v>132232</v>
+        <v>163023</v>
       </c>
       <c r="C111" t="s">
         <v>963</v>
@@ -11136,7 +11136,7 @@
         <v>52190</v>
       </c>
       <c r="B112" t="n">
-        <v>132233</v>
+        <v>163024</v>
       </c>
       <c r="C112" t="s">
         <v>971</v>
